--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{623E1239-D9F2-437B-81B1-FBCA7C3B915F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB30944B-3D5D-4654-9E9D-569B654DBE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge sorted array </t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>take 2 pointers and simply run them in m+n()length of 2 arrays . Later clean the array</t>
   </si>
 </sst>
 </file>
@@ -394,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,6 +436,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB30944B-3D5D-4654-9E9D-569B654DBE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB4EDF4-2BC7-47FD-931A-82D5D3C159AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>take 2 pointers and simply run them in m+n()length of 2 arrays . Later clean the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove element </t>
+  </si>
+  <si>
+    <t>simply condition that the element of the array should not be equal to the the given value the length of the array =  n(size of the array)-  count(count of the given value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove duplicate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create and array fill the first position and in the loop fill the spot only if (i)th element is not equal to the (i-1)th element </t>
   </si>
 </sst>
 </file>
@@ -406,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,6 +471,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB4EDF4-2BC7-47FD-931A-82D5D3C159AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ED81BE-7D41-436E-9173-D16094D72231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t xml:space="preserve">create and array fill the first position and in the loop fill the spot only if (i)th element is not equal to the (i-1)th element </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove duplicate from sorted array -II </t>
+  </si>
+  <si>
+    <t>if length &lt;= 2 return same, take two pointers  I and j with initial value of 2 check is nums[j] != nums[i-2] increment as ++j and ++i</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +511,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ED81BE-7D41-436E-9173-D16094D72231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDE327-E9B7-4558-AB4A-8EACDF215360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -79,6 +79,27 @@
   </si>
   <si>
     <t>if length &lt;= 2 return same, take two pointers  I and j with initial value of 2 check is nums[j] != nums[i-2] increment as ++j and ++i</t>
+  </si>
+  <si>
+    <t>find majority element</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>[using boyer-moore algorithm] variables intialised are candidate and a count. (simple logic of count += (num == candidate) ? 1 : -1)</t>
+  </si>
+  <si>
+    <t>Please revise the boyer-moore algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse the 0 to n-k-1 then reverse n-k to n-1 and then reverse the whole array </t>
+  </si>
+  <si>
+    <t>Please revise the block swap algorithm(this another way to reverse the array)</t>
   </si>
 </sst>
 </file>
@@ -430,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,10 +543,54 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDE327-E9B7-4558-AB4A-8EACDF215360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A4125-15B7-4A26-A940-401BA254C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Please revise the block swap algorithm(this another way to reverse the array)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best time to buy and sell stock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first find the lowest buying price and then find the highest profit sequentially in the same loop </t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,6 +599,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A4125-15B7-4A26-A940-401BA254C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311D867B-0F85-4B9C-9938-DA6D379F8F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t xml:space="preserve">first find the lowest buying price and then find the highest profit sequentially in the same loop </t>
+  </si>
+  <si>
+    <t>best time to buy and sell stock II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it the next value is greater than the previous value then add the difference to the total profit and remember the statrt the array from 1 </t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,6 +622,23 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311D867B-0F85-4B9C-9938-DA6D379F8F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D3B58-EAD1-49B8-B020-ED45E2B80ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t xml:space="preserve">it the next value is greater than the previous value then add the difference to the total profit and remember the statrt the array from 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jump game </t>
+  </si>
+  <si>
+    <t>have a reachable variable and if the pointer crosses the reachable then return false otherwise the reachable is updated to the maximum of the reachable and nums[i] + i</t>
+  </si>
+  <si>
+    <t>Please revise the cross the valley algorithm</t>
   </si>
 </sst>
 </file>
@@ -463,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,6 +648,28 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D3B58-EAD1-49B8-B020-ED45E2B80ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C16BD37-22B4-4EAD-9C32-36D63BF2A86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Please revise the cross the valley algorithm</t>
+  </si>
+  <si>
+    <t>length of the last word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first trim the string and then keep storing the length of the current word </t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +676,23 @@
         <v>31</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C16BD37-22B4-4EAD-9C32-36D63BF2A86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089BB826-C42E-4F05-9C8B-2F3C6CFC2989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t xml:space="preserve">first trim the string and then keep storing the length of the current word </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse word in a string </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> string and array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trim the string such that there is no white space in the beginning and end of the string and the only one white space in between in the words </t>
+  </si>
+  <si>
+    <t xml:space="preserve">longest substring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>return null if empty consider prefix as the string 0 of the vector and loop over the vector and in the while have the conditio nwhere j start from the 0 now should be less than the current length and the nength of the prefix and the prefix is updated as the prefix =  prefix.substr(0, j)</t>
   </si>
 </sst>
 </file>
@@ -478,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +711,40 @@
         <v>33</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089BB826-C42E-4F05-9C8B-2F3C6CFC2989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C80EA0-9D18-4086-8E79-E3785DB77191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>return null if empty consider prefix as the string 0 of the vector and loop over the vector and in the while have the conditio nwhere j start from the 0 now should be less than the current length and the nength of the prefix and the prefix is updated as the prefix =  prefix.substr(0, j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> first occurrence of the substring </t>
+  </si>
+  <si>
+    <t>loop from 0 to n-1 and keep on checking the substring of the length of the needle and then if it is equal to the needle then return the index i else return -1</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +751,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C80EA0-9D18-4086-8E79-E3785DB77191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E7BFB-D688-4E66-9D8B-FF4648230D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>loop from 0 to n-1 and keep on checking the substring of the length of the needle and then if it is equal to the needle then return the index i else return -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid palindrome </t>
+  </si>
+  <si>
+    <t>use two pointer from left and right keep on doing left++ and right-- move the pointers if the isalnum()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked list </t>
+  </si>
+  <si>
+    <t>return list2 if list1 is null return list1 if list2 is null otherwise use the recursive approch if list1-&gt;val &lt; list2-&gt;val then result = list1 list1 = list1-&gt;next other wise same with list2</t>
   </si>
 </sst>
 </file>
@@ -502,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,6 +780,40 @@
         <v>41</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E7BFB-D688-4E66-9D8B-FF4648230D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8B2F3C-D1D9-48AD-9AD0-C072244EC297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>return list2 if list1 is null return list1 if list2 is null otherwise use the recursive approch if list1-&gt;val &lt; list2-&gt;val then result = list1 list1 = list1-&gt;next other wise same with list2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spiral matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium </t>
+  </si>
+  <si>
+    <t>mark the points top bottom right left, condition check for  top&lt;=bottom , left&lt;=right and then move from left to right top++ top to bottom right -- right to left bottom -- and bottom to top left ++</t>
   </si>
 </sst>
 </file>
@@ -514,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +826,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8B2F3C-D1D9-48AD-9AD0-C072244EC297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB146F8-5F7C-46C7-A41B-AFF82DD6CEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>mark the points top bottom right left, condition check for  top&lt;=bottom , left&lt;=right and then move from left to right top++ top to bottom right -- right to left bottom -- and bottom to top left ++</t>
+  </si>
+  <si>
+    <t>gas station</t>
+  </si>
+  <si>
+    <t>take the start pointer, 2 variable total(to store the total gas and cost) and the curr_sum that store the difference of the gas and cost for that station curr_sum should set to 0 is if it is less than 0 and the start become i+1 return -1 is total &lt; 0</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,6 +849,23 @@
         <v>49</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB146F8-5F7C-46C7-A41B-AFF82DD6CEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3ACA7E-C8CD-4AE2-A881-8EA772328C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>take the start pointer, 2 variable total(to store the total gas and cost) and the curr_sum that store the difference of the gas and cost for that station curr_sum should set to 0 is if it is less than 0 and the start become i+1 return -1 is total &lt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxWater </t>
+  </si>
+  <si>
+    <t>take two pointer left and right find the area and the maxArea if height of right is more than left then incremnet left otherwise decrement right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search insert position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just a simple binary search and if the number is not fount then return left </t>
   </si>
 </sst>
 </file>
@@ -532,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +878,40 @@
         <v>51</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3ACA7E-C8CD-4AE2-A881-8EA772328C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA819B-FF3F-4B89-AB83-D07F6145DBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -193,6 +193,63 @@
   </si>
   <si>
     <t xml:space="preserve">just a simple binary search and if the number is not fount then return left </t>
+  </si>
+  <si>
+    <t>no of good pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just increment the count when the index I and j have the same value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum words found in the sentence </t>
+  </si>
+  <si>
+    <t>just count the words in each sentence and keep the count maxCOunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> equivalent string or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">array and string </t>
+  </si>
+  <si>
+    <t>first convert the array into string then simple check if they are equivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagonal sum </t>
+  </si>
+  <si>
+    <t>find the sum of the left and right diagnol if the length of the matrix is odd then minus the middle element once otherwise minux 0</t>
+  </si>
+  <si>
+    <t>maximum product difference between 2 pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort the array and find the difference between the product of the last 2 element and the product of the first 2 pairs </t>
+  </si>
+  <si>
+    <t>sum of multiple</t>
+  </si>
+  <si>
+    <t>kar loge</t>
+  </si>
+  <si>
+    <t>largest local value in the matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">define a matrix of n-2 Xn-2 and keep stroring the largest in the 3X3 from k =0 to n-3 and l = 0 to n-3 in the resultant matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first palindrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just return the first palindrome string that you find </t>
+  </si>
+  <si>
+    <t xml:space="preserve">array partition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort the array and then add the elements alternatively </t>
   </si>
 </sst>
 </file>
@@ -544,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,6 +969,159 @@
         <v>55</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA819B-FF3F-4B89-AB83-D07F6145DBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C2125F-590E-4B56-8DA9-16C2D9EAC072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -250,6 +250,111 @@
   </si>
   <si>
     <t xml:space="preserve">sort the array and then add the elements alternatively </t>
+  </si>
+  <si>
+    <t>lucky number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use the two pointer approch two get the result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum value of the string in an array </t>
+  </si>
+  <si>
+    <t>check if the string is all digit otherwise update the current to the length of the string (use the stoi function to convert the string of all digits to numbers)</t>
+  </si>
+  <si>
+    <t>querytime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> easy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just a normal iteration problem </t>
+  </si>
+  <si>
+    <t>pascal triangle</t>
+  </si>
+  <si>
+    <t>static value for num row 1 and 2 and then do the logic on num row 3 or more k starting from 3 and then keep on going to the num-2</t>
+  </si>
+  <si>
+    <t>find the unique element to sum up to be 0</t>
+  </si>
+  <si>
+    <t>iterate from 1 to n/2 and push I and -I to the vector and if the n is odd then push 0 also</t>
+  </si>
+  <si>
+    <t>difference of 2 array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert the array tp set and the back to array to remove the duplicate and then remove the common elements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the gcd in the array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first sort the array and then find the gcd of the first and the last element of the array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">n repeated element in the size of 2n array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first sort the array and then keep comparing if current and the previous elements are equal or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete the colume to make array sorted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an outer while moving from first character to the last character and the inner for loop checking if the character are sorted or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">single number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort the array and then if the length if is 1 then return the only elemnet if the first and the second element are not equal then return the first elemet if the previous and next are not equal to the current then return current otherwise return last element </t>
+  </si>
+  <si>
+    <t xml:space="preserve">count the number of prefixes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just a simple nested loop logic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum value to get positive step by step sum </t>
+  </si>
+  <si>
+    <t>just keep inceamenting the value of I from any point the sum become less then 1</t>
+  </si>
+  <si>
+    <t>nearest point that has the same x or y coordinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just a check if it has the same x and y coordinate then find the minimum distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just perform the binary search jo u already know </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if the array is good or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the size is 1 or 0 return false other wise we have k moving from 1 to n keep checking if it is equal to the element of the array and at last check last condition that you know what </t>
+  </si>
+  <si>
+    <t xml:space="preserve">common words with one occurance </t>
+  </si>
+  <si>
+    <t>take an unordermap with string and pair of int, int that stores the freq of each word in both the array and later check which all the words have the pair 1,1</t>
+  </si>
+  <si>
+    <t>intersection of the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just find the frequency of each number in both array and then add only those number to the result whose frequency is greater than 0 in both the arrays </t>
   </si>
 </sst>
 </file>
@@ -601,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,6 +1227,295 @@
         <v>74</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C2125F-590E-4B56-8DA9-16C2D9EAC072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017D51B9-C2BE-49F4-AA73-B673BD4C659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -355,6 +355,30 @@
   </si>
   <si>
     <t xml:space="preserve">just find the frequency of each number in both array and then add only those number to the result whose frequency is greater than 0 in both the arrays </t>
+  </si>
+  <si>
+    <t xml:space="preserve">defanging the ip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal itereation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if the string is a paragram or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create an unordered_map keep storign the freq of each letter and then check if the length of the map is 26 or not </t>
+  </si>
+  <si>
+    <t>count asterisk</t>
+  </si>
+  <si>
+    <t>again a normal iteration with just normal conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count words with a given prefix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a nested iteration is only possible </t>
   </si>
 </sst>
 </file>
@@ -706,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,6 +1540,74 @@
         <v>109</v>
       </c>
     </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017D51B9-C2BE-49F4-AA73-B673BD4C659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01CFA83-E811-471C-80B8-9447955A9E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -379,6 +379,48 @@
   </si>
   <si>
     <t xml:space="preserve">a nested iteration is only possible </t>
+  </si>
+  <si>
+    <t>duplicate zeroes</t>
+  </si>
+  <si>
+    <t>just insert where ever you find 0</t>
+  </si>
+  <si>
+    <t>find the town judge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the number that is not in the left but has every other number on its left </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus one </t>
+  </si>
+  <si>
+    <t>have a carry = 1 and move from last to the beginning have sum = carry digits[i] and digits[i] = carry%10 and carry = sum / 10 if after the iteration carry is greater than 0 then insert the carry in the beginning of the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max increase to keep the city sky line clean </t>
+  </si>
+  <si>
+    <t>just find the row max and col max then iterate over the grid increase the min of the row and col max at that coordinate</t>
+  </si>
+  <si>
+    <t>maximum sum of the hour glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep finding the hour glass sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prime in the diagonal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">simple but for findinng the prime use the effiecient method that is false if less than equal to 1 true if less than equal to 3 false if divisible by 2 or 3 then a loop that return false when n%i == 0 or n%(i+2) == 0 running from 5 to i*I &lt;=n with an increment of 6 otherwise return 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if a straight line </t>
+  </si>
+  <si>
+    <t>thrid max number</t>
   </si>
 </sst>
 </file>
@@ -730,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,6 +1650,136 @@
         <v>117</v>
       </c>
     </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01CFA83-E811-471C-80B8-9447955A9E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D6E60A-1534-443D-BA1C-32630AAD6704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="134">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>thrid max number</t>
+  </si>
+  <si>
+    <t>check if the length of the array is less than equal to 2 then return true otherwise calculate the initial x and y diffrence and in the loop keep calculting the current x and y difference and check if the x*ydiff != y*xdiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have the three variable first second third if the number is greater than first then the swap take place between all the variables if the number lies between the first and second then the swap happens between the third and the second variables and if the nums lies between the third and the second then the swapping happen only in the third </t>
   </si>
 </sst>
 </file>
@@ -775,7 +781,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,6 +1771,9 @@
       <c r="D61" t="s">
         <v>8</v>
       </c>
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -1778,6 +1787,9 @@
       </c>
       <c r="D62" t="s">
         <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D6E60A-1534-443D-BA1C-32630AAD6704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42439A7E-F049-4635-B322-8C47525C2664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="138">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -427,6 +427,18 @@
   </si>
   <si>
     <t xml:space="preserve">have the three variable first second third if the number is greater than first then the swap take place between all the variables if the number lies between the first and second then the swap happens between the third and the second variables and if the nums lies between the third and the second then the swapping happen only in the third </t>
+  </si>
+  <si>
+    <t>longest contigeous 1's than 0's</t>
+  </si>
+  <si>
+    <t>just normal iteration with maintaining the value of the count of 1 , count of 0 , max of 1 and max of 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goat latin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just make the logic depending upon the rules of the string </t>
   </si>
 </sst>
 </file>
@@ -778,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,6 +1804,40 @@
         <v>133</v>
       </c>
     </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42439A7E-F049-4635-B322-8C47525C2664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731F3819-6D67-4D07-998B-206737F80D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="144">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -439,6 +439,24 @@
   </si>
   <si>
     <t xml:space="preserve">just make the logic depending upon the rules of the string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">width of the column of the grid </t>
+  </si>
+  <si>
+    <t>just a normal function that finds the length of the number and find the max in that column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crawler log folder </t>
+  </si>
+  <si>
+    <t>keep a count that increases only when the arr[i] is not equal to ../ and ./ otherwise decrease for ../</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odd string difference </t>
+  </si>
+  <si>
+    <t>just do it 😣</t>
   </si>
 </sst>
 </file>
@@ -790,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,6 +1856,57 @@
         <v>137</v>
       </c>
     </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731F3819-6D67-4D07-998B-206737F80D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF755C7-0D17-4187-AF07-A7673C9A954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="155">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -457,6 +457,39 @@
   </si>
   <si>
     <t>just do it 😣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing number </t>
+  </si>
+  <si>
+    <t>just sort the array and see if which I is not equal to nums[i] return that otherwise return size of the num</t>
+  </si>
+  <si>
+    <t>just a nested loop logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum number of operation to move all the balls in one boxes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create two array left and right , left array contains all the number of 1's that come from the left side and right contains all the 1's that come from the right side </t>
+  </si>
+  <si>
+    <t>number of laser in a bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a previouslaser and next laser both initially equal to 0 next++ if the is one then if next&gt;1 count +=prev*next and prev become next and next again equal to 0 to see the number of laser in the next row </t>
+  </si>
+  <si>
+    <t>minimum amount of time to collect the garbage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop for the truck m p g and increase the sum as per the travel array then subtract from the last till the last time that character was encountered increment the sum depending upon the number of time that character encounterd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the users active minutes </t>
+  </si>
+  <si>
+    <t>create the unordered map of an int and unorderedset and the add all the minutes to id but these need to unique and the result will be initially k 0 and then result[size of the second of the entry -1 ]++</t>
   </si>
 </sst>
 </file>
@@ -808,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,6 +1940,108 @@
         <v>143</v>
       </c>
     </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF755C7-0D17-4187-AF07-A7673C9A954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61CF51C-DC9D-4325-AB71-78927747A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="161">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -490,6 +490,24 @@
   </si>
   <si>
     <t>create the unordered map of an int and unorderedset and the add all the minutes to id but these need to unique and the result will be initially k 0 and then result[size of the second of the entry -1 ]++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just a double iteration and we have result[i][j] = matrix[n-1-j][i]; in order to improve the space complexity transpose the matrix and then reverse each row </t>
+  </si>
+  <si>
+    <t>spiral matrix II</t>
+  </si>
+  <si>
+    <t>same as the first sprial matrix just maintain a ++count that starts with 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count prime </t>
+  </si>
+  <si>
+    <t>implement the sieve algorithms that is outer loop 2 to n and inner loop i*I to n and for better performance use sqrt(n)+1 as the limit for i</t>
   </si>
 </sst>
 </file>
@@ -841,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,6 +2060,57 @@
         <v>154</v>
       </c>
     </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61CF51C-DC9D-4325-AB71-78927747A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58584D0E-3E56-4828-969B-6F6B77261FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="165">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -508,6 +508,18 @@
   </si>
   <si>
     <t>implement the sieve algorithms that is outer loop 2 to n and inner loop i*I to n and for better performance use sqrt(n)+1 as the limit for i</t>
+  </si>
+  <si>
+    <t>subsets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method -1: using the take not take approach that is the recursive way of solving the problem but the time complexity is 2^n therefore go for the dp approach that has the itme complexity of n^2  method -2: first find the number subset of the array that will be 2 power n then get the binary for the i to subsets find the quotient that will be bn/div and remainder that will be bn%div the div is pow(10, n-1) and /10 after every iteration the bn become remainder after every iteration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">permutation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">method-1: using recursion just swap the start with the other index and start keeps on increase tell is till it becomes == size of nums and backtrack by swapping again , method-2: dp cannot be used </t>
   </si>
 </sst>
 </file>
@@ -859,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,6 +2123,40 @@
         <v>160</v>
       </c>
     </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58584D0E-3E56-4828-969B-6F6B77261FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB1A472-0394-4A91-98CD-8A00CAB04602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="171">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -520,6 +520,24 @@
   </si>
   <si>
     <t xml:space="preserve">method-1: using recursion just swap the start with the other index and start keeps on increase tell is till it becomes == size of nums and backtrack by swapping again , method-2: dp cannot be used </t>
+  </si>
+  <si>
+    <t xml:space="preserve">move zeroes </t>
+  </si>
+  <si>
+    <t>nums of k++ = num of I is nums of I is not 0 then from k to size replace with 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count stairs </t>
+  </si>
+  <si>
+    <t>recursive method : if n &lt; 0 return 0 if n is  1 or 0 then return 1 else return function(n-1) + function(n-2) since the person can only take one and two stairs at a time TC is 2^n method 2: ??</t>
+  </si>
+  <si>
+    <t>permutation-2</t>
+  </si>
+  <si>
+    <t>method -1: just the same permutation method and last store all of them in a set to get only the unique method-2: in this case first sort the array then perform the permutation without the swapping back in the condition when num of I is not equal to index , if the i != index and num of i == num of index then continue</t>
   </si>
 </sst>
 </file>
@@ -871,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,6 +2175,57 @@
         <v>164</v>
       </c>
     </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB1A472-0394-4A91-98CD-8A00CAB04602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B86EC6B-C14A-4AB4-834A-D0D589C8C637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="183">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -538,6 +538,42 @@
   </si>
   <si>
     <t>method -1: just the same permutation method and last store all of them in a set to get only the unique method-2: in this case first sort the array then perform the permutation without the swapping back in the condition when num of I is not equal to index , if the i != index and num of i == num of index then continue</t>
+  </si>
+  <si>
+    <t>power of 2</t>
+  </si>
+  <si>
+    <t>iterative method: return false is n &lt;= 0 while(n!=1) see if the n%2 is 1 then return false otherwise divide n by 2 outside the loop return true , recursive method: here the base cases are if n&lt;=0 false n==1 true n%2 == 1 false and then simply return function(n/2)</t>
+  </si>
+  <si>
+    <t>power of 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursive method: if n &lt;= 0 then return false if n==1 then return true if n divided by gives remainder 1 or 2 or 3 then return false otherwise return function(n/4) </t>
+  </si>
+  <si>
+    <t>power of 3</t>
+  </si>
+  <si>
+    <t>recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursion </t>
+  </si>
+  <si>
+    <t>if n&lt;=0 false if n==1 then true if remainder is 1 or 2 false return function(n/3)</t>
+  </si>
+  <si>
+    <t>array and recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array and recursion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fibonacci series </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursive method: if n == 0 return 0 if n =1 return 1 else return function(n-1) + function(n-2) iterative solution is better though </t>
   </si>
 </sst>
 </file>
@@ -889,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,7 +2185,7 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
         <v>48</v>
@@ -2166,7 +2202,7 @@
         <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
         <v>48</v>
@@ -2217,13 +2253,81 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>48</v>
       </c>
       <c r="E81" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B86EC6B-C14A-4AB4-834A-D0D589C8C637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C48E66-EB89-4DD7-B736-2E3D2A563F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="205">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -574,6 +574,72 @@
   </si>
   <si>
     <t xml:space="preserve">recursive method: if n == 0 return 0 if n =1 return 1 else return function(n-1) + function(n-2) iterative solution is better though </t>
+  </si>
+  <si>
+    <t>n-queens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backtracking </t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if n == r then we push the solution in the ans then we iteration for all the column to serch for the safe one if safe mark it and helper(r+1) then unmark it for backtracking in the safe formula we see if there is a queen in the vertical or left diagonal or right diagonal </t>
+  </si>
+  <si>
+    <t>combination sum</t>
+  </si>
+  <si>
+    <t>if the current sum is greater than target retrun if I is equal to the size then check if the curr sum is equal to target if yes then push into the answer otherwise return then do the inclusion that is add push call the for the same index again minus pop and then do the exclusion that is move for next index</t>
+  </si>
+  <si>
+    <t>binary linked list to the int</t>
+  </si>
+  <si>
+    <t>get the size of the link then simple addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse a linked list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create dummy node in the while that run till head is null the next is head-&gt;next head-&gt;next is now dummy and dummy becomes the head and head becomes next return dummy </t>
+  </si>
+  <si>
+    <t>maxdepth of the binary tree</t>
+  </si>
+  <si>
+    <t>binary tree</t>
+  </si>
+  <si>
+    <t>return 0 if root is null otherwise return 1+ max of the depth of the root left and root right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post order traversal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">null return function for the left function for the right and then push </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">null return push then call the function for the left and then for the right </t>
+  </si>
+  <si>
+    <t xml:space="preserve">range sum of the bst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">simple traversal with conditional addition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">palindorme linked list </t>
+  </si>
+  <si>
+    <t>find the middle of the linked list and then reverse the second half of the linked list then compare the first half with second half</t>
   </si>
 </sst>
 </file>
@@ -925,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,6 +2396,159 @@
         <v>182</v>
       </c>
     </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" t="s">
+        <v>194</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" t="s">
+        <v>194</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>88</v>
+      </c>
+      <c r="B93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C48E66-EB89-4DD7-B736-2E3D2A563F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F3E18-5F08-42E1-B865-D6BD7B5C75FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="221">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -640,6 +640,54 @@
   </si>
   <si>
     <t>find the middle of the linked list and then reverse the second half of the linked list then compare the first half with second half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circular game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a vector with the number in the helper function create a base case is n is 1 then return increase the index + k-1%n since they are in a circular table and erase that index and then finally decrement the n-- and call the function again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle of the linked list </t>
+  </si>
+  <si>
+    <t>use slow and fast pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intersection of the linked list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">take two pointers till the both are equal increment them one of them become null then make them start from the others head </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove the value from the linked list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">take a dummy node points its next to head take prev and current point to dummy and head in a loop that runs till the current becomes null if the value of current is equal the value to be delete the point the next of prev to the next of the current delete the current and make the current the next of the prev else make the prev the current and make the current the next of the current make newNode make is next of the dummy and return newNode after deleting the dummy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge linked list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the list 1 is nullpre return list2 or visa versa then make a result as nullptr and if the val in the list1 is less the result =  list1 and call the function for list 1-&gt;next and list2 else make the result as list2 and call the merge function for list1 and next of the list2 and at last return result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove the duplicate from the linked list </t>
+  </si>
+  <si>
+    <t>take current as head nextnode as null till current next is null nextNode is current next next delete the current next and make the current next as the next node and at last return head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete node in a linked list </t>
+  </si>
+  <si>
+    <t>if head or head next is null return otherwise nextNode is node ka next node ka value is nextNode ka val node ka next is nextNode ka next and then delete the nextNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete the middle element from the linked list </t>
+  </si>
+  <si>
+    <t>return null if the head or head next is null then use the slow pointer fast pointer apporach to find the middle pointer then will save the previous of the slow outside the loop make the previos next as slow ka next and delete the slow pointer</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,6 +2597,142 @@
         <v>204</v>
       </c>
     </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>97</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F3E18-5F08-42E1-B865-D6BD7B5C75FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3E0732-46E5-4823-96B1-29458C8D22DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="234">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -688,6 +688,45 @@
   </si>
   <si>
     <t>return null if the head or head next is null then use the slow pointer fast pointer apporach to find the middle pointer then will save the previous of the slow outside the loop make the previos next as slow ka next and delete the slow pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">construct binary tree from inorder and preorder </t>
+  </si>
+  <si>
+    <t>construct binary tree from inorder ad postorder</t>
+  </si>
+  <si>
+    <t>binart tree</t>
+  </si>
+  <si>
+    <t>level order traversal</t>
+  </si>
+  <si>
+    <t>level order traversal II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count the number of nodes in complete tree </t>
+  </si>
+  <si>
+    <t>diameter of the binary tree</t>
+  </si>
+  <si>
+    <t>recursive cound the nodes in the left sub tree and the right sub tree and +1 and if the root is null then return 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a helper for finding the height of the tree and then use if root is null return  0 other wise find the height of the left and right subtree and the currdiameter is left tree plus right tree and then recursive call the function max of currdiameter and max of left and right diameter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a queue of treenodes and push the root to it a while loop is run until the queue is empty and then initialise a vector temp and find the levelsize find the queue size and now get a node from the front of the queue then pop the queue run the for loop for level size times and push the value of the node into the temp and then check if the node has left or right and if yes then push it outside the loop push the temp into the ans and return it </t>
+  </si>
+  <si>
+    <t>same as above just reverse the ans lol</t>
+  </si>
+  <si>
+    <t>create the helper function that take attributes inorder preorder start end and index that is initially base case if the start &gt; end return null get the number index of preorder and increment the index and then create the node from that number then search for that number in the inorder to get the position and then find call for node ka left from start to pos-1 and then call for node ka right from pos+1 to end if start == end return node and at lasty also return node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing the index here starts with n-1 and index decreases and right of node is build first then the left of node </t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,6 +2772,108 @@
         <v>220</v>
       </c>
     </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" t="s">
+        <v>194</v>
+      </c>
+      <c r="D103" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>99</v>
+      </c>
+      <c r="B104" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" t="s">
+        <v>223</v>
+      </c>
+      <c r="D104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>224</v>
+      </c>
+      <c r="C105" t="s">
+        <v>194</v>
+      </c>
+      <c r="D105" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>101</v>
+      </c>
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>102</v>
+      </c>
+      <c r="B107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>103</v>
+      </c>
+      <c r="B108" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3E0732-46E5-4823-96B1-29458C8D22DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9270B9-E5CC-475D-BF00-E33ADC169627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="240">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -727,6 +727,24 @@
   </si>
   <si>
     <t xml:space="preserve">nothing the index here starts with n-1 and index decreases and right of node is build first then the left of node </t>
+  </si>
+  <si>
+    <t>sort an array</t>
+  </si>
+  <si>
+    <t>reminder to revise all the sorting array</t>
+  </si>
+  <si>
+    <t>lca of a binary tree</t>
+  </si>
+  <si>
+    <t>right view of a tree</t>
+  </si>
+  <si>
+    <t>just a level order traversal just in the ans just add the last value of the vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if root is null or node 1 or node2 then return root otherwise left is call the function node of left and right is call the function for node of right and if the left null then return right and it right is null return left else return the root </t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,6 +2892,57 @@
         <v>229</v>
       </c>
     </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>105</v>
+      </c>
+      <c r="B110" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" t="s">
+        <v>194</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9270B9-E5CC-475D-BF00-E33ADC169627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7432BF2B-DD90-48A6-97FF-3C73086ABDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="244">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -745,6 +745,18 @@
   </si>
   <si>
     <t xml:space="preserve">if root is null or node 1 or node2 then return root otherwise left is call the function node of left and right is call the function for node of right and if the left null then return right and it right is null return left else return the root </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the kth bit of nth binary string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just create the helper function for the invert and reversing the string and a helper recursion funciton with base case at n == 1 return "0" otherwise decrement the n and call the formula </t>
+  </si>
+  <si>
+    <t>pow(x,n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be solved using recursion but will not be the best approach rather divide the power into 2 and the get the square and multiplye by 1 or x or 1/x depending upon the n%2 value </t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,6 +2955,40 @@
         <v>238</v>
       </c>
     </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>240</v>
+      </c>
+      <c r="C112" t="s">
+        <v>177</v>
+      </c>
+      <c r="D112" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>108</v>
+      </c>
+      <c r="B113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" t="s">
+        <v>177</v>
+      </c>
+      <c r="D113" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7432BF2B-DD90-48A6-97FF-3C73086ABDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACA325-A789-495E-B0AC-52C943ABEE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
+    <workbookView xWindow="5115" yWindow="1110" windowWidth="15375" windowHeight="7875" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="256">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -757,6 +757,42 @@
   </si>
   <si>
     <t xml:space="preserve">can be solved using recursion but will not be the best approach rather divide the power into 2 and the get the square and multiplye by 1 or x or 1/x depending upon the n%2 value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert the greatest common divisor in the linked list </t>
+  </si>
+  <si>
+    <t>helper function for the gcd the return b if a is 0 otherwise return function(b%a, a) and then just create the middle node with val of the gcd of the curr and next node make the next of the middle the next of the curr and next of the curr the middle do a next next until the curr-&gt;next is not null</t>
+  </si>
+  <si>
+    <t>merge nodes in between 0</t>
+  </si>
+  <si>
+    <t>create a dummy node till the curr next is not null keep the count for the sum till val of the next of the current is not 0 and join it to dummy and make the sum again 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum twin sum </t>
+  </si>
+  <si>
+    <t>just use the approach of check if the linked list is palindrome or not and then will iterating from the slow keep and update the sum of slow val and head val to the maxSum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spiral matrix 4 </t>
+  </si>
+  <si>
+    <t>just use the approach of the spiral matrix and keep the temp move and next and storing its values making sure that it is not null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked list in a binary tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if the head is null then return true and if root is null then return false then call the helper fuction for the root and head and call the main function for the left for the root and right of the root, in the helper function return true if the head is null and false if root and if the value are equal call the helper for next head left root and next head right root outside the if return false that means the values are not equal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">set matrix zeroes </t>
+  </si>
+  <si>
+    <t>function find the coordinates for all the 0 in the matrix and then loop through the coordinates to set their rows and columns to 0</t>
   </si>
 </sst>
 </file>
@@ -772,12 +808,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -792,8 +834,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,19 +2608,19 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>84</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2650,19 +2693,19 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>89</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2684,36 +2727,36 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>91</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>92</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2735,19 +2778,19 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>94</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2786,19 +2829,19 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>97</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2987,6 +3030,108 @@
       </c>
       <c r="E113" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>111</v>
+      </c>
+      <c r="B116" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>112</v>
+      </c>
+      <c r="B117" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>113</v>
+      </c>
+      <c r="B118" t="s">
+        <v>252</v>
+      </c>
+      <c r="C118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>254</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACA325-A789-495E-B0AC-52C943ABEE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D32FDFC-3273-4E5B-9507-844068BEEA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1110" windowWidth="15375" windowHeight="7875" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="270">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -793,6 +793,48 @@
   </si>
   <si>
     <t>function find the coordinates for all the 0 in the matrix and then loop through the coordinates to set their rows and columns to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swapping nodes in a linked list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just get the length of the linked list find the p1 and p2 node that is at k-1 and n-k and swap there values </t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge in between linked list </t>
+  </si>
+  <si>
+    <t>have two temp and temp1 that are list1 and list1-&gt;next now till a-1 is zero move temp and temp1 forward then make the temp next the head of list two and then move the temp1 till b-a is 0 store temp1-&gt;next in end, move temp till temp next is nullptr and then make temp next as end and return list1</t>
+  </si>
+  <si>
+    <t>3 consecutive odds</t>
+  </si>
+  <si>
+    <t>just make the count back to 0 if the element is even</t>
+  </si>
+  <si>
+    <t xml:space="preserve">even odd linked list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterate till the temp or temp next is not null and keep making temp next as temp next next and the storing the temp next in a new linked list </t>
+  </si>
+  <si>
+    <t>detect the cycle II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are three nodes slow fast and entry each pointing to nullptr if head or head next is 0 the return nullptr then use the floyd's tortoise algorithms to detect the cycle once slow and fast are equal increment entry and slow till both are equal then return entry otherwise outside the while loop return nullptr that tells that there is no cycle in the linked list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains duplicate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just sort the array and if the I'th element = i+1th element </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of consistent string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just a normal triple loop approach </t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,70 +1224,70 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1418,19 +1460,19 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1452,19 +1494,19 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1520,138 +1562,138 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1673,19 +1715,19 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1707,19 +1749,19 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>31</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2098,19 +2140,19 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>54</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3132,6 +3174,125 @@
       </c>
       <c r="E119" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>116</v>
+      </c>
+      <c r="B121" t="s">
+        <v>258</v>
+      </c>
+      <c r="C121" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" t="s">
+        <v>48</v>
+      </c>
+      <c r="E121" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>117</v>
+      </c>
+      <c r="B122" t="s">
+        <v>260</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
+        <v>262</v>
+      </c>
+      <c r="C123" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>119</v>
+      </c>
+      <c r="B124" t="s">
+        <v>264</v>
+      </c>
+      <c r="C124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124" t="s">
+        <v>48</v>
+      </c>
+      <c r="E124" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>120</v>
+      </c>
+      <c r="B125" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>268</v>
+      </c>
+      <c r="C126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D32FDFC-3273-4E5B-9507-844068BEEA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A75C2D-659A-4A36-B9DD-8BAE4E4873EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="272">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -835,6 +835,12 @@
   </si>
   <si>
     <t xml:space="preserve">just a normal triple loop approach </t>
+  </si>
+  <si>
+    <t>intersection of 2 array II</t>
+  </si>
+  <si>
+    <t>create a map that stores the freq of the number and increase the counted for the nums array 1 and the then in the loop iterating over the array 2 check if it is present in the array and count is greater than 0 then push it to the intersection array and the decrement the count</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J122" sqref="J122"/>
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,6 +3301,23 @@
         <v>269</v>
       </c>
     </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>123</v>
+      </c>
+      <c r="B127" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A75C2D-659A-4A36-B9DD-8BAE4E4873EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36548FE-19C9-46C5-AD9D-C04888839105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="275">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -841,6 +841,15 @@
   </si>
   <si>
     <t>create a map that stores the freq of the number and increase the counted for the nums array 1 and the then in the loop iterating over the array 2 check if it is present in the array and count is greater than 0 then push it to the intersection array and the decrement the count</t>
+  </si>
+  <si>
+    <t>is head is null or head next is null then just return otherwise the next of the head is nextNode and the val of head is nextNode val and next of head is nextNode next and delete nextNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random index in a linked list </t>
+  </si>
+  <si>
+    <t>just store the values of the linked list in a vector and in the getRandom function get the random index int randomIndex = rand()%(n) and the return random value from the vector</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,6 +3327,40 @@
         <v>271</v>
       </c>
     </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>124</v>
+      </c>
+      <c r="B128" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>125</v>
+      </c>
+      <c r="B129" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" t="s">
+        <v>48</v>
+      </c>
+      <c r="E129" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36548FE-19C9-46C5-AD9D-C04888839105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B8C9A-8F0C-4920-BA47-100AB9CE6BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="283">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -850,6 +850,30 @@
   </si>
   <si>
     <t>just store the values of the linked list in a vector and in the getRandom function get the random index int randomIndex = rand()%(n) and the return random value from the vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count the number of binary substring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a count = 0  prev = 0  and curr = 1 iterate from 1 to the size of the string if ith char == i-1th char the curr++ otherwise prev = curr and curr = 1 and if prev &gt;= curr then count ++ and then finally return count  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">root equal child sum </t>
+  </si>
+  <si>
+    <t>you know</t>
+  </si>
+  <si>
+    <t>search in binary tree</t>
+  </si>
+  <si>
+    <t>loop till temp is null then if val is more the temp val move temp left and if val is less then temp val then move temp left if temp val is equal to the val the return temp otehrwise outside loop return nullptr</t>
+  </si>
+  <si>
+    <t>evalute boolean binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if root is 0 return false if 1 then return 1 otherwise call for the helper function that return false if root val is 0 1 if root val is 1  || for the left and right if 2 and &amp;&amp; for the left and right if val is 3 </t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3344,7 +3368,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>125</v>
       </c>
@@ -3359,6 +3383,75 @@
       </c>
       <c r="E129" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>126</v>
+      </c>
+      <c r="B130" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>127</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>128</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>129</v>
+      </c>
+      <c r="B133" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" t="s">
+        <v>194</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B8C9A-8F0C-4920-BA47-100AB9CE6BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC8F46E-1533-4E4A-8A13-8BA904A5B08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="293">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -874,6 +874,36 @@
   </si>
   <si>
     <t xml:space="preserve">if root is 0 return false if 1 then return 1 otherwise call for the helper function that return false if root val is 0 1 if root val is 1  || for the left and right if 2 and &amp;&amp; for the left and right if val is 3 </t>
+  </si>
+  <si>
+    <t>average of the level in bianry tree</t>
+  </si>
+  <si>
+    <t>just use the algorithm of level order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum if root to leaf binary numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the root is null return 0 otherwill path = path* 2 + root-&gt;val if the root left and right is null return path then call the function for left and right </t>
+  </si>
+  <si>
+    <t>merge 2 binary tree</t>
+  </si>
+  <si>
+    <t>invert binary tree</t>
+  </si>
+  <si>
+    <t>create a helper function which returns when root is null or the when the root left and right is null and root is not null otherwise just swap the left and right node and call the function for the left and right node</t>
+  </si>
+  <si>
+    <t>if both roots are nullptr then return nullptr otherwise get the val1 and 2 that is 0 is root1 or root2 isz nullptr then create newNode with value equal to the sum of the val1 and val2 and the create the newNode left and right by calling the function for left and right and making the sure the root is null and if it is then passing nullptr instead of the left or right pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increasing order of search tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just traverse the tree in inorder and keep creating the node right with value of the node val </t>
   </si>
 </sst>
 </file>
@@ -1232,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,6 +3484,91 @@
         <v>282</v>
       </c>
     </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>130</v>
+      </c>
+      <c r="B134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" t="s">
+        <v>194</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>131</v>
+      </c>
+      <c r="B135" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>132</v>
+      </c>
+      <c r="B136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" t="s">
+        <v>194</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>133</v>
+      </c>
+      <c r="B137" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137" t="s">
+        <v>194</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>134</v>
+      </c>
+      <c r="B138" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" t="s">
+        <v>194</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC8F46E-1533-4E4A-8A13-8BA904A5B08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4905F9C9-3710-4E3F-AC03-CFCE89C2097E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="297">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -904,6 +904,18 @@
   </si>
   <si>
     <t xml:space="preserve">just traverse the tree in inorder and keep creating the node right with value of the node val </t>
+  </si>
+  <si>
+    <t>univalued bianry trre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">either store in the vector check is nbumber is different and keep a flag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaf similar trees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just create the function that stores the the leaf nodes in a vector and then compare the vectors </t>
   </si>
 </sst>
 </file>
@@ -1262,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3569,6 +3581,40 @@
         <v>292</v>
       </c>
     </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>135</v>
+      </c>
+      <c r="B139" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" t="s">
+        <v>194</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" t="s">
+        <v>194</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4905F9C9-3710-4E3F-AC03-CFCE89C2097E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4205314-B155-4579-AA6A-4E35689F91DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="305">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -916,6 +916,30 @@
   </si>
   <si>
     <t xml:space="preserve">just create the function that stores the the leaf nodes in a vector and then compare the vectors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree paths </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if root is null the return if root left and right are null then push s string to the vector is string is not empty then add -&gt; then keep adding the root -&gt; val in the string and call the function for helper left and right </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum absolute difference in bst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just the an inorder traversal and then find the minium difference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deepest leaves sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">using the level order traversal technique keep having the sum of the level element and resetting it to 0 until the queue becomes empty </t>
+  </si>
+  <si>
+    <t>binary search tree to greatest search tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traverse the tree in reverse inorder and then sum up all the element and the traverse the tree but now update the root val from the vector </t>
   </si>
 </sst>
 </file>
@@ -1274,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="FBP128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="FCA137" sqref="FCA137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,6 +3639,74 @@
         <v>296</v>
       </c>
     </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>137</v>
+      </c>
+      <c r="B141" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" t="s">
+        <v>194</v>
+      </c>
+      <c r="D141" t="s">
+        <v>80</v>
+      </c>
+      <c r="E141" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>138</v>
+      </c>
+      <c r="B142" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" t="s">
+        <v>194</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>139</v>
+      </c>
+      <c r="B143" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" t="s">
+        <v>194</v>
+      </c>
+      <c r="D143" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>140</v>
+      </c>
+      <c r="B144" t="s">
+        <v>303</v>
+      </c>
+      <c r="C144" t="s">
+        <v>194</v>
+      </c>
+      <c r="D144" t="s">
+        <v>48</v>
+      </c>
+      <c r="E144" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4205314-B155-4579-AA6A-4E35689F91DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A059BB-6150-4E69-8355-5390BBF282CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="309">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -940,6 +940,18 @@
   </si>
   <si>
     <t xml:space="preserve">traverse the tree in reverse inorder and then sum up all the element and the traverse the tree but now update the root val from the vector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">symmetric tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create helper function is mirror that runs check is the the 2 trees are mirror or not that is done by knowing if both roots are the null return true else if if root1 and root2 are present and there val are equal there return the and of ismirror for left of root1 and right of root2 and then right of root1 and left of root2 else return false </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of the nodes with even values grandparents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just create the function that returns the sum of the grandchildren and then traverse the tree and sum of the nodes grandchildren for only those that are even </t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FBP128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="FCA137" sqref="FCA137"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,6 +3719,40 @@
         <v>304</v>
       </c>
     </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>141</v>
+      </c>
+      <c r="B145" t="s">
+        <v>305</v>
+      </c>
+      <c r="C145" t="s">
+        <v>201</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>142</v>
+      </c>
+      <c r="B146" t="s">
+        <v>307</v>
+      </c>
+      <c r="C146" t="s">
+        <v>194</v>
+      </c>
+      <c r="D146" t="s">
+        <v>48</v>
+      </c>
+      <c r="E146" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A059BB-6150-4E69-8355-5390BBF282CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B649EAE3-5464-421B-BDDE-1061A1EDDBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="313">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -952,6 +952,18 @@
   </si>
   <si>
     <t xml:space="preserve">just create the function that returns the sum of the grandchildren and then traverse the tree and sum of the nodes grandchildren for only those that are even </t>
+  </si>
+  <si>
+    <t>binary tree tilt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just create the function find the sum of the odes of the tree and then find the absolute difference of the left and right and then find the sum of nodes of the tree again </t>
+  </si>
+  <si>
+    <t>count the number of nodes equal to the average of the sub tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just create the function to find the number of nodes and the sum of the nodes in a tree and the then a function that tells is the node is equal to the average of the subtgree and the traverse the tree while keeping the count of those nodes </t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K151" sqref="K151"/>
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,6 +3765,40 @@
         <v>308</v>
       </c>
     </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>143</v>
+      </c>
+      <c r="B147" t="s">
+        <v>309</v>
+      </c>
+      <c r="C147" t="s">
+        <v>201</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>144</v>
+      </c>
+      <c r="B148" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" t="s">
+        <v>194</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B649EAE3-5464-421B-BDDE-1061A1EDDBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311F58B7-456A-441B-9415-FC21FB733324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311F58B7-456A-441B-9415-FC21FB733324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAE8501-26E8-4FF2-B2E6-7BA596DEAC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="320">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -964,6 +964,27 @@
   </si>
   <si>
     <t xml:space="preserve">just create the function to find the number of nodes and the sum of the nodes in a tree and the then a function that tells is the node is equal to the average of the subtgree and the traverse the tree while keeping the count of those nodes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of left leaves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bianry tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just do a level order traversal and sum up all the leaves on the left side </t>
+  </si>
+  <si>
+    <t xml:space="preserve">construct bst from preorder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create node with root with value to the first element of the vector then simply the loop over the preorder from 1 to n-1 and call the insert function then if the left or right are null then simply insert the node otherwise calls for the recursion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flatten bianry tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">take a current node equal to root then while curr is node null if the curr left exists then pred is curr left and then move pred right till  not null then pred right is curr right and curr right is curr left and curr left becomes nullptr and outside the if block curr move right </t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K150" sqref="K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,6 +3820,57 @@
         <v>312</v>
       </c>
     </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>145</v>
+      </c>
+      <c r="B149" t="s">
+        <v>313</v>
+      </c>
+      <c r="C149" t="s">
+        <v>314</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>146</v>
+      </c>
+      <c r="B150" t="s">
+        <v>316</v>
+      </c>
+      <c r="C150" t="s">
+        <v>194</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151" t="s">
+        <v>318</v>
+      </c>
+      <c r="C151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151" t="s">
+        <v>48</v>
+      </c>
+      <c r="E151" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAE8501-26E8-4FF2-B2E6-7BA596DEAC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D3F89-61E4-4911-884B-30C30FA83FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="326">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -985,6 +985,24 @@
   </si>
   <si>
     <t xml:space="preserve">take a current node equal to root then while curr is node null if the curr left exists then pred is curr left and then move pred right till  not null then pred right is curr right and curr right is curr left and curr left becomes nullptr and outside the if block curr move right </t>
+  </si>
+  <si>
+    <t>convert sorted array to binary search tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use the recursive approach where if start &gt; end return null otherwise mid is avg of start and end and call for left of root and right of root from start to mid-1 and mid+1 and end respectively </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zigzag traversal </t>
+  </si>
+  <si>
+    <t>just do level order traversal with alternate the reverse of the temp array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete node from a bst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the root is null return null otherwise if the key is less than the root val then root left call for the left side else if key more than root val then right side of the root call for the right side other wise if the left side is null then temp is right delte the root and return temp and if the right side is null then make the left side the temp and return temp delete the root and otherwise both the children are present so make the temp the inorder successor of the root of the right make the data of the root the data of the temp and root right now delete the node for root right and temp data and outside return the root </t>
   </si>
 </sst>
 </file>
@@ -1343,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K150" sqref="K150"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3871,6 +3889,57 @@
         <v>319</v>
       </c>
     </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>148</v>
+      </c>
+      <c r="B152" t="s">
+        <v>320</v>
+      </c>
+      <c r="C152" t="s">
+        <v>194</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>149</v>
+      </c>
+      <c r="B153" t="s">
+        <v>322</v>
+      </c>
+      <c r="C153" t="s">
+        <v>194</v>
+      </c>
+      <c r="D153" t="s">
+        <v>48</v>
+      </c>
+      <c r="E153" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>150</v>
+      </c>
+      <c r="B154" t="s">
+        <v>324</v>
+      </c>
+      <c r="C154" t="s">
+        <v>201</v>
+      </c>
+      <c r="D154" t="s">
+        <v>48</v>
+      </c>
+      <c r="E154" t="s">
+        <v>325</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D3F89-61E4-4911-884B-30C30FA83FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C16AF92-24E9-43CC-8BFA-56841B72B6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="337">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -1003,6 +1003,39 @@
   </si>
   <si>
     <t xml:space="preserve">if the root is null return null otherwise if the key is less than the root val then root left call for the left side else if key more than root val then right side of the root call for the right side other wise if the left side is null then temp is right delte the root and return temp and if the right side is null then make the left side the temp and return temp delete the root and otherwise both the children are present so make the temp the inorder successor of the root of the right make the data of the root the data of the temp and root right now delete the node for root right and temp data and outside return the root </t>
+  </si>
+  <si>
+    <t>revere odd levels of a binary tree</t>
+  </si>
+  <si>
+    <t>just do the level order traversal and the when the odd level is pushed to queue as well as the vector of treeNodes then reverse the vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete leaves with a given value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check is the leaf have the target value then delete those leave and call the function again until no target leaves are left </t>
+  </si>
+  <si>
+    <t xml:space="preserve">all elements in 2 bst </t>
+  </si>
+  <si>
+    <t>just traverse both the tree in inroder traversal and merge both the vector</t>
+  </si>
+  <si>
+    <t>is subtree</t>
+  </si>
+  <si>
+    <t>traverse the entire the tree and keep check if the root and subRoot is equal then return true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance a bst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binart tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have 2 helper function first to get the inorder traversal of the tree and then the helper function 2 get the mid of the inorder and creates a root with that value and then calls to generate the left and right side of the function from start to mid-1 and mid+1 to end until start &lt; end otherwise return nullptr </t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,6 +3973,91 @@
         <v>325</v>
       </c>
     </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>151</v>
+      </c>
+      <c r="B155" t="s">
+        <v>326</v>
+      </c>
+      <c r="C155" t="s">
+        <v>194</v>
+      </c>
+      <c r="D155" t="s">
+        <v>48</v>
+      </c>
+      <c r="E155" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>328</v>
+      </c>
+      <c r="C156" t="s">
+        <v>314</v>
+      </c>
+      <c r="D156" t="s">
+        <v>48</v>
+      </c>
+      <c r="E156" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>153</v>
+      </c>
+      <c r="B157" t="s">
+        <v>330</v>
+      </c>
+      <c r="C157" t="s">
+        <v>194</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>154</v>
+      </c>
+      <c r="B158" t="s">
+        <v>332</v>
+      </c>
+      <c r="C158" t="s">
+        <v>194</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>155</v>
+      </c>
+      <c r="B159" t="s">
+        <v>334</v>
+      </c>
+      <c r="C159" t="s">
+        <v>335</v>
+      </c>
+      <c r="D159" t="s">
+        <v>48</v>
+      </c>
+      <c r="E159" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C16AF92-24E9-43CC-8BFA-56841B72B6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3BB3D8-A197-4B71-861E-243A01DD7056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="347">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -1036,6 +1036,36 @@
   </si>
   <si>
     <t xml:space="preserve">have 2 helper function first to get the inorder traversal of the tree and then the helper function 2 get the mid of the inorder and creates a root with that value and then calls to generate the left and right side of the function from start to mid-1 and mid+1 to end until start &lt; end otherwise return nullptr </t>
+  </si>
+  <si>
+    <t>bfs of graph</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>dfs of graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in this push the first node in the queue get it to the node pop the queue iterate over its adjancancy list and it the node are visted  then push them to the queue and repeat this process of getting the nodes from the front of the queue till the queue becomes empty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">use a recursive approach start with 0 and in the helper function push it to the final list and then iterate over its adjencancy list and if the node is not visited then call the function again for the neighbouring node </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of provinces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">graph </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just the dfs algorithm but increase the counter when ever the the dfs is done again for this we need to maintain a visited array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flood fill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it just the dfs algorithms with just a few conditions </t>
   </si>
 </sst>
 </file>
@@ -1394,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H160" sqref="H160"/>
+      <selection activeCell="J162" sqref="J162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,6 +4088,74 @@
         <v>336</v>
       </c>
     </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>156</v>
+      </c>
+      <c r="B160" t="s">
+        <v>337</v>
+      </c>
+      <c r="C160" t="s">
+        <v>338</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>157</v>
+      </c>
+      <c r="B161" t="s">
+        <v>339</v>
+      </c>
+      <c r="C161" t="s">
+        <v>338</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>158</v>
+      </c>
+      <c r="B162" t="s">
+        <v>342</v>
+      </c>
+      <c r="C162" t="s">
+        <v>343</v>
+      </c>
+      <c r="D162" t="s">
+        <v>48</v>
+      </c>
+      <c r="E162" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>159</v>
+      </c>
+      <c r="B163" t="s">
+        <v>345</v>
+      </c>
+      <c r="C163" t="s">
+        <v>338</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3BB3D8-A197-4B71-861E-243A01DD7056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11A232F-4ABC-4A02-B391-27B24E23772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="355">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -1066,6 +1066,30 @@
   </si>
   <si>
     <t xml:space="preserve">it just the dfs algorithms with just a few conditions </t>
+  </si>
+  <si>
+    <t>center of the start graph</t>
+  </si>
+  <si>
+    <t>just convert the edges to the adjencancy list the find the list whose length is n-2 and return it</t>
+  </si>
+  <si>
+    <t>path exists in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just do a bfs traversal check if starting from the source your ever get a neighbour as the destination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">all paths from source to target </t>
+  </si>
+  <si>
+    <t xml:space="preserve">using the backtracking approach just do the dfs traverse and when ever the start is equal to the n-1 push the path in the ans vis is true them false after calling the function for backtracking and pop the element added at the end of the function </t>
+  </si>
+  <si>
+    <t>keys and room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using the bfs traversal traverse the graph and check if all the nodes of the graph are visited or not </t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J162" sqref="J162"/>
+      <selection activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,6 +4180,74 @@
         <v>346</v>
       </c>
     </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>347</v>
+      </c>
+      <c r="C164" t="s">
+        <v>343</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>161</v>
+      </c>
+      <c r="B165" t="s">
+        <v>349</v>
+      </c>
+      <c r="C165" t="s">
+        <v>343</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>162</v>
+      </c>
+      <c r="B166" t="s">
+        <v>351</v>
+      </c>
+      <c r="C166" t="s">
+        <v>343</v>
+      </c>
+      <c r="D166" t="s">
+        <v>48</v>
+      </c>
+      <c r="E166" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>163</v>
+      </c>
+      <c r="B167" t="s">
+        <v>353</v>
+      </c>
+      <c r="C167" t="s">
+        <v>338</v>
+      </c>
+      <c r="D167" t="s">
+        <v>48</v>
+      </c>
+      <c r="E167" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11A232F-4ABC-4A02-B391-27B24E23772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3BCCE7-78B2-4C3C-8329-E8015F46B1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="357">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -1090,6 +1090,12 @@
   </si>
   <si>
     <t xml:space="preserve">using the bfs traversal traverse the graph and check if all the nodes of the graph are visited or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum cost to connet all the points </t>
+  </si>
+  <si>
+    <t>We will be using the prims algorithms : 1-&gt; a helper function the finds the distance between the 2 points. 2-&gt; we have a visited vector, minCost vector, ans and the currentpoint , now run the while loop till current is greater then equal to 0 then initialize nextpoint as -1, minCurrCost as INT_max then in the inner loop point going from 0 to n is point is the current point or visited then continue otherwise make the minCost of that point min of its current value and the dis between the current point and the point then check if the minCurrCost is more the minCost of that point the then update the its value and make the next point as the point then outside the for loop check if minCurrCost in int_max then add 0 to the ans otherwise add minCurrCost and finally make the currPoint as the nextpoint and outside the while loop return ans.</t>
   </si>
 </sst>
 </file>
@@ -1448,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K167" sqref="K167"/>
+      <selection activeCell="L165" sqref="L165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4248,6 +4254,28 @@
         <v>354</v>
       </c>
     </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>164</v>
+      </c>
+      <c r="B168" t="s">
+        <v>355</v>
+      </c>
+      <c r="C168" t="s">
+        <v>343</v>
+      </c>
+      <c r="D168" t="s">
+        <v>48</v>
+      </c>
+      <c r="E168" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3BCCE7-78B2-4C3C-8329-E8015F46B1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39332497-0004-4DAE-823E-461698721477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="1001">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -1096,13 +1096,1945 @@
   </si>
   <si>
     <t>We will be using the prims algorithms : 1-&gt; a helper function the finds the distance between the 2 points. 2-&gt; we have a visited vector, minCost vector, ans and the currentpoint , now run the while loop till current is greater then equal to 0 then initialize nextpoint as -1, minCurrCost as INT_max then in the inner loop point going from 0 to n is point is the current point or visited then continue otherwise make the minCost of that point min of its current value and the dis between the current point and the point then check if the minCurrCost is more the minCost of that point the then update the its value and make the next point as the point then outside the for loop check if minCurrCost in int_max then add 0 to the ans otherwise add minCurrCost and finally make the currPoint as the nextpoint and outside the while loop return ans.</t>
+  </si>
+  <si>
+    <t>same tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just keep checking if the both the trees have the same structure and the same values using recursion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">redundant connection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for this we maintain two array the parent array ds and the rank array where all the element are 1 in the parent array we are first initialized index number , now in the loop keep find the parent of both element and if equal return them otehrwise is rank of p1 is more then ds[p2] = p1 and visa versa and in the element just ds[p2] = p1 and rank[p1] ++ for find the element use recursion </t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Question (375)</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Maximum and Minimum Element in an Array</t>
+  </si>
+  <si>
+    <t>ABCO Accolite Amazon Cisco Hike Microsoft Snapdeal VMWare Google Adobe</t>
+  </si>
+  <si>
+    <t>Reverse the Array</t>
+  </si>
+  <si>
+    <t>Infosys Moonfrog Labs</t>
+  </si>
+  <si>
+    <t>Maximum-Subarray</t>
+  </si>
+  <si>
+    <t>Microsoft + Facebook Interview Qs</t>
+  </si>
+  <si>
+    <t>use Kadane's Algorithm</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Amazon Interview Qs</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Microsoft Google Adobe Amazon D-E-Shaw Flipkart Hike Intuit MakeMyTrip Paytm</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Uber + Goldman Sachs + Adobe Interview Qs</t>
+  </si>
+  <si>
+    <t>Best time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Amazon D-E-Shaw Directi Flipkart Goldman Sachs Intuit MakeMyTrip Microsoft Ola Cabs Oracle Paytm Pubmatic Quikr Salesforce Sapient Swiggy Walmart Media.net Google</t>
+  </si>
+  <si>
+    <t>Repeat and Missing Number Array</t>
+  </si>
+  <si>
+    <t>Kth-Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Amazon Microsoft Walmart Adobe</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Samsung Interview Qs</t>
+  </si>
+  <si>
+    <t>use auxiliary arrays</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Amazon D-E-Shaw Microsoft Morgan Stanley OYO Rooms Google</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Microsoft Morgan Stanley Samsung Snapdeal Times Internet</t>
+  </si>
+  <si>
+    <t>Find Pair with Sum in Sorted &amp; Rotated Array</t>
+  </si>
+  <si>
+    <t>Microsoft + Google + Apple Interview Qs</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Flipkart + Dunzo Interview Qs</t>
+  </si>
+  <si>
+    <t>use 2 pointer approach</t>
+  </si>
+  <si>
+    <t>Given Sum Pair</t>
+  </si>
+  <si>
+    <t>Infosys + Amazon + Flipkart Interview Qs</t>
+  </si>
+  <si>
+    <t>Kth - Smallest Element</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Google Interview Qs</t>
+  </si>
+  <si>
+    <t>Find Minimum Number of Merge Operations to Make an Array Palindrome</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Given an Array of Numbers Arrange the Numbers to Form the Biggest Number</t>
+  </si>
+  <si>
+    <t>Barclays Interview Qs</t>
+  </si>
+  <si>
+    <t>Space Optimization Using Bit Manipulations</t>
+  </si>
+  <si>
+    <t>Subarray Sum Divisible K</t>
+  </si>
+  <si>
+    <t>Snapdeal Microsoft</t>
+  </si>
+  <si>
+    <t>Print all Possible Combinations of r Elements in a Given Array of Size n</t>
+  </si>
+  <si>
+    <t>Mo's Algorithm</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Amazon Cisco D-E-Shaw Facebook FactSet Morgan Stanley Paytm Zoho</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Nagarro Media.net Directi Google Adobe Flipkart</t>
+  </si>
+  <si>
+    <t>Valid parentheses</t>
+  </si>
+  <si>
+    <t>use Stacks (if possible)</t>
+  </si>
+  <si>
+    <t>Remove Consecutive Characters</t>
+  </si>
+  <si>
+    <t>Samsung + Adobe</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Adobe + Grofers + Dunzo Interview Qs</t>
+  </si>
+  <si>
+    <t>Convert a Sentence into its Equivalent Mobile Numeric Keypad Sequence</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>Print all the Duplicates in the Input String</t>
+  </si>
+  <si>
+    <t>Ola + Amdocs IQ</t>
+  </si>
+  <si>
+    <t>Longest Substring without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Morgan Stanley + Amazon IQ</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>Amazon Google</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Samsung + Adobe + Amazon Interview Qs</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Microsoft + Google + Samsung + Visa IQ</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>Microsoft IQ</t>
+  </si>
+  <si>
+    <t>Adobe + Goldman Sachs + Uber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Palindromic Subsequences </t>
+  </si>
+  <si>
+    <t>Myntra Interview Qs</t>
+  </si>
+  <si>
+    <t>Smallest Window in a String Containing all the Characters of Another String</t>
+  </si>
+  <si>
+    <t>Microsoft + Amazon IQ</t>
+  </si>
+  <si>
+    <t>Wildcard String Matching</t>
+  </si>
+  <si>
+    <t>Microsoft + Amazon + Ola IQ</t>
+  </si>
+  <si>
+    <t>Longest Prefix Suffix</t>
+  </si>
+  <si>
+    <t>Flipkart + Swiggy IQ</t>
+  </si>
+  <si>
+    <t>Rabin-Karp Algorithm for Pattern Searching</t>
+  </si>
+  <si>
+    <t>Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t>Directi</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Amazon Google MakeMyTrip Streamoid Technologies Microsoft Media.net Atlassian Flipkart</t>
+  </si>
+  <si>
+    <t>Boyer Moore Algorithm for Pattern Searching</t>
+  </si>
+  <si>
+    <t>Amdocs</t>
+  </si>
+  <si>
+    <t>Word Wrap</t>
+  </si>
+  <si>
+    <t>use Dynaming Programming</t>
+  </si>
+  <si>
+    <t>2D Arrays</t>
+  </si>
+  <si>
+    <t>Zigzag (or diagonal) Traversal of Matrix</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Amazon Microsoft</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Flipkart + Apple + Societe Generale IQ</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Microsoft Paytm Samsung Adobe</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Google + Ola + Goldman Sachs IQ</t>
+  </si>
+  <si>
+    <t>Find the Number of Islands | Set 1 (Using DFS)</t>
+  </si>
+  <si>
+    <t>Microsoft + Uber + Apple + Amazon IQ</t>
+  </si>
+  <si>
+    <t>Read about DFS</t>
+  </si>
+  <si>
+    <t>Given a Matrix of ‘O’ and ‘X’, Replace ‘O’ with ‘X’ if Surrounded by ‘X’</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Find a Common Element in all Rows of a Given Row-Wise Sorted Matrix</t>
+  </si>
+  <si>
+    <t>MAQ Software Microsoft VMWare</t>
+  </si>
+  <si>
+    <t>Create a Matrix with Alternating Rectangles of O and X</t>
+  </si>
+  <si>
+    <t>MAQ VMWare</t>
+  </si>
+  <si>
+    <t>Maximum Size Rectangle of all 1s</t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Permute Two Arrays such that Sum of Every Pair is Greater or Equal to K</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>counting sort</t>
+  </si>
+  <si>
+    <t>Samsung+ Morgan Stanley+ Snapdeal + EPAM Systems</t>
+  </si>
+  <si>
+    <t>find common elements three sorted arrays</t>
+  </si>
+  <si>
+    <t>Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t>TCS Amazon</t>
+  </si>
+  <si>
+    <t>ceiling in a sorted array</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Piar with given difference</t>
+  </si>
+  <si>
+    <t>Amazon Visa</t>
+  </si>
+  <si>
+    <t>majority element</t>
+  </si>
+  <si>
+    <t>Amazon+ Google</t>
+  </si>
+  <si>
+    <t>count triplets with sum smaller that a given value</t>
+  </si>
+  <si>
+    <t>Amazon SAP Labs</t>
+  </si>
+  <si>
+    <t>Maximum Sum Subsequence with no adjacent elements</t>
+  </si>
+  <si>
+    <t>Amazon FactSet Oxigen Wallet OYO Rooms Paytm Walmart Yahoo Adobe Flipkart</t>
+  </si>
+  <si>
+    <t>Merge Sorted Arrays using O(1) Space</t>
+  </si>
+  <si>
+    <t>Amdocs Brocade Goldman Sachs Juniper Networks Linkedin Microsoft Quikr Snapdeal Synopsys Zoho Adobe</t>
+  </si>
+  <si>
+    <t>Inversion of Array</t>
+  </si>
+  <si>
+    <t>Adobe Amazon BankBazaar Flipkart Microsoft Myntra MakeMyTrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Duplicates in O(n) Time and O(1) Extra Space </t>
+  </si>
+  <si>
+    <t>Amazon D-E-Shaw Flipkart Paytm Qualcomm Zoho</t>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <t>Amazon+ Microsoft</t>
+  </si>
+  <si>
+    <t>Product of Array except itself</t>
+  </si>
+  <si>
+    <t>Accolite Amazon D-E-Shaw Intuit Morgan Stanley Opera Microsoft Flipkart</t>
+  </si>
+  <si>
+    <t>Make all Array Elements Equal</t>
+  </si>
+  <si>
+    <t>Check if Reversing a Sub Array Make the Array Sorted</t>
+  </si>
+  <si>
+    <t>Find Four Elements that Sum to a Given Value</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Google Microsoft OYO Rooms</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Array with Different Size</t>
+  </si>
+  <si>
+    <t>Amazon Samsung Microsoft Google</t>
+  </si>
+  <si>
+    <t>Median of Stream of Integers Running Integers</t>
+  </si>
+  <si>
+    <t>Amazon + Google</t>
+  </si>
+  <si>
+    <t>Print Subarrays with 0 Sum</t>
+  </si>
+  <si>
+    <t>Paytm Adobe</t>
+  </si>
+  <si>
+    <t>Aggressive Cows</t>
+  </si>
+  <si>
+    <t>Allocate Minimum number of Pages</t>
+  </si>
+  <si>
+    <t>Google Infosys Codenation Amazon Microsoft</t>
+  </si>
+  <si>
+    <t>Minimum Swaps to Sort</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Backtracking Set 2 Rat in a Maze</t>
+  </si>
+  <si>
+    <t>Microsoft Amazon</t>
+  </si>
+  <si>
+    <t>Combinational Sum</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Microsoft</t>
+  </si>
+  <si>
+    <t>Crossword-Puzzle</t>
+  </si>
+  <si>
+    <t>Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t>Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Amdocs D-E-Shaw MAQ Software Twitter Visa Microsoft</t>
+  </si>
+  <si>
+    <t>Solve the Sudoku</t>
+  </si>
+  <si>
+    <t>Amazon Directi Flipkart MakeMyTrip MAQ Software Microsoft Ola Cabs Oracle PayPal Zoho</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>Amazon + Adobe + Accolite + Traveloka</t>
+  </si>
+  <si>
+    <t>M Coloring Problem</t>
+  </si>
+  <si>
+    <t>Knight Tour</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Soduko</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t>Print all Palindromic Partitions of a String</t>
+  </si>
+  <si>
+    <t>Facebook Amazon Microsoft</t>
+  </si>
+  <si>
+    <t>Find Shortest Safe Route in a Path with Landmines</t>
+  </si>
+  <si>
+    <t>Partition of Set into K Subsets with Equal Sum</t>
+  </si>
+  <si>
+    <t>Backtracking set-7 hamiltonian cycle</t>
+  </si>
+  <si>
+    <t>tug-of-war</t>
+  </si>
+  <si>
+    <t>Maximum Possible Number by doing at most K swaps</t>
+  </si>
+  <si>
+    <t>Backtracking set-8 solving cryptarithmetic puzzles</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Find paths from corner cell to middle cell in maze</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Arithmetic Expressions</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Sprinklr</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Accolite Amazon D-E-Shaw Hike Lybrate Mahindra Comviva MakeMyTrip MAQ Software OYO Rooms Paytm Qualcomm Samsung SAP Labs Snapdeal Veritas VMWare Walmart Adobe</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Belzabar Brocade FactSet Flipkart MakeMyTrip Microsoft OATS Systems Oracle Samsung Synopsys Zoho</t>
+  </si>
+  <si>
+    <t>Delete without Head node</t>
+  </si>
+  <si>
+    <t>Amazon Goldman Sachs Kritikal Solutions Microsoft Samsung Visa</t>
+  </si>
+  <si>
+    <t>Remove duplicates from an unsorted linked list</t>
+  </si>
+  <si>
+    <t> Amazon Intuit</t>
+  </si>
+  <si>
+    <t>Sort a linked list of 0s-1s-or-2s</t>
+  </si>
+  <si>
+    <t>Microsoft Amazon MakeMyTrip</t>
+  </si>
+  <si>
+    <t>Multiply two numbers represented linked lists</t>
+  </si>
+  <si>
+    <t>Remove nth node from end of list</t>
+  </si>
+  <si>
+    <t>Accolite Adobe Amazon Citicorp Epic Systems FactSet Hike MAQ Software Monotype Solutions Morgan Stanley OYO Rooms Qualcomm Samsung Snapdeal Flipkart</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Amazon Microsoft OYO Rooms Intuit</t>
+  </si>
+  <si>
+    <t>Detect and remove loop in a linked list</t>
+  </si>
+  <si>
+    <t>Write a Function to get the Intersection Point of two Linked Lists</t>
+  </si>
+  <si>
+    <t>Flatten a linked list with next and child pointers</t>
+  </si>
+  <si>
+    <t>Linked list in zig-zag fashion</t>
+  </si>
+  <si>
+    <t>Micorsoft</t>
+  </si>
+  <si>
+    <t>Reverse a doubly linked list</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t>Segregate even and odd Elements in a Linked List</t>
+  </si>
+  <si>
+    <t>Point to next higher value node in a linked list with an Arbitrary Pointer</t>
+  </si>
+  <si>
+    <t>GeekyAnts</t>
+  </si>
+  <si>
+    <t>Rearrange a given linked list in place</t>
+  </si>
+  <si>
+    <t>Ola Uber</t>
+  </si>
+  <si>
+    <t>Sort Biotonic Doubly Linked Lists</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>Merge K Sorted Lists</t>
+  </si>
+  <si>
+    <t>Microsoft+ Ola+ eBay</t>
+  </si>
+  <si>
+    <t>Merge sort for linked list</t>
+  </si>
+  <si>
+    <t>Accolite Adobe Amazon MAQ Software Microsoft Paytm Veritas</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Quicksort on singly-linked list</t>
+  </si>
+  <si>
+    <t>Paytm</t>
+  </si>
+  <si>
+    <t>Sum of two linked lists</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Flipkart MakeMyTrip Microsoft Morgan Stanley Qualcomm Snapdeal</t>
+  </si>
+  <si>
+    <t>Flattening a linked list</t>
+  </si>
+  <si>
+    <t> 24*7 Innovation Labs Amazon Drishti-Soft Flipkart Goldman Sachs Microsoft Paytm Payu Qualcomm Snapdeal Visa</t>
+  </si>
+  <si>
+    <t>Clone a linked list with next and random Pointer</t>
+  </si>
+  <si>
+    <t>Triology</t>
+  </si>
+  <si>
+    <t>Subtract two numbers represented as linked lists</t>
+  </si>
+  <si>
+    <t>Amazon Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues</t>
+  </si>
+  <si>
+    <t>Implement two stacks in an Array</t>
+  </si>
+  <si>
+    <t>24*7 Innovation Labs Microsoft Samsung Snapdeal</t>
+  </si>
+  <si>
+    <t>Evaluation of Postfix Expression</t>
+  </si>
+  <si>
+    <t>Amazon + Google + Facebook</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Queue Reversal</t>
+  </si>
+  <si>
+    <t>Amazon + Morgain Stanley</t>
+  </si>
+  <si>
+    <t>Implement Stack Queue using Deque</t>
+  </si>
+  <si>
+    <t>Microsoft +Atlassian</t>
+  </si>
+  <si>
+    <t>Reverse first k elements of queue</t>
+  </si>
+  <si>
+    <t>Microsoft + Amdocs</t>
+  </si>
+  <si>
+    <t>Design Stack with Middle Operation</t>
+  </si>
+  <si>
+    <t>MaQ Software</t>
+  </si>
+  <si>
+    <t>Infix to Postfix</t>
+  </si>
+  <si>
+    <t>Amazon + Samsung + Paytm + Vmware inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and Implement Special stack </t>
+  </si>
+  <si>
+    <t>Amazon Google Microsoft Visa Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Longest Valid String</t>
+  </si>
+  <si>
+    <t>Google Microsoft</t>
+  </si>
+  <si>
+    <t>Find if an expression has duplicate parenthesis or not</t>
+  </si>
+  <si>
+    <t>Flipkart Oracle OYO Rooms Snapdeal Walmart Yatra.com Microsoft Google</t>
+  </si>
+  <si>
+    <t>Stack permutations check if an array is stack permutation of other</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Count natural numbers whose permutation greater number</t>
+  </si>
+  <si>
+    <t>Sort a stack using Recursion</t>
+  </si>
+  <si>
+    <t>Amazon Goldman Sachs IBM Intuit Kuliza Yahoo Microsoft</t>
+  </si>
+  <si>
+    <t>Queue based approach for first non repeating character in a stream</t>
+  </si>
+  <si>
+    <t>Microsoft Flipkart</t>
+  </si>
+  <si>
+    <t>The Celebrity Problem</t>
+  </si>
+  <si>
+    <t>Google + Visa + Apple</t>
+  </si>
+  <si>
+    <t>Next larger Element</t>
+  </si>
+  <si>
+    <t>Distance of nearest cell</t>
+  </si>
+  <si>
+    <t>Flipkar + Facebook</t>
+  </si>
+  <si>
+    <t>Rotten-oranges</t>
+  </si>
+  <si>
+    <t>Next smaller element</t>
+  </si>
+  <si>
+    <t>Codenation</t>
+  </si>
+  <si>
+    <t>Circular-tour</t>
+  </si>
+  <si>
+    <t>Codenation Flipkart</t>
+  </si>
+  <si>
+    <t>Efficiently implement k-stacks single array</t>
+  </si>
+  <si>
+    <t>The celebrity problem</t>
+  </si>
+  <si>
+    <t>Iterative tower of hanoi</t>
+  </si>
+  <si>
+    <t>Find the maximum of minimums for every window size in a given array</t>
+  </si>
+  <si>
+    <t>Amazon Microsoft Flipkart</t>
+  </si>
+  <si>
+    <t>lru cache implementation</t>
+  </si>
+  <si>
+    <t>Microsoft + Uber + Alibaba</t>
+  </si>
+  <si>
+    <t>Find a tour that visits all stations</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Activity selection problem greedy algo</t>
+  </si>
+  <si>
+    <t>Facebook Morgan Stanley Flipkart</t>
+  </si>
+  <si>
+    <t>Greedy algorithm to find minimum number of coins</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Morgan Stanley Oracle Paytm Samsung Snapdeal Synopsys Visa Microsoft Google</t>
+  </si>
+  <si>
+    <t>Minimum sum two numbers formed digits array-2</t>
+  </si>
+  <si>
+    <t>Minimum sum absolute difference pairs two arrays</t>
+  </si>
+  <si>
+    <t>Find maximum height pyramid from the given array of objects</t>
+  </si>
+  <si>
+    <t>Flipkart Amazon</t>
+  </si>
+  <si>
+    <t>Minimum cost for acquiring all coins with k extra coins allowed with every coin</t>
+  </si>
+  <si>
+    <t>Find maximum equal sum of every three stacks</t>
+  </si>
+  <si>
+    <t>Microsoft Amazon Flipkart</t>
+  </si>
+  <si>
+    <t>Job sequencing problem</t>
+  </si>
+  <si>
+    <t>Microsoft + Acolite</t>
+  </si>
+  <si>
+    <t>Greedy algorithm egyptian fraction</t>
+  </si>
+  <si>
+    <t>Fractional knapsack problem</t>
+  </si>
+  <si>
+    <t>Maximum length chain of pairs</t>
+  </si>
+  <si>
+    <t>Find smallest number with given number of digits and digit sum</t>
+  </si>
+  <si>
+    <t>MAQ Software OYO Rooms</t>
+  </si>
+  <si>
+    <t>Maximize sum of consecutive differences circular-array</t>
+  </si>
+  <si>
+    <t>Maccafe</t>
+  </si>
+  <si>
+    <t>paper-cut minimum number squares</t>
+  </si>
+  <si>
+    <t>Lexicographically smallest array-k consecutive swaps</t>
+  </si>
+  <si>
+    <t>Problems-CHOCOLA</t>
+  </si>
+  <si>
+    <t>Find minimum time to finish all jobs with given constraints</t>
+  </si>
+  <si>
+    <t>Job sequencing using disjoint set union</t>
+  </si>
+  <si>
+    <t>Rearrange characters string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t>Minimum edges to reverse to make path from a source to a destination</t>
+  </si>
+  <si>
+    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Amazon Cadence India CouponDunia D-E-Shaw FactSet FreeCharge MakeMyTrip</t>
+  </si>
+  <si>
+    <t>Reverse Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Amazon + Microsoft + flipkart + Adobe</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>Amazon + Microsoft + Facebook</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Amazon Hike</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Accolite Adobe Amazon Cisco D-E-Shaw Flipkart</t>
+  </si>
+  <si>
+    <t>Left View of Binary Tree</t>
+  </si>
+  <si>
+    <t>Microsoft + Adobe + Cisco Networking Academy</t>
+  </si>
+  <si>
+    <t>Right View of Binary Tree</t>
+  </si>
+  <si>
+    <t>ZigZag Tree Traversal</t>
+  </si>
+  <si>
+    <t>Amazon Cisco FactSet Hike Snapdeal Walmart Microsoft Flipkart</t>
+  </si>
+  <si>
+    <t>Create a mirror tree from the given binary tree</t>
+  </si>
+  <si>
+    <t>Accolite Adobe Amazon Belzabar EBay Goldman Sachs Microsoft Morgan Stanley Myntra Ola Cabs Paytm</t>
+  </si>
+  <si>
+    <t>Leaf at same level</t>
+  </si>
+  <si>
+    <t>Check for Balanced Tree</t>
+  </si>
+  <si>
+    <t>Amazon Walmart Microsoft</t>
+  </si>
+  <si>
+    <t>Transform to Sum Tree</t>
+  </si>
+  <si>
+    <t>Amazon FactSet Microsoft Samsung Walmart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if Tree is Isomorphic </t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height of Binary Tree </t>
+  </si>
+  <si>
+    <t>Diameter of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Amazon Microsoft OYO Rooms</t>
+  </si>
+  <si>
+    <t>Top View of Binary Tree</t>
+  </si>
+  <si>
+    <t>Microsoft + Adobe + Expedia Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom View of Binary Tree </t>
+  </si>
+  <si>
+    <t>DE Shaw India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagonal Traversal of Binary Tree </t>
+  </si>
+  <si>
+    <t>Boundary Traversal of binary tree</t>
+  </si>
+  <si>
+    <t>Accolite Amazon FactSet Hike Kritikal Solutions</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from String with Brackets</t>
+  </si>
+  <si>
+    <t>Microsoft Morgan Stanley OYO Rooms Payu Samsung Snapdeal Flipkart</t>
+  </si>
+  <si>
+    <t>Minimum swap required to convert binary tree to binary search tree</t>
+  </si>
+  <si>
+    <t>Adobe Amazon</t>
+  </si>
+  <si>
+    <t>Duplicate subtree in Binary Tree</t>
+  </si>
+  <si>
+    <t>Check if a given graph is tree or not</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Accolite Amazon American Express Cisco Expedia Flipkart MakeMyTrip Microsoft OYO Room</t>
+  </si>
+  <si>
+    <t>Min distance between two given nodes of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Amazon Linkedin MakeMyTrip Ola Cabs Qualcomm Samsung</t>
+  </si>
+  <si>
+    <t>Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Kth ancestor of a node in binary tree</t>
+  </si>
+  <si>
+    <t>Josh Technology Group</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Samsung + Facebook</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Flipkart InMobi Linkedin MAQ Software Microsoft Paytm Quikr Yahoo</t>
+  </si>
+  <si>
+    <t>Binary Tree to DLL</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Goldman Sachs Microsoft Morgan Stanley Salesforce Snapdeal</t>
+  </si>
+  <si>
+    <t>Print all k-sum paths in a binary tree</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Flipkart MAQ Software Microsoft Samsung Synopsys</t>
+  </si>
+  <si>
+    <t>Binary Search Tree | Set 1 (Search and Insertion)</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Microsoft Paytm Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum element in BST </t>
+  </si>
+  <si>
+    <t>Predecessor and Successor</t>
+  </si>
+  <si>
+    <t>Google + Adobe + Goladman Sachs + Direct</t>
+  </si>
+  <si>
+    <t>Check whether BST contains Dead End</t>
+  </si>
+  <si>
+    <t>Binary Tree to BST</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth largest element in BST </t>
+  </si>
+  <si>
+    <t>Accolite Amazon Samsung SAP Labs Microsoft</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>OYO Rooms Qualcomm Samsung Snapdeal VMWare Walmart Wooker Amazon Facebook</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Google</t>
+  </si>
+  <si>
+    <t>Delete Node in a BST</t>
+  </si>
+  <si>
+    <t>Adobe Barclays</t>
+  </si>
+  <si>
+    <t>Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t>Preorder to Postorder</t>
+  </si>
+  <si>
+    <t>Amazon Linkedin Flipkart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count BST nodes that lie in a given range </t>
+  </si>
+  <si>
+    <t>D-E-Shaw Google</t>
+  </si>
+  <si>
+    <t>Populate Inorder Successor for all Nodes</t>
+  </si>
+  <si>
+    <t>Sap labs</t>
+  </si>
+  <si>
+    <t>Convert Normal BST to Balanced BST</t>
+  </si>
+  <si>
+    <t>Merge two BSTs</t>
+  </si>
+  <si>
+    <t>Given n appointments, find all conflicting appointments</t>
+  </si>
+  <si>
+    <t>Replace every element</t>
+  </si>
+  <si>
+    <t>Construct BST from given preorder traversal</t>
+  </si>
+  <si>
+    <t>Adobe Morgan Stanley Microsoft</t>
+  </si>
+  <si>
+    <t>Find median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Amazon D-E-Shaw Samsung Microsoft Flipkart</t>
+  </si>
+  <si>
+    <t>Heaps &amp; Hashing</t>
+  </si>
+  <si>
+    <t>Choose k array elements such that difference of maximum and minimum is minimized</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>k largest elements in an array</t>
+  </si>
+  <si>
+    <t>Next Greater Element</t>
+  </si>
+  <si>
+    <t>Amazon + Microsoft + Flipkart + Adobe</t>
+  </si>
+  <si>
+    <t>K’th Smallest/Largest Element in Unsorted Array</t>
+  </si>
+  <si>
+    <t>Find the maximum repeating number in O(n) time and O(1) extra space</t>
+  </si>
+  <si>
+    <t>Accolite Amazon</t>
+  </si>
+  <si>
+    <t>K-th smallest element after removing some integers from natural numbers</t>
+  </si>
+  <si>
+    <t>Find k closest elements to a given value</t>
+  </si>
+  <si>
+    <t>Amazon OYO Rooms</t>
+  </si>
+  <si>
+    <t>K’th largest element in a stream</t>
+  </si>
+  <si>
+    <t> Amazon Cisco Hike OYO Rooms Walmart Microsoft Flipkart</t>
+  </si>
+  <si>
+    <t>Connect Ropes</t>
+  </si>
+  <si>
+    <t>Amazoon + Oyo + Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Cuckoo Hashing</t>
+  </si>
+  <si>
+    <t>Amaxon</t>
+  </si>
+  <si>
+    <t>Itinerary from a List of Tickets</t>
+  </si>
+  <si>
+    <t>Microsoft + Ola + eBay</t>
+  </si>
+  <si>
+    <t>Largest Subarray with 0 Sum</t>
+  </si>
+  <si>
+    <t>Amazon MakeMyTrip Microsoft</t>
+  </si>
+  <si>
+    <t>Count distinct elements in every window of size k</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Merge K Sorted lists</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Belzabar D-E-Shaw Facebook Flipkart Google Intuit Microsoft Morgan Stanley Ola Cabs Oracle Samsung SAP Labs Yahoo</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Amazon Directi Flipkart Microsoft Google</t>
+  </si>
+  <si>
+    <t>Find the smallest positive number</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Samsung Snapdeal</t>
+  </si>
+  <si>
+    <t>Find Surpasser Count of each element in array</t>
+  </si>
+  <si>
+    <t>Amazon Morgan Stanley Ola Cabs SAP Labs</t>
+  </si>
+  <si>
+    <t>Tournament Tree and Binary Heap</t>
+  </si>
+  <si>
+    <t>Amazon Ola Cabs Samsung Synopsys Walmart Microsoft</t>
+  </si>
+  <si>
+    <t>Check for palindrome</t>
+  </si>
+  <si>
+    <t>Length of the largest subarray with contiguous elements</t>
+  </si>
+  <si>
+    <t>Amazon Intuit Microsoft</t>
+  </si>
+  <si>
+    <t>Palindrome Substring Queries</t>
+  </si>
+  <si>
+    <t>Subarray distinct elements</t>
+  </si>
+  <si>
+    <t>Find the recurring function</t>
+  </si>
+  <si>
+    <t>MAQ Software</t>
+  </si>
+  <si>
+    <t>K maximum sum combinations from two arrays</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Samsung + Delhivery + SAP Labs</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Samsung + Intuit + Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Flood Fill Algorithm</t>
+  </si>
+  <si>
+    <t>Google + Adobe + Apple</t>
+  </si>
+  <si>
+    <t>Number of Triangles</t>
+  </si>
+  <si>
+    <t>Detect cycle in a graph</t>
+  </si>
+  <si>
+    <t>Lenksart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect cycle in an undirected graph </t>
+  </si>
+  <si>
+    <t>Rat in a Maze Problem</t>
+  </si>
+  <si>
+    <t>Sharechat + Directi</t>
+  </si>
+  <si>
+    <t>Steps by Knight</t>
+  </si>
+  <si>
+    <t>Clone graph</t>
+  </si>
+  <si>
+    <t>Google + MAQ Software + Apple + Facebook</t>
+  </si>
+  <si>
+    <t>Number of Operations to Make Network Connected</t>
+  </si>
+  <si>
+    <t>Dijkstra’s shortest path algorithm</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+  </si>
+  <si>
+    <t>Amazon + Google + Flipkart + Oyo + Fipkart + Samsung</t>
+  </si>
+  <si>
+    <t>Oliver and the Game</t>
+  </si>
+  <si>
+    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t>Directi + Sharechat</t>
+  </si>
+  <si>
+    <t>Find the number of islands</t>
+  </si>
+  <si>
+    <t>Razorpay</t>
+  </si>
+  <si>
+    <t>Prim's Algo</t>
+  </si>
+  <si>
+    <t>Negative Weighted Cycle</t>
+  </si>
+  <si>
+    <t>Floyd Warshall</t>
+  </si>
+  <si>
+    <t>Google + Uber</t>
+  </si>
+  <si>
+    <t>Graph Coloring</t>
+  </si>
+  <si>
+    <t>Snakes and Ladders</t>
+  </si>
+  <si>
+    <t>Goldman Sachs +Makemytrip</t>
+  </si>
+  <si>
+    <t>Kosaraju's Theorem</t>
+  </si>
+  <si>
+    <t>Journey to moon</t>
+  </si>
+  <si>
+    <t>Lenksart + Payload</t>
+  </si>
+  <si>
+    <t>Vertex Cover</t>
+  </si>
+  <si>
+    <t>Intuit</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Uber + Paypal</t>
+  </si>
+  <si>
+    <t>Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t>Cisco + Intuit</t>
+  </si>
+  <si>
+    <t>Bellman Ford</t>
+  </si>
+  <si>
+    <t>Bipartitie Graph</t>
+  </si>
+  <si>
+    <t>Word-Ladder</t>
+  </si>
+  <si>
+    <t>Allen Dictionary</t>
+  </si>
+  <si>
+    <t>Kruskals MST</t>
+  </si>
+  <si>
+    <t>Amazon Cisco Samsung</t>
+  </si>
+  <si>
+    <t>Total number spanning trees graph</t>
+  </si>
+  <si>
+    <t>Amazon Cisco Samsung Microsoft Flipkart</t>
+  </si>
+  <si>
+    <t>Travelling Salesman</t>
+  </si>
+  <si>
+    <t>Google + Microsoft + Opera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find longest path directed acyclic graph </t>
+  </si>
+  <si>
+    <t>Two Clique Problem</t>
+  </si>
+  <si>
+    <t>Minimise the cash flow</t>
+  </si>
+  <si>
+    <t>Intuit + Uber</t>
+  </si>
+  <si>
+    <t>Chinese postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Jug </t>
+  </si>
+  <si>
+    <t>Water Jug 2</t>
+  </si>
+  <si>
+    <t>MakeMyTrip MAQ Software</t>
+  </si>
+  <si>
+    <t>Tries</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t> Accolite Amazon D-E-Shaw FactSet Microsoft</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Amazon Zoho</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Amazon Google Hike IBM MAQ Software Microsoft Walmart Zoho</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Amazon D-E-Shaw Goldman Sachs Morgan Stanley Snapdeal Microsoft</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Microsoft Google</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Amazon + Microsoft + Snapdeal</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Knapsack with Duplicate Items</t>
+  </si>
+  <si>
+    <t>BBT counter</t>
+  </si>
+  <si>
+    <t>Reach a given score</t>
+  </si>
+  <si>
+    <t>Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Permutation Coefficient</t>
+  </si>
+  <si>
+    <t>Longest Repeating Subsequence</t>
+  </si>
+  <si>
+    <t>Google + Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs with specific difference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest subsequence-1 </t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Microsoft+ Samsung + Barclays + Apple + Adobe</t>
+  </si>
+  <si>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>Amazon + Google + Facebook + Fidelity International</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Siemens + Amazon + Google</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Amazon + Google + Microsoft + Walmart + Apple + IBM</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>Apple + Uber</t>
+  </si>
+  <si>
+    <t>Houe Robber 2</t>
+  </si>
+  <si>
+    <t>Arrays Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Adobe + Uber</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>Google + Microsoft</t>
+  </si>
+  <si>
+    <t>Jumps Game</t>
+  </si>
+  <si>
+    <t>Facebook Amazon Microsoft Google</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Amazon Directi Flipkart GreyOrange Microsoft Mobicip Morgan Stanley Oracle Payu Snapdeal Visa</t>
+  </si>
+  <si>
+    <t>nCr</t>
+  </si>
+  <si>
+    <t>Catalan Number</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Google + Goldman Sachs + Citrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sum </t>
+  </si>
+  <si>
+    <t>Gold mine</t>
+  </si>
+  <si>
+    <t>Assembly Line Scheduling</t>
+  </si>
+  <si>
+    <t>Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t>Amazon OYO Rooms Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum increasing subsequence </t>
+  </si>
+  <si>
+    <t>Amazon Morgan Stanley Microsoft</t>
+  </si>
+  <si>
+    <t>Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t>Maximum sum increasing subsequence</t>
+  </si>
+  <si>
+    <t>Egg dropping puzzle</t>
+  </si>
+  <si>
+    <t>Amazon D-E-Shaw Goldman Sachs Google Hike MakeMyTrip MAQ Software Myntra Nearbuy Opera Oracle Philips Samsung Service Now Unisys VMWare Microsoft</t>
+  </si>
+  <si>
+    <t>Max length chain</t>
+  </si>
+  <si>
+    <t>Largest Square in Matrix</t>
+  </si>
+  <si>
+    <t>Amazon Samsung</t>
+  </si>
+  <si>
+    <t>Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Amazon + Microsoft + Oyo + Directi</t>
+  </si>
+  <si>
+    <t>Minimum Number of Jumps</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Housing.com Moonfrog Labs Walmart Microsoft Google Flipkart</t>
+  </si>
+  <si>
+    <t>Minimum removals from array to make max – min &lt;= K</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Webarch Club</t>
+  </si>
+  <si>
+    <t>Amazon + Accolite + Traveloca + Adobe</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequnce</t>
+  </si>
+  <si>
+    <t>Count Palindromic Subsequences</t>
+  </si>
+  <si>
+    <t>Myntra</t>
+  </si>
+  <si>
+    <t>Amazon + Microsoft + Samsung + Visa</t>
+  </si>
+  <si>
+    <t>Longest Alternating Sequence</t>
+  </si>
+  <si>
+    <t>Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t>Coin Game</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Coin Game Winner</t>
+  </si>
+  <si>
+    <t>Optimal Strategy for a game</t>
+  </si>
+  <si>
+    <t>Google + IBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile numeric keypad </t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication</t>
+  </si>
+  <si>
+    <t>Walmart + Flipkart</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice</t>
+  </si>
+  <si>
+    <t>Optimal BST</t>
+  </si>
+  <si>
+    <t>Largest Submatrix with sum 0</t>
+  </si>
+  <si>
+    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s</t>
+  </si>
+  <si>
+    <t>Amazon Directi Intuit MakeMyTrip Microsoft Samsung Google Flipkart</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Adobe Apple</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Accolite Amazon FactSet Google MakeMyTrip Microsoft Qualcomm Samsung</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Maq Software</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Power Set</t>
+  </si>
+  <si>
+    <t>Google + Adobe + Paytm</t>
+  </si>
+  <si>
+    <t>Segment Trees</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>Range Minimum Query</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>Alibaba</t>
+  </si>
+  <si>
+    <t>Create Sorted Array through Instructions</t>
+  </si>
+  <si>
+    <t>Samsung + Accolite</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Codenation Google</t>
+  </si>
+  <si>
+    <t>subset II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just like the first subset but here we also have to sort the array and store them in the set in order remove all the duplicates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove duplicate from unsorted array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just use hash map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort linked list of 0 1 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just find the number of 0 and 1 and 2 and then in sequential manner update the linked list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reorder list </t>
+  </si>
+  <si>
+    <t>just divide it in 2 vectors and then traverse the list again to put the value alternatley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,8 +3042,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4285F4"/>
+      <name val="Open Sans"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,8 +3078,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1133,13 +3105,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,20 +3460,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:AD406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L165" sqref="L165"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="36.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1483,8 +3501,18 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1500,8 +3528,18 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1517,8 +3555,20 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1534,8 +3584,18 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA5" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1551,8 +3611,18 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1568,13 +3638,33 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA7" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA8" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1590,13 +3680,33 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA10" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1612,8 +3722,18 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" ht="72.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1629,8 +3749,20 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1646,13 +3778,33 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA13" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1668,8 +3820,18 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA15" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1685,8 +3847,18 @@
       <c r="E16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA16" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1702,8 +3874,18 @@
       <c r="E17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA17" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1719,8 +3901,20 @@
       <c r="E18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA18" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1736,8 +3930,18 @@
       <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA19" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1753,8 +3957,18 @@
       <c r="E20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1770,8 +3984,18 @@
       <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA21" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1787,8 +4011,18 @@
       <c r="E22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA22" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1804,8 +4038,18 @@
       <c r="E23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA23" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>407</v>
+      </c>
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1821,8 +4065,18 @@
       <c r="E24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA24" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1838,8 +4092,18 @@
       <c r="E25" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA25" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -1855,8 +4119,18 @@
       <c r="E26" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA26" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -1872,8 +4146,18 @@
       <c r="E27" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA27" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -1889,8 +4173,9 @@
       <c r="E28" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -1906,8 +4191,9 @@
       <c r="E29" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -1923,8 +4209,18 @@
       <c r="E30" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA30" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD30" s="3"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -1940,8 +4236,18 @@
       <c r="E31" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA31" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -1957,8 +4263,20 @@
       <c r="E32" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA32" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD32" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28</v>
       </c>
@@ -1974,8 +4292,18 @@
       <c r="E33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA33" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -1991,8 +4319,18 @@
       <c r="E34" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA34" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>30</v>
       </c>
@@ -2008,8 +4346,18 @@
       <c r="E35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA35" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD35" s="3"/>
+    </row>
+    <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -2025,8 +4373,18 @@
       <c r="E36" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA36" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD36" s="3"/>
+    </row>
+    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>32</v>
       </c>
@@ -2042,8 +4400,18 @@
       <c r="E37" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA37" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD37" s="3"/>
+    </row>
+    <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>33</v>
       </c>
@@ -2059,8 +4427,18 @@
       <c r="E38" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA38" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD38" s="3"/>
+    </row>
+    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>34</v>
       </c>
@@ -2076,8 +4454,18 @@
       <c r="E39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA39" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>35</v>
       </c>
@@ -2093,8 +4481,18 @@
       <c r="E40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA40" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>36</v>
       </c>
@@ -2110,8 +4508,18 @@
       <c r="E41" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA41" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD41" s="3"/>
+    </row>
+    <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>37</v>
       </c>
@@ -2127,8 +4535,18 @@
       <c r="E42" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA42" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD42" s="3"/>
+    </row>
+    <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>38</v>
       </c>
@@ -2144,8 +4562,18 @@
       <c r="E43" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD43" s="3"/>
+    </row>
+    <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>39</v>
       </c>
@@ -2161,8 +4589,18 @@
       <c r="E44" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA44" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD44" s="3"/>
+    </row>
+    <row r="45" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -2178,8 +4616,18 @@
       <c r="E45" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA45" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD45" s="3"/>
+    </row>
+    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>41</v>
       </c>
@@ -2195,8 +4643,18 @@
       <c r="E46" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA46" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD46" s="3"/>
+    </row>
+    <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>42</v>
       </c>
@@ -2212,8 +4670,18 @@
       <c r="E47" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA47" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD47" s="3"/>
+    </row>
+    <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>43</v>
       </c>
@@ -2229,8 +4697,18 @@
       <c r="E48" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA48" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD48" s="3"/>
+    </row>
+    <row r="49" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>44</v>
       </c>
@@ -2246,8 +4724,18 @@
       <c r="E49" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA49" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>452</v>
+      </c>
+      <c r="AD49" s="3"/>
+    </row>
+    <row r="50" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>45</v>
       </c>
@@ -2263,8 +4751,18 @@
       <c r="E50" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA50" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD50" s="3"/>
+    </row>
+    <row r="51" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>46</v>
       </c>
@@ -2280,8 +4778,20 @@
       <c r="E51" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA51" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD51" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>47</v>
       </c>
@@ -2297,8 +4807,9 @@
       <c r="E52" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AD52" s="3"/>
+    </row>
+    <row r="53" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>48</v>
       </c>
@@ -2314,8 +4825,9 @@
       <c r="E53" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AD53" s="3"/>
+    </row>
+    <row r="54" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>49</v>
       </c>
@@ -2331,8 +4843,18 @@
       <c r="E54" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA54" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD54" s="4"/>
+    </row>
+    <row r="55" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>50</v>
       </c>
@@ -2348,8 +4870,18 @@
       <c r="E55" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA55" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>459</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD55" s="4"/>
+    </row>
+    <row r="56" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>51</v>
       </c>
@@ -2365,8 +4897,18 @@
       <c r="E56" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA56" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD56" s="4"/>
+    </row>
+    <row r="57" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>52</v>
       </c>
@@ -2382,8 +4924,18 @@
       <c r="E57" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA57" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>464</v>
+      </c>
+      <c r="AD57" s="4"/>
+    </row>
+    <row r="58" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>53</v>
       </c>
@@ -2399,8 +4951,18 @@
       <c r="E58" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA58" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD58" s="4"/>
+    </row>
+    <row r="59" spans="1:30" ht="54.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>54</v>
       </c>
@@ -2416,8 +4978,20 @@
       <c r="E59" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA59" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>468</v>
+      </c>
+      <c r="AD59" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>55</v>
       </c>
@@ -2433,8 +5007,18 @@
       <c r="E60" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA60" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD60" s="4"/>
+    </row>
+    <row r="61" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>56</v>
       </c>
@@ -2450,8 +5034,18 @@
       <c r="E61" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA61" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>472</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD61" s="4"/>
+    </row>
+    <row r="62" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>57</v>
       </c>
@@ -2467,8 +5061,18 @@
       <c r="E62" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA62" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>475</v>
+      </c>
+      <c r="AD62" s="4"/>
+    </row>
+    <row r="63" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>58</v>
       </c>
@@ -2484,8 +5088,18 @@
       <c r="E63" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA63" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD63" s="4"/>
+    </row>
+    <row r="64" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>59</v>
       </c>
@@ -2501,8 +5115,9 @@
       <c r="E64" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AD64" s="4"/>
+    </row>
+    <row r="65" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>60</v>
       </c>
@@ -2518,8 +5133,9 @@
       <c r="E65" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AD65" s="4"/>
+    </row>
+    <row r="66" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>61</v>
       </c>
@@ -2535,8 +5151,18 @@
       <c r="E66" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA66" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD66" s="4"/>
+    </row>
+    <row r="67" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>62</v>
       </c>
@@ -2552,8 +5178,18 @@
       <c r="E67" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA67" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>480</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>481</v>
+      </c>
+      <c r="AD67" s="4"/>
+    </row>
+    <row r="68" spans="1:30" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>63</v>
       </c>
@@ -2569,8 +5205,18 @@
       <c r="E68" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA68" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD68" s="4"/>
+    </row>
+    <row r="69" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>64</v>
       </c>
@@ -2586,8 +5232,18 @@
       <c r="E69" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA69" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>484</v>
+      </c>
+      <c r="AD69" s="3"/>
+    </row>
+    <row r="70" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>65</v>
       </c>
@@ -2603,8 +5259,18 @@
       <c r="E70" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA70" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD70" s="3"/>
+    </row>
+    <row r="71" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>66</v>
       </c>
@@ -2620,8 +5286,18 @@
       <c r="E71" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA71" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD71" s="3"/>
+    </row>
+    <row r="72" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>67</v>
       </c>
@@ -2637,8 +5313,18 @@
       <c r="E72" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA72" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD72" s="3"/>
+    </row>
+    <row r="73" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>68</v>
       </c>
@@ -2654,8 +5340,18 @@
       <c r="E73" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA73" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>492</v>
+      </c>
+      <c r="AD73" s="3"/>
+    </row>
+    <row r="74" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>69</v>
       </c>
@@ -2671,8 +5367,18 @@
       <c r="E74" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA74" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>494</v>
+      </c>
+      <c r="AD74" s="3"/>
+    </row>
+    <row r="75" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>70</v>
       </c>
@@ -2688,8 +5394,18 @@
       <c r="E75" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA75" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>496</v>
+      </c>
+      <c r="AD75" s="3"/>
+    </row>
+    <row r="76" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>71</v>
       </c>
@@ -2705,8 +5421,18 @@
       <c r="E76" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA76" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>498</v>
+      </c>
+      <c r="AD76" s="3"/>
+    </row>
+    <row r="77" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>72</v>
       </c>
@@ -2722,8 +5448,18 @@
       <c r="E77" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA77" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>500</v>
+      </c>
+      <c r="AD77" s="3"/>
+    </row>
+    <row r="78" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>73</v>
       </c>
@@ -2739,8 +5475,18 @@
       <c r="E78" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA78" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD78" s="3"/>
+    </row>
+    <row r="79" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>74</v>
       </c>
@@ -2756,8 +5502,18 @@
       <c r="E79" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA79" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>504</v>
+      </c>
+      <c r="AD79" s="3"/>
+    </row>
+    <row r="80" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>75</v>
       </c>
@@ -2773,8 +5529,18 @@
       <c r="E80" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA80" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD80" s="3"/>
+    </row>
+    <row r="81" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>76</v>
       </c>
@@ -2790,8 +5556,18 @@
       <c r="E81" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA81" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD81" s="3"/>
+    </row>
+    <row r="82" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>77</v>
       </c>
@@ -2807,8 +5583,18 @@
       <c r="E82" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA82" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>508</v>
+      </c>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>78</v>
       </c>
@@ -2824,8 +5610,18 @@
       <c r="E83" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD83" s="3"/>
+    </row>
+    <row r="84" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>79</v>
       </c>
@@ -2841,8 +5637,18 @@
       <c r="E84" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA84" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>512</v>
+      </c>
+      <c r="AD84" s="3"/>
+    </row>
+    <row r="85" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>80</v>
       </c>
@@ -2858,8 +5664,18 @@
       <c r="E85" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA85" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>513</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>514</v>
+      </c>
+      <c r="AD85" s="3"/>
+    </row>
+    <row r="86" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>81</v>
       </c>
@@ -2875,8 +5691,18 @@
       <c r="E86" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA86" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD86" s="3"/>
+    </row>
+    <row r="87" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>82</v>
       </c>
@@ -2892,8 +5718,18 @@
       <c r="E87" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA87" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>517</v>
+      </c>
+      <c r="AD87" s="3"/>
+    </row>
+    <row r="88" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>83</v>
       </c>
@@ -2909,25 +5745,36 @@
       <c r="E88" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="AA88" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>512</v>
+      </c>
+      <c r="AD88" s="3"/>
+    </row>
+    <row r="89" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
         <v>84</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AD89" s="3"/>
+    </row>
+    <row r="90" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>85</v>
       </c>
@@ -2943,8 +5790,9 @@
       <c r="E90" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>86</v>
       </c>
@@ -2960,8 +5808,18 @@
       <c r="E91" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA91" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD91" s="3"/>
+    </row>
+    <row r="92" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>87</v>
       </c>
@@ -2977,8 +5835,18 @@
       <c r="E92" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA92" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD92" s="3"/>
+    </row>
+    <row r="93" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>88</v>
       </c>
@@ -2994,8 +5862,18 @@
       <c r="E93" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA93" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD93" s="3"/>
+    </row>
+    <row r="94" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>89</v>
       </c>
@@ -3011,8 +5889,18 @@
       <c r="E94" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA94" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD94" s="3"/>
+    </row>
+    <row r="95" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>90</v>
       </c>
@@ -3028,8 +5916,18 @@
       <c r="E95" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA95" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>527</v>
+      </c>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>91</v>
       </c>
@@ -3045,8 +5943,18 @@
       <c r="E96" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA96" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>528</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD96" s="3"/>
+    </row>
+    <row r="97" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>92</v>
       </c>
@@ -3062,8 +5970,18 @@
       <c r="E97" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA97" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>531</v>
+      </c>
+      <c r="AD97" s="3"/>
+    </row>
+    <row r="98" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>93</v>
       </c>
@@ -3079,25 +5997,45 @@
       <c r="E98" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="AA98" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD98" s="3"/>
+    </row>
+    <row r="99" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
         <v>94</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA99" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD99" s="3"/>
+    </row>
+    <row r="100" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>95</v>
       </c>
@@ -3113,8 +6051,18 @@
       <c r="E100" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA100" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>531</v>
+      </c>
+      <c r="AD100" s="3"/>
+    </row>
+    <row r="101" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>96</v>
       </c>
@@ -3130,8 +6078,18 @@
       <c r="E101" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA101" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD101" s="3"/>
+    </row>
+    <row r="102" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>97</v>
       </c>
@@ -3147,8 +6105,15 @@
       <c r="E102" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA102" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>538</v>
+      </c>
+      <c r="AD102" s="3"/>
+    </row>
+    <row r="103" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>98</v>
       </c>
@@ -3164,8 +6129,18 @@
       <c r="E103" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA103" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD103" s="3"/>
+    </row>
+    <row r="104" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>99</v>
       </c>
@@ -3181,8 +6156,18 @@
       <c r="E104" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA104" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD104" s="3"/>
+    </row>
+    <row r="105" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>100</v>
       </c>
@@ -3198,8 +6183,18 @@
       <c r="E105" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA105" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD105" s="3"/>
+    </row>
+    <row r="106" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>101</v>
       </c>
@@ -3215,8 +6210,18 @@
       <c r="E106" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA106" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD106" s="3"/>
+    </row>
+    <row r="107" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>102</v>
       </c>
@@ -3232,8 +6237,18 @@
       <c r="E107" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA107" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD107" s="3"/>
+    </row>
+    <row r="108" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>103</v>
       </c>
@@ -3249,8 +6264,18 @@
       <c r="E108" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA108" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>545</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>531</v>
+      </c>
+      <c r="AD108" s="3"/>
+    </row>
+    <row r="109" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>104</v>
       </c>
@@ -3266,8 +6291,18 @@
       <c r="E109" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA109" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>546</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>547</v>
+      </c>
+      <c r="AD109" s="3"/>
+    </row>
+    <row r="110" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>105</v>
       </c>
@@ -3283,8 +6318,18 @@
       <c r="E110" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA110" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD110" s="3"/>
+    </row>
+    <row r="111" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>106</v>
       </c>
@@ -3300,8 +6345,18 @@
       <c r="E111" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA111" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD111" s="3"/>
+    </row>
+    <row r="112" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>107</v>
       </c>
@@ -3317,8 +6372,9 @@
       <c r="E112" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AD112" s="3"/>
+    </row>
+    <row r="113" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>108</v>
       </c>
@@ -3334,8 +6390,9 @@
       <c r="E113" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AD113" s="3"/>
+    </row>
+    <row r="114" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>109</v>
       </c>
@@ -3351,8 +6408,18 @@
       <c r="E114" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA114" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD114" s="3"/>
+    </row>
+    <row r="115" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>110</v>
       </c>
@@ -3368,8 +6435,18 @@
       <c r="E115" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA115" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD115" s="3"/>
+    </row>
+    <row r="116" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>111</v>
       </c>
@@ -3385,8 +6462,18 @@
       <c r="E116" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA116" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD116" s="3"/>
+    </row>
+    <row r="117" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>112</v>
       </c>
@@ -3402,8 +6489,18 @@
       <c r="E117" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA117" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>559</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>560</v>
+      </c>
+      <c r="AD117" s="3"/>
+    </row>
+    <row r="118" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>113</v>
       </c>
@@ -3419,8 +6516,18 @@
       <c r="E118" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA118" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>562</v>
+      </c>
+      <c r="AD118" s="3"/>
+    </row>
+    <row r="119" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>114</v>
       </c>
@@ -3436,8 +6543,18 @@
       <c r="E119" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA119" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD119" s="3"/>
+    </row>
+    <row r="120" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>115</v>
       </c>
@@ -3453,8 +6570,18 @@
       <c r="E120" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA120" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD120" s="3"/>
+    </row>
+    <row r="121" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>116</v>
       </c>
@@ -3470,8 +6597,18 @@
       <c r="E121" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA121" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>566</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD121" s="3"/>
+    </row>
+    <row r="122" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>117</v>
       </c>
@@ -3487,8 +6624,18 @@
       <c r="E122" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA122" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>568</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD122" s="3"/>
+    </row>
+    <row r="123" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>118</v>
       </c>
@@ -3504,8 +6651,18 @@
       <c r="E123" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA123" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>570</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD123" s="3"/>
+    </row>
+    <row r="124" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>119</v>
       </c>
@@ -3521,8 +6678,18 @@
       <c r="E124" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA124" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>571</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD124" s="3"/>
+    </row>
+    <row r="125" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>120</v>
       </c>
@@ -3538,8 +6705,18 @@
       <c r="E125" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA125" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>572</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD125" s="3"/>
+    </row>
+    <row r="126" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>122</v>
       </c>
@@ -3555,8 +6732,18 @@
       <c r="E126" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA126" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD126" s="3"/>
+    </row>
+    <row r="127" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>123</v>
       </c>
@@ -3572,25 +6759,45 @@
       <c r="E127" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="AA127" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD127" s="3"/>
+    </row>
+    <row r="128" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8">
         <v>124</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA128" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD128" s="3"/>
+    </row>
+    <row r="129" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>125</v>
       </c>
@@ -3606,8 +6813,18 @@
       <c r="E129" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA129" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD129" s="3"/>
+    </row>
+    <row r="130" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>126</v>
       </c>
@@ -3623,8 +6840,18 @@
       <c r="E130" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA130" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>579</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>580</v>
+      </c>
+      <c r="AD130" s="3"/>
+    </row>
+    <row r="131" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>127</v>
       </c>
@@ -3641,8 +6868,18 @@
         <v>278</v>
       </c>
       <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA131" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD131" s="3"/>
+    </row>
+    <row r="132" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>128</v>
       </c>
@@ -3658,8 +6895,18 @@
       <c r="E132" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA132" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>583</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>584</v>
+      </c>
+      <c r="AD132" s="3"/>
+    </row>
+    <row r="133" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>129</v>
       </c>
@@ -3675,8 +6922,18 @@
       <c r="E133" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA133" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>585</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>586</v>
+      </c>
+      <c r="AD133" s="3"/>
+    </row>
+    <row r="134" spans="1:30" ht="36.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>130</v>
       </c>
@@ -3692,8 +6949,20 @@
       <c r="E134" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA134" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>587</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>588</v>
+      </c>
+      <c r="AD134" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="36.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>131</v>
       </c>
@@ -3709,8 +6978,20 @@
       <c r="E135" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA135" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD135" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>132</v>
       </c>
@@ -3726,8 +7007,18 @@
       <c r="E136" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA136" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>592</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>593</v>
+      </c>
+      <c r="AD136" s="3"/>
+    </row>
+    <row r="137" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>133</v>
       </c>
@@ -3743,8 +7034,18 @@
       <c r="E137" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA137" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD137" s="3"/>
+    </row>
+    <row r="138" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>134</v>
       </c>
@@ -3760,8 +7061,18 @@
       <c r="E138" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA138" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC138" t="s">
+        <v>597</v>
+      </c>
+      <c r="AD138" s="3"/>
+    </row>
+    <row r="139" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>135</v>
       </c>
@@ -3777,8 +7088,18 @@
       <c r="E139" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA139" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>598</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD139" s="3"/>
+    </row>
+    <row r="140" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>136</v>
       </c>
@@ -3794,8 +7115,9 @@
       <c r="E140" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AD140" s="3"/>
+    </row>
+    <row r="141" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>137</v>
       </c>
@@ -3811,8 +7133,9 @@
       <c r="E141" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AD141" s="3"/>
+    </row>
+    <row r="142" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>138</v>
       </c>
@@ -3828,8 +7151,18 @@
       <c r="E142" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA142" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>601</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD142" s="3"/>
+    </row>
+    <row r="143" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>139</v>
       </c>
@@ -3845,8 +7178,18 @@
       <c r="E143" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA143" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>603</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD143" s="7"/>
+    </row>
+    <row r="144" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>140</v>
       </c>
@@ -3862,8 +7205,18 @@
       <c r="E144" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA144" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>605</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD144" s="7"/>
+    </row>
+    <row r="145" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>141</v>
       </c>
@@ -3879,8 +7232,18 @@
       <c r="E145" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA145" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>607</v>
+      </c>
+      <c r="AC145" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD145" s="7"/>
+    </row>
+    <row r="146" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>142</v>
       </c>
@@ -3896,8 +7259,18 @@
       <c r="E146" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA146" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB146" t="s">
+        <v>609</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD146" s="7"/>
+    </row>
+    <row r="147" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>143</v>
       </c>
@@ -3913,8 +7286,18 @@
       <c r="E147" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA147" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB147" t="s">
+        <v>611</v>
+      </c>
+      <c r="AC147" t="s">
+        <v>612</v>
+      </c>
+      <c r="AD147" s="7"/>
+    </row>
+    <row r="148" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>144</v>
       </c>
@@ -3930,8 +7313,18 @@
       <c r="E148" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA148" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB148" t="s">
+        <v>613</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>614</v>
+      </c>
+      <c r="AD148" s="7"/>
+    </row>
+    <row r="149" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>145</v>
       </c>
@@ -3947,8 +7340,18 @@
       <c r="E149" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA149" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>615</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD149" s="7"/>
+    </row>
+    <row r="150" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>146</v>
       </c>
@@ -3964,8 +7367,18 @@
       <c r="E150" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA150" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>617</v>
+      </c>
+      <c r="AC150" t="s">
+        <v>618</v>
+      </c>
+      <c r="AD150" s="7"/>
+    </row>
+    <row r="151" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>147</v>
       </c>
@@ -3981,8 +7394,18 @@
       <c r="E151" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA151" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>619</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>620</v>
+      </c>
+      <c r="AD151" s="3"/>
+    </row>
+    <row r="152" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>148</v>
       </c>
@@ -3998,8 +7421,18 @@
       <c r="E152" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA152" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>621</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>622</v>
+      </c>
+      <c r="AD152" s="3"/>
+    </row>
+    <row r="153" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>149</v>
       </c>
@@ -4015,8 +7448,18 @@
       <c r="E153" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA153" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>623</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>624</v>
+      </c>
+      <c r="AD153" s="3"/>
+    </row>
+    <row r="154" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>150</v>
       </c>
@@ -4032,8 +7475,18 @@
       <c r="E154" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA154" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>625</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD154" s="3"/>
+    </row>
+    <row r="155" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>151</v>
       </c>
@@ -4049,8 +7502,18 @@
       <c r="E155" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA155" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD155" s="3"/>
+    </row>
+    <row r="156" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>152</v>
       </c>
@@ -4066,8 +7529,18 @@
       <c r="E156" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA156" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>628</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD156" s="3"/>
+    </row>
+    <row r="157" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>153</v>
       </c>
@@ -4083,8 +7556,18 @@
       <c r="E157" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA157" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>631</v>
+      </c>
+      <c r="AD157" s="3"/>
+    </row>
+    <row r="158" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>154</v>
       </c>
@@ -4100,8 +7583,18 @@
       <c r="E158" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA158" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>632</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>624</v>
+      </c>
+      <c r="AD158" s="3"/>
+    </row>
+    <row r="159" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>155</v>
       </c>
@@ -4117,8 +7610,18 @@
       <c r="E159" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA159" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>634</v>
+      </c>
+      <c r="AD159" s="3"/>
+    </row>
+    <row r="160" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>156</v>
       </c>
@@ -4134,8 +7637,18 @@
       <c r="E160" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA160" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD160" s="3"/>
+    </row>
+    <row r="161" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>157</v>
       </c>
@@ -4151,8 +7664,18 @@
       <c r="E161" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA161" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>636</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD161" s="3"/>
+    </row>
+    <row r="162" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>158</v>
       </c>
@@ -4168,8 +7691,18 @@
       <c r="E162" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA162" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>638</v>
+      </c>
+      <c r="AC162" t="s">
+        <v>639</v>
+      </c>
+      <c r="AD162" s="3"/>
+    </row>
+    <row r="163" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>159</v>
       </c>
@@ -4185,8 +7718,18 @@
       <c r="E163" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA163" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>640</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD163" s="3"/>
+    </row>
+    <row r="164" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>160</v>
       </c>
@@ -4202,8 +7745,18 @@
       <c r="E164" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA164" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>641</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>631</v>
+      </c>
+      <c r="AD164" s="3"/>
+    </row>
+    <row r="165" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>161</v>
       </c>
@@ -4219,8 +7772,18 @@
       <c r="E165" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA165" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>642</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD165" s="3"/>
+    </row>
+    <row r="166" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>162</v>
       </c>
@@ -4236,8 +7799,18 @@
       <c r="E166" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA166" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>643</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>644</v>
+      </c>
+      <c r="AD166" s="3"/>
+    </row>
+    <row r="167" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>163</v>
       </c>
@@ -4253,8 +7826,18 @@
       <c r="E167" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA167" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>645</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>646</v>
+      </c>
+      <c r="AD167" s="3"/>
+    </row>
+    <row r="168" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>164</v>
       </c>
@@ -4270,13 +7853,3147 @@
       <c r="E168" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA168" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>647</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD168" s="3"/>
+    </row>
+    <row r="169" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>165</v>
       </c>
+      <c r="B169" t="s">
+        <v>357</v>
+      </c>
+      <c r="C169" t="s">
+        <v>201</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD169" s="3"/>
+    </row>
+    <row r="170" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>166</v>
+      </c>
+      <c r="B170" t="s">
+        <v>359</v>
+      </c>
+      <c r="C170" t="s">
+        <v>338</v>
+      </c>
+      <c r="D170" t="s">
+        <v>48</v>
+      </c>
+      <c r="E170" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD170" s="3"/>
+    </row>
+    <row r="171" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>167</v>
+      </c>
+      <c r="B171" t="s">
+        <v>993</v>
+      </c>
+      <c r="C171" t="s">
+        <v>177</v>
+      </c>
+      <c r="D171" t="s">
+        <v>48</v>
+      </c>
+      <c r="E171" t="s">
+        <v>994</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>649</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>650</v>
+      </c>
+      <c r="AD171" s="3"/>
+    </row>
+    <row r="172" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>168</v>
+      </c>
+      <c r="B172" t="s">
+        <v>995</v>
+      </c>
+      <c r="C172" t="s">
+        <v>44</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD172" s="3"/>
+    </row>
+    <row r="173" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>169</v>
+      </c>
+      <c r="B173" t="s">
+        <v>997</v>
+      </c>
+      <c r="C173" t="s">
+        <v>44</v>
+      </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" t="s">
+        <v>998</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD173" s="3"/>
+    </row>
+    <row r="174" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>170</v>
+      </c>
+      <c r="B174" t="s">
+        <v>999</v>
+      </c>
+      <c r="C174" t="s">
+        <v>44</v>
+      </c>
+      <c r="D174" t="s">
+        <v>48</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD174" s="3"/>
+    </row>
+    <row r="175" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA175" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>655</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD175" s="3"/>
+    </row>
+    <row r="176" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA176" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>657</v>
+      </c>
+      <c r="AD176" s="3"/>
+    </row>
+    <row r="177" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA177" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>658</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>659</v>
+      </c>
+      <c r="AD177" s="3"/>
+    </row>
+    <row r="178" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA178" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>661</v>
+      </c>
+      <c r="AD178" s="3"/>
+    </row>
+    <row r="179" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA179" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>662</v>
+      </c>
+      <c r="AD179" s="3"/>
+    </row>
+    <row r="180" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA180" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD180" s="3"/>
+    </row>
+    <row r="181" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA181" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD181" s="3"/>
+    </row>
+    <row r="182" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA182" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>666</v>
+      </c>
+      <c r="AD182" s="3"/>
+    </row>
+    <row r="183" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA183" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD183" s="3"/>
+    </row>
+    <row r="184" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA184" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>669</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD184" s="3"/>
+    </row>
+    <row r="185" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA185" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>670</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD185" s="3"/>
+    </row>
+    <row r="186" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA186" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD186" s="3"/>
+    </row>
+    <row r="187" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA187" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD187" s="3"/>
+    </row>
+    <row r="188" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA188" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>673</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD188" s="3"/>
+    </row>
+    <row r="189" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA189" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD189" s="3"/>
+    </row>
+    <row r="190" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA190" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD190" s="3"/>
+    </row>
+    <row r="191" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA191" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>676</v>
+      </c>
+      <c r="AD191" s="3"/>
+    </row>
+    <row r="192" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA192" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD192" s="3"/>
+    </row>
+    <row r="193" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD193" s="3"/>
+    </row>
+    <row r="194" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD194" s="3"/>
+    </row>
+    <row r="195" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA195" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD195" s="3"/>
+    </row>
+    <row r="196" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA196" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD196" s="3"/>
+    </row>
+    <row r="197" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA197" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD197" s="3"/>
+    </row>
+    <row r="198" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA198" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>686</v>
+      </c>
+      <c r="AD198" s="3"/>
+    </row>
+    <row r="199" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA199" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>687</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>688</v>
+      </c>
+      <c r="AD199" s="3"/>
+    </row>
+    <row r="200" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA200" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>689</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>690</v>
+      </c>
+      <c r="AD200" s="3"/>
+    </row>
+    <row r="201" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA201" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>691</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD201" s="3"/>
+    </row>
+    <row r="202" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA202" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD202" s="3"/>
+    </row>
+    <row r="203" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA203" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>694</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>695</v>
+      </c>
+      <c r="AD203" s="3"/>
+    </row>
+    <row r="204" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA204" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC204" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD204" s="3"/>
+    </row>
+    <row r="205" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA205" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>697</v>
+      </c>
+      <c r="AC205" t="s">
+        <v>698</v>
+      </c>
+      <c r="AD205" s="3"/>
+    </row>
+    <row r="206" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA206" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>699</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>700</v>
+      </c>
+      <c r="AD206" s="3"/>
+    </row>
+    <row r="207" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA207" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>701</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD207" s="3"/>
+    </row>
+    <row r="208" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA208" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>702</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>644</v>
+      </c>
+      <c r="AD208" s="3"/>
+    </row>
+    <row r="209" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA209" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>703</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>704</v>
+      </c>
+      <c r="AD209" s="3"/>
+    </row>
+    <row r="210" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA210" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>705</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD210" s="3"/>
+    </row>
+    <row r="211" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA211" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>706</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>707</v>
+      </c>
+      <c r="AD211" s="3"/>
+    </row>
+    <row r="212" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA212" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>708</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>709</v>
+      </c>
+      <c r="AD212" s="3"/>
+    </row>
+    <row r="213" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA213" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>710</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>711</v>
+      </c>
+      <c r="AD213" s="3"/>
+    </row>
+    <row r="214" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA214" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>712</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD214" s="3"/>
+    </row>
+    <row r="215" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA215" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>713</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>714</v>
+      </c>
+      <c r="AD215" s="3"/>
+    </row>
+    <row r="216" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA216" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>715</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>716</v>
+      </c>
+      <c r="AD216" s="3"/>
+    </row>
+    <row r="217" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA217" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>717</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>718</v>
+      </c>
+      <c r="AD217" s="3"/>
+    </row>
+    <row r="218" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA218" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD218" s="3"/>
+    </row>
+    <row r="219" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA219" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD219" s="3"/>
+    </row>
+    <row r="220" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA220" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>721</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>722</v>
+      </c>
+      <c r="AD220" s="3"/>
+    </row>
+    <row r="221" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA221" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>723</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD221" s="3"/>
+    </row>
+    <row r="222" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA222" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>725</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD222" s="3"/>
+    </row>
+    <row r="223" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA223" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>727</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD223" s="3"/>
+    </row>
+    <row r="224" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA224" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>729</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD224" s="3"/>
+    </row>
+    <row r="225" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA225" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>731</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>732</v>
+      </c>
+      <c r="AD225" s="3"/>
+    </row>
+    <row r="226" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA226" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>733</v>
+      </c>
+      <c r="AC226" t="s">
+        <v>734</v>
+      </c>
+      <c r="AD226" s="3"/>
+    </row>
+    <row r="227" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA227" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>735</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD227" s="3"/>
+    </row>
+    <row r="228" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD228" s="3"/>
+    </row>
+    <row r="229" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD229" s="3"/>
+    </row>
+    <row r="230" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA230" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>738</v>
+      </c>
+      <c r="AC230" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD230" s="3"/>
+    </row>
+    <row r="231" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA231" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>740</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD231" s="3"/>
+    </row>
+    <row r="232" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA232" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>742</v>
+      </c>
+      <c r="AC232" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD232" s="3"/>
+    </row>
+    <row r="233" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA233" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB233" t="s">
+        <v>743</v>
+      </c>
+      <c r="AC233" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD233" s="3"/>
+    </row>
+    <row r="234" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA234" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>745</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD234" s="3"/>
+    </row>
+    <row r="235" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA235" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>746</v>
+      </c>
+      <c r="AC235" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD235" s="3"/>
+    </row>
+    <row r="236" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA236" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD236" s="3"/>
+    </row>
+    <row r="237" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA237" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>750</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>751</v>
+      </c>
+      <c r="AD237" s="3"/>
+    </row>
+    <row r="238" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA238" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD238" s="3"/>
+    </row>
+    <row r="239" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA239" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>754</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>755</v>
+      </c>
+      <c r="AD239" s="3"/>
+    </row>
+    <row r="240" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA240" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>756</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD240" s="3"/>
+    </row>
+    <row r="241" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA241" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>757</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD241" s="3"/>
+    </row>
+    <row r="242" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA242" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>759</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>760</v>
+      </c>
+      <c r="AD242" s="3"/>
+    </row>
+    <row r="243" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA243" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>761</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>762</v>
+      </c>
+      <c r="AD243" s="3"/>
+    </row>
+    <row r="244" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA244" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>763</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD244" s="3"/>
+    </row>
+    <row r="245" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA245" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>764</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>711</v>
+      </c>
+      <c r="AD245" s="3"/>
+    </row>
+    <row r="246" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA246" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>765</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD246" s="3"/>
+    </row>
+    <row r="247" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA247" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>766</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD247" s="3"/>
+    </row>
+    <row r="248" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA248" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>767</v>
+      </c>
+      <c r="AC248" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD248" s="3"/>
+    </row>
+    <row r="249" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA249" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC249" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD249" s="3"/>
+    </row>
+    <row r="250" spans="27:30" ht="36.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA250" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>770</v>
+      </c>
+      <c r="AC250" t="s">
+        <v>771</v>
+      </c>
+      <c r="AD250" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="251" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD251" s="3"/>
+    </row>
+    <row r="252" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD252" s="3"/>
+    </row>
+    <row r="253" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA253" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>773</v>
+      </c>
+      <c r="AD253" s="3"/>
+    </row>
+    <row r="254" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA254" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>774</v>
+      </c>
+      <c r="AC254" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD254" s="7"/>
+    </row>
+    <row r="255" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA255" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>775</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD255" s="7"/>
+    </row>
+    <row r="256" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA256" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>776</v>
+      </c>
+      <c r="AC256" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD256" s="7"/>
+    </row>
+    <row r="257" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA257" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>777</v>
+      </c>
+      <c r="AC257" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD257" s="7"/>
+    </row>
+    <row r="258" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA258" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>779</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD258" s="7"/>
+    </row>
+    <row r="259" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA259" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>780</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD259" s="7"/>
+    </row>
+    <row r="260" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA260" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>782</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD260" s="7"/>
+    </row>
+    <row r="261" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA261" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>783</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>784</v>
+      </c>
+      <c r="AD261" s="7"/>
+    </row>
+    <row r="262" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA262" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>785</v>
+      </c>
+      <c r="AC262" t="s">
+        <v>786</v>
+      </c>
+      <c r="AD262" s="7"/>
+    </row>
+    <row r="263" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA263" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>787</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>788</v>
+      </c>
+      <c r="AD263" s="7"/>
+    </row>
+    <row r="264" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA264" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC264" t="s">
+        <v>790</v>
+      </c>
+      <c r="AD264" s="7"/>
+    </row>
+    <row r="265" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA265" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>791</v>
+      </c>
+      <c r="AC265" t="s">
+        <v>792</v>
+      </c>
+      <c r="AD265" s="7"/>
+    </row>
+    <row r="266" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA266" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>793</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>794</v>
+      </c>
+      <c r="AD266" s="7"/>
+    </row>
+    <row r="267" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA267" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>795</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>704</v>
+      </c>
+      <c r="AD267" s="7"/>
+    </row>
+    <row r="268" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA268" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>796</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>797</v>
+      </c>
+      <c r="AD268" s="7"/>
+    </row>
+    <row r="269" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA269" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>798</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>792</v>
+      </c>
+      <c r="AD269" s="7"/>
+    </row>
+    <row r="270" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA270" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>799</v>
+      </c>
+      <c r="AC270" t="s">
+        <v>800</v>
+      </c>
+      <c r="AD270" s="7"/>
+    </row>
+    <row r="271" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA271" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>801</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>802</v>
+      </c>
+      <c r="AD271" s="3"/>
+    </row>
+    <row r="272" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA272" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>803</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>804</v>
+      </c>
+      <c r="AD272" s="3"/>
+    </row>
+    <row r="273" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA273" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB273" t="s">
+        <v>805</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>806</v>
+      </c>
+      <c r="AD273" s="3"/>
+    </row>
+    <row r="274" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA274" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB274" t="s">
+        <v>807</v>
+      </c>
+      <c r="AC274" t="s">
+        <v>808</v>
+      </c>
+      <c r="AD274" s="3"/>
+    </row>
+    <row r="275" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA275" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB275" t="s">
+        <v>809</v>
+      </c>
+      <c r="AC275" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD275" s="3"/>
+    </row>
+    <row r="276" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA276" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB276" t="s">
+        <v>810</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>811</v>
+      </c>
+      <c r="AD276" s="3"/>
+    </row>
+    <row r="277" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA277" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB277" t="s">
+        <v>812</v>
+      </c>
+      <c r="AC277" t="s">
+        <v>806</v>
+      </c>
+      <c r="AD277" s="3"/>
+    </row>
+    <row r="278" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA278" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>813</v>
+      </c>
+      <c r="AC278" t="s">
+        <v>792</v>
+      </c>
+      <c r="AD278" s="3"/>
+    </row>
+    <row r="279" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA279" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>814</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>815</v>
+      </c>
+      <c r="AD279" s="3"/>
+    </row>
+    <row r="280" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA280" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB280" t="s">
+        <v>816</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD280" s="3"/>
+    </row>
+    <row r="281" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD281" s="3"/>
+    </row>
+    <row r="282" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD282" s="3"/>
+    </row>
+    <row r="283" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA283" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>818</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>819</v>
+      </c>
+      <c r="AD283" s="3"/>
+    </row>
+    <row r="284" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA284" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB284" t="s">
+        <v>820</v>
+      </c>
+      <c r="AC284" t="s">
+        <v>821</v>
+      </c>
+      <c r="AD284" s="3"/>
+    </row>
+    <row r="285" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA285" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB285" t="s">
+        <v>822</v>
+      </c>
+      <c r="AC285" t="s">
+        <v>823</v>
+      </c>
+      <c r="AD285" s="3"/>
+    </row>
+    <row r="286" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA286" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB286" t="s">
+        <v>824</v>
+      </c>
+      <c r="AC286" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD286" s="3"/>
+    </row>
+    <row r="287" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA287" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>825</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>826</v>
+      </c>
+      <c r="AD287" s="3"/>
+    </row>
+    <row r="288" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA288" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>827</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD288" s="3"/>
+    </row>
+    <row r="289" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA289" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB289" t="s">
+        <v>828</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>829</v>
+      </c>
+      <c r="AD289" s="3"/>
+    </row>
+    <row r="290" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA290" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB290" t="s">
+        <v>830</v>
+      </c>
+      <c r="AC290" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD290" s="3"/>
+    </row>
+    <row r="291" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA291" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB291" t="s">
+        <v>831</v>
+      </c>
+      <c r="AC291" t="s">
+        <v>832</v>
+      </c>
+      <c r="AD291" s="3"/>
+    </row>
+    <row r="292" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA292" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB292" t="s">
+        <v>833</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD292" s="3"/>
+    </row>
+    <row r="293" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA293" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB293" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD293" s="3"/>
+    </row>
+    <row r="294" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA294" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB294" t="s">
+        <v>835</v>
+      </c>
+      <c r="AC294" t="s">
+        <v>836</v>
+      </c>
+      <c r="AD294" s="3"/>
+    </row>
+    <row r="295" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA295" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB295" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>829</v>
+      </c>
+      <c r="AD295" s="3"/>
+    </row>
+    <row r="296" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA296" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB296" t="s">
+        <v>838</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD296" s="3"/>
+    </row>
+    <row r="297" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA297" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB297" t="s">
+        <v>839</v>
+      </c>
+      <c r="AC297" t="s">
+        <v>840</v>
+      </c>
+      <c r="AD297" s="3"/>
+    </row>
+    <row r="298" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA298" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB298" t="s">
+        <v>841</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>842</v>
+      </c>
+      <c r="AD298" s="3"/>
+    </row>
+    <row r="299" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA299" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB299" t="s">
+        <v>843</v>
+      </c>
+      <c r="AC299" t="s">
+        <v>624</v>
+      </c>
+      <c r="AD299" s="3"/>
+    </row>
+    <row r="300" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA300" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB300" t="s">
+        <v>844</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD300" s="3"/>
+    </row>
+    <row r="301" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA301" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>845</v>
+      </c>
+      <c r="AC301" t="s">
+        <v>846</v>
+      </c>
+      <c r="AD301" s="3"/>
+    </row>
+    <row r="302" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA302" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB302" t="s">
+        <v>847</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>584</v>
+      </c>
+      <c r="AD302" s="3"/>
+    </row>
+    <row r="303" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA303" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>848</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>849</v>
+      </c>
+      <c r="AD303" s="3"/>
+    </row>
+    <row r="304" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA304" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB304" t="s">
+        <v>850</v>
+      </c>
+      <c r="AC304" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD304" s="3"/>
+    </row>
+    <row r="305" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA305" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB305" t="s">
+        <v>851</v>
+      </c>
+      <c r="AC305" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD305" s="3"/>
+    </row>
+    <row r="306" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA306" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB306" t="s">
+        <v>853</v>
+      </c>
+      <c r="AC306" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD306" s="3"/>
+    </row>
+    <row r="307" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA307" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB307" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC307" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD307" s="3"/>
+    </row>
+    <row r="308" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA308" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB308" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC308" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD308" s="3"/>
+    </row>
+    <row r="309" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA309" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB309" t="s">
+        <v>857</v>
+      </c>
+      <c r="AC309" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD309" s="3"/>
+    </row>
+    <row r="310" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA310" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB310" t="s">
+        <v>859</v>
+      </c>
+      <c r="AC310" t="s">
+        <v>829</v>
+      </c>
+      <c r="AD310" s="3"/>
+    </row>
+    <row r="311" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA311" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB311" t="s">
+        <v>860</v>
+      </c>
+      <c r="AC311" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD311" s="3"/>
+    </row>
+    <row r="312" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA312" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB312" t="s">
+        <v>861</v>
+      </c>
+      <c r="AC312" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD312" s="3"/>
+    </row>
+    <row r="313" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA313" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB313" t="s">
+        <v>862</v>
+      </c>
+      <c r="AC313" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD313" s="3"/>
+    </row>
+    <row r="314" spans="27:30" ht="36.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA314" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB314" t="s">
+        <v>863</v>
+      </c>
+      <c r="AC314" t="s">
+        <v>864</v>
+      </c>
+      <c r="AD314" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="315" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA315" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>865</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>866</v>
+      </c>
+      <c r="AD315" s="3"/>
+    </row>
+    <row r="316" spans="27:30" ht="36.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA316" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB316" t="s">
+        <v>867</v>
+      </c>
+      <c r="AC316" t="s">
+        <v>868</v>
+      </c>
+      <c r="AD316" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="317" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA317" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB317" t="s">
+        <v>869</v>
+      </c>
+      <c r="AC317" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD317" s="3"/>
+    </row>
+    <row r="318" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA318" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB318" t="s">
+        <v>870</v>
+      </c>
+      <c r="AC318" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD318" s="3"/>
+    </row>
+    <row r="319" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA319" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB319" t="s">
+        <v>871</v>
+      </c>
+      <c r="AC319" t="s">
+        <v>872</v>
+      </c>
+      <c r="AD319" s="3"/>
+    </row>
+    <row r="320" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA320" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB320" t="s">
+        <v>873</v>
+      </c>
+      <c r="AC320" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD320" s="3"/>
+    </row>
+    <row r="321" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA321" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB321" t="s">
+        <v>874</v>
+      </c>
+      <c r="AC321" t="s">
+        <v>872</v>
+      </c>
+      <c r="AD321" s="3"/>
+    </row>
+    <row r="322" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA322" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB322" t="s">
+        <v>875</v>
+      </c>
+      <c r="AC322" t="s">
+        <v>876</v>
+      </c>
+      <c r="AD322" s="3"/>
+    </row>
+    <row r="323" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD323" s="3"/>
+    </row>
+    <row r="324" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD324" s="3"/>
+    </row>
+    <row r="325" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA325" t="s">
+        <v>877</v>
+      </c>
+      <c r="AB325" t="s">
+        <v>878</v>
+      </c>
+      <c r="AC325" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD325" s="3"/>
+    </row>
+    <row r="326" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA326" t="s">
+        <v>877</v>
+      </c>
+      <c r="AB326" t="s">
+        <v>880</v>
+      </c>
+      <c r="AC326" t="s">
+        <v>881</v>
+      </c>
+      <c r="AD326" s="3"/>
+    </row>
+    <row r="327" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA327" t="s">
+        <v>877</v>
+      </c>
+      <c r="AB327" t="s">
+        <v>882</v>
+      </c>
+      <c r="AC327" t="s">
+        <v>883</v>
+      </c>
+      <c r="AD327" s="3"/>
+    </row>
+    <row r="328" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA328" t="s">
+        <v>877</v>
+      </c>
+      <c r="AB328" t="s">
+        <v>884</v>
+      </c>
+      <c r="AC328" t="s">
+        <v>885</v>
+      </c>
+      <c r="AD328" s="3"/>
+    </row>
+    <row r="329" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA329" t="s">
+        <v>877</v>
+      </c>
+      <c r="AB329" t="s">
+        <v>886</v>
+      </c>
+      <c r="AC329" t="s">
+        <v>887</v>
+      </c>
+      <c r="AD329" s="3"/>
+    </row>
+    <row r="330" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA330" t="s">
+        <v>877</v>
+      </c>
+      <c r="AB330" t="s">
+        <v>888</v>
+      </c>
+      <c r="AC330" t="s">
+        <v>889</v>
+      </c>
+      <c r="AD330" s="3"/>
+    </row>
+    <row r="331" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD331" s="3"/>
+    </row>
+    <row r="332" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD332" s="3"/>
+    </row>
+    <row r="333" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA333" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB333" t="s">
+        <v>891</v>
+      </c>
+      <c r="AC333" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD333" s="3"/>
+    </row>
+    <row r="334" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA334" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB334" t="s">
+        <v>892</v>
+      </c>
+      <c r="AC334" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD334" s="3"/>
+    </row>
+    <row r="335" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA335" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB335" t="s">
+        <v>893</v>
+      </c>
+      <c r="AC335" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD335" s="3"/>
+    </row>
+    <row r="336" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA336" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB336" t="s">
+        <v>894</v>
+      </c>
+      <c r="AC336" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD336" s="3"/>
+    </row>
+    <row r="337" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA337" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB337" t="s">
+        <v>895</v>
+      </c>
+      <c r="AC337" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD337" s="3"/>
+    </row>
+    <row r="338" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA338" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB338" t="s">
+        <v>896</v>
+      </c>
+      <c r="AC338" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD338" s="3"/>
+    </row>
+    <row r="339" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA339" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB339" t="s">
+        <v>897</v>
+      </c>
+      <c r="AC339" t="s">
+        <v>898</v>
+      </c>
+      <c r="AD339" s="3"/>
+    </row>
+    <row r="340" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA340" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB340" t="s">
+        <v>899</v>
+      </c>
+      <c r="AC340" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD340" s="3"/>
+    </row>
+    <row r="341" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA341" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB341" t="s">
+        <v>900</v>
+      </c>
+      <c r="AC341" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD341" s="3"/>
+    </row>
+    <row r="342" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA342" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB342" t="s">
+        <v>901</v>
+      </c>
+      <c r="AC342" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD342" s="3"/>
+    </row>
+    <row r="343" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA343" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB343" t="s">
+        <v>903</v>
+      </c>
+      <c r="AC343" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD343" s="3"/>
+    </row>
+    <row r="344" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA344" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>905</v>
+      </c>
+      <c r="AC344" t="s">
+        <v>906</v>
+      </c>
+      <c r="AD344" s="3"/>
+    </row>
+    <row r="345" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA345" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB345" t="s">
+        <v>907</v>
+      </c>
+      <c r="AC345" t="s">
+        <v>908</v>
+      </c>
+      <c r="AD345" s="3"/>
+    </row>
+    <row r="346" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA346" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB346" t="s">
+        <v>909</v>
+      </c>
+      <c r="AC346" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD346" s="3"/>
+    </row>
+    <row r="347" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA347" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>910</v>
+      </c>
+      <c r="AC347" t="s">
+        <v>911</v>
+      </c>
+      <c r="AD347" s="3"/>
+    </row>
+    <row r="348" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA348" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB348" t="s">
+        <v>912</v>
+      </c>
+      <c r="AC348" t="s">
+        <v>913</v>
+      </c>
+      <c r="AD348" s="3"/>
+    </row>
+    <row r="349" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA349" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB349" t="s">
+        <v>914</v>
+      </c>
+      <c r="AC349" t="s">
+        <v>915</v>
+      </c>
+      <c r="AD349" s="3"/>
+    </row>
+    <row r="350" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA350" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB350" t="s">
+        <v>916</v>
+      </c>
+      <c r="AC350" t="s">
+        <v>917</v>
+      </c>
+      <c r="AD350" s="3"/>
+    </row>
+    <row r="351" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA351" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB351" t="s">
+        <v>918</v>
+      </c>
+      <c r="AC351" t="s">
+        <v>919</v>
+      </c>
+      <c r="AD351" s="3"/>
+    </row>
+    <row r="352" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA352" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB352" t="s">
+        <v>920</v>
+      </c>
+      <c r="AC352" t="s">
+        <v>921</v>
+      </c>
+      <c r="AD352" s="3"/>
+    </row>
+    <row r="353" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA353" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB353" t="s">
+        <v>922</v>
+      </c>
+      <c r="AC353" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD353" s="3"/>
+    </row>
+    <row r="354" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA354" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB354" t="s">
+        <v>923</v>
+      </c>
+      <c r="AC354" t="s">
+        <v>512</v>
+      </c>
+      <c r="AD354" s="3"/>
+    </row>
+    <row r="355" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA355" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB355" t="s">
+        <v>924</v>
+      </c>
+      <c r="AC355" t="s">
+        <v>925</v>
+      </c>
+      <c r="AD355" s="3"/>
+    </row>
+    <row r="356" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA356" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB356" t="s">
+        <v>926</v>
+      </c>
+      <c r="AC356" t="s">
+        <v>512</v>
+      </c>
+      <c r="AD356" s="3"/>
+    </row>
+    <row r="357" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA357" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB357" t="s">
+        <v>927</v>
+      </c>
+      <c r="AC357" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD357" s="3"/>
+    </row>
+    <row r="358" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA358" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB358" t="s">
+        <v>928</v>
+      </c>
+      <c r="AC358" t="s">
+        <v>547</v>
+      </c>
+      <c r="AD358" s="3"/>
+    </row>
+    <row r="359" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA359" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB359" t="s">
+        <v>929</v>
+      </c>
+      <c r="AC359" t="s">
+        <v>930</v>
+      </c>
+      <c r="AD359" s="3"/>
+    </row>
+    <row r="360" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA360" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB360" t="s">
+        <v>931</v>
+      </c>
+      <c r="AC360" t="s">
+        <v>932</v>
+      </c>
+      <c r="AD360" s="3"/>
+    </row>
+    <row r="361" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA361" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB361" t="s">
+        <v>933</v>
+      </c>
+      <c r="AC361" t="s">
+        <v>547</v>
+      </c>
+      <c r="AD361" s="3"/>
+    </row>
+    <row r="362" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA362" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB362" t="s">
+        <v>934</v>
+      </c>
+      <c r="AC362" t="s">
+        <v>932</v>
+      </c>
+      <c r="AD362" s="3"/>
+    </row>
+    <row r="363" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA363" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB363" t="s">
+        <v>935</v>
+      </c>
+      <c r="AC363" t="s">
+        <v>936</v>
+      </c>
+      <c r="AD363" s="3"/>
+    </row>
+    <row r="364" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA364" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB364" t="s">
+        <v>937</v>
+      </c>
+      <c r="AC364" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD364" s="3"/>
+    </row>
+    <row r="365" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA365" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB365" t="s">
+        <v>938</v>
+      </c>
+      <c r="AC365" t="s">
+        <v>939</v>
+      </c>
+      <c r="AD365" s="3"/>
+    </row>
+    <row r="366" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA366" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB366" t="s">
+        <v>940</v>
+      </c>
+      <c r="AC366" t="s">
+        <v>941</v>
+      </c>
+      <c r="AD366" s="3"/>
+    </row>
+    <row r="367" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA367" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB367" t="s">
+        <v>942</v>
+      </c>
+      <c r="AC367" t="s">
+        <v>943</v>
+      </c>
+      <c r="AD367" s="3"/>
+    </row>
+    <row r="368" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA368" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB368" t="s">
+        <v>944</v>
+      </c>
+      <c r="AC368" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD368" s="3"/>
+    </row>
+    <row r="369" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA369" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB369" t="s">
+        <v>945</v>
+      </c>
+      <c r="AC369" t="s">
+        <v>946</v>
+      </c>
+      <c r="AD369" s="3"/>
+    </row>
+    <row r="370" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA370" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB370" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC370" t="s">
+        <v>947</v>
+      </c>
+      <c r="AD370" s="3"/>
+    </row>
+    <row r="371" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA371" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB371" t="s">
+        <v>948</v>
+      </c>
+      <c r="AC371" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD371" s="3"/>
+    </row>
+    <row r="372" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA372" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB372" t="s">
+        <v>949</v>
+      </c>
+      <c r="AC372" t="s">
+        <v>950</v>
+      </c>
+      <c r="AD372" s="3"/>
+    </row>
+    <row r="373" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA373" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB373" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC373" t="s">
+        <v>951</v>
+      </c>
+      <c r="AD373" s="3"/>
+    </row>
+    <row r="374" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA374" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB374" t="s">
+        <v>952</v>
+      </c>
+      <c r="AC374" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD374" s="3"/>
+    </row>
+    <row r="375" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA375" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB375" t="s">
+        <v>953</v>
+      </c>
+      <c r="AC375" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD375" s="3"/>
+    </row>
+    <row r="376" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA376" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB376" t="s">
+        <v>954</v>
+      </c>
+      <c r="AC376" t="s">
+        <v>955</v>
+      </c>
+      <c r="AD376" s="3"/>
+    </row>
+    <row r="377" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA377" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB377" t="s">
+        <v>956</v>
+      </c>
+      <c r="AC377" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD377" s="3"/>
+    </row>
+    <row r="378" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA378" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB378" t="s">
+        <v>957</v>
+      </c>
+      <c r="AC378" t="s">
+        <v>958</v>
+      </c>
+      <c r="AD378" s="3"/>
+    </row>
+    <row r="379" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA379" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB379" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC379" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD379" s="3"/>
+    </row>
+    <row r="380" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA380" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>959</v>
+      </c>
+      <c r="AC380" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD380" s="3"/>
+    </row>
+    <row r="381" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA381" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB381" t="s">
+        <v>960</v>
+      </c>
+      <c r="AC381" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD381" s="3"/>
+    </row>
+    <row r="382" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA382" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB382" t="s">
+        <v>961</v>
+      </c>
+      <c r="AC382" t="s">
+        <v>962</v>
+      </c>
+      <c r="AD382" s="3"/>
+    </row>
+    <row r="383" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA383" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB383" t="s">
+        <v>963</v>
+      </c>
+      <c r="AC383" t="s">
+        <v>704</v>
+      </c>
+      <c r="AD383" s="3"/>
+    </row>
+    <row r="384" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA384" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB384" t="s">
+        <v>964</v>
+      </c>
+      <c r="AC384" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD384" s="3"/>
+    </row>
+    <row r="385" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA385" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB385" t="s">
+        <v>965</v>
+      </c>
+      <c r="AC385" t="s">
+        <v>794</v>
+      </c>
+      <c r="AD385" s="3"/>
+    </row>
+    <row r="386" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA386" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB386" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC386" t="s">
+        <v>967</v>
+      </c>
+      <c r="AD386" s="3"/>
+    </row>
+    <row r="387" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD387" s="3"/>
+    </row>
+    <row r="388" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD388" s="3"/>
+    </row>
+    <row r="389" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA389" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB389" t="s">
+        <v>969</v>
+      </c>
+      <c r="AC389" t="s">
+        <v>970</v>
+      </c>
+      <c r="AD389" s="3"/>
+    </row>
+    <row r="390" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA390" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB390" t="s">
+        <v>971</v>
+      </c>
+      <c r="AC390" t="s">
+        <v>972</v>
+      </c>
+      <c r="AD390" s="3"/>
+    </row>
+    <row r="391" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA391" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB391" t="s">
+        <v>973</v>
+      </c>
+      <c r="AC391" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD391" s="3"/>
+    </row>
+    <row r="392" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA392" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB392" t="s">
+        <v>974</v>
+      </c>
+      <c r="AC392" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD392" s="3"/>
+    </row>
+    <row r="393" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA393" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB393" t="s">
+        <v>975</v>
+      </c>
+      <c r="AC393" t="s">
+        <v>976</v>
+      </c>
+      <c r="AD393" s="3"/>
+    </row>
+    <row r="394" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA394" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB394" t="s">
+        <v>977</v>
+      </c>
+      <c r="AC394" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD394" s="3"/>
+    </row>
+    <row r="395" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA395" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB395" t="s">
+        <v>978</v>
+      </c>
+      <c r="AC395" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD395" s="3"/>
+    </row>
+    <row r="396" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA396" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB396" t="s">
+        <v>979</v>
+      </c>
+      <c r="AC396" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD396" s="3"/>
+    </row>
+    <row r="397" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA397" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB397" t="s">
+        <v>980</v>
+      </c>
+      <c r="AC397" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD397" s="3"/>
+    </row>
+    <row r="398" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA398" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB398" t="s">
+        <v>981</v>
+      </c>
+      <c r="AC398" t="s">
+        <v>982</v>
+      </c>
+      <c r="AD398" s="3"/>
+    </row>
+    <row r="399" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD399" s="3"/>
+    </row>
+    <row r="400" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD400" s="3"/>
+    </row>
+    <row r="401" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA401" t="s">
+        <v>983</v>
+      </c>
+      <c r="AB401" t="s">
+        <v>984</v>
+      </c>
+      <c r="AD401" s="3"/>
+    </row>
+    <row r="402" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA402" t="s">
+        <v>983</v>
+      </c>
+      <c r="AB402" t="s">
+        <v>985</v>
+      </c>
+      <c r="AC402" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD402" s="3"/>
+    </row>
+    <row r="403" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA403" t="s">
+        <v>983</v>
+      </c>
+      <c r="AB403" t="s">
+        <v>986</v>
+      </c>
+      <c r="AC403" t="s">
+        <v>987</v>
+      </c>
+      <c r="AD403" s="3"/>
+    </row>
+    <row r="404" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA404" t="s">
+        <v>983</v>
+      </c>
+      <c r="AB404" t="s">
+        <v>988</v>
+      </c>
+      <c r="AC404" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD404" s="3"/>
+    </row>
+    <row r="405" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA405" t="s">
+        <v>983</v>
+      </c>
+      <c r="AB405" t="s">
+        <v>990</v>
+      </c>
+      <c r="AC405" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD405" s="3"/>
+    </row>
+    <row r="406" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA406" t="s">
+        <v>983</v>
+      </c>
+      <c r="AB406" t="s">
+        <v>991</v>
+      </c>
+      <c r="AC406" t="s">
+        <v>992</v>
+      </c>
+      <c r="AD406" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AB2" r:id="rId1" display="https://www.geeksforgeeks.org/maximum-and-minimum-in-an-array/" xr:uid="{A9986049-BE06-474E-A09B-8CAA8FF2BF0A}"/>
+    <hyperlink ref="AB3" r:id="rId2" display="https://www.geeksforgeeks.org/write-a-program-to-reverse-an-array-or-string/" xr:uid="{02BDFB74-ACBA-42B8-A683-D1D9BCE36137}"/>
+    <hyperlink ref="AB4" r:id="rId3" display="https://leetcode.com/problems/maximum-subarray/" xr:uid="{618B2ED5-C1B4-42F4-AB66-8E2170A04AA0}"/>
+    <hyperlink ref="AB5" r:id="rId4" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{3FD6ECD7-558B-4091-8B26-2D1220858FB0}"/>
+    <hyperlink ref="AB6" r:id="rId5" display="https://www.geeksforgeeks.org/chocolate-distribution-problem/" xr:uid="{BA4EA604-37C5-4C85-B733-7CC76612FEA9}"/>
+    <hyperlink ref="AB7" r:id="rId6" display="https://leetcode.com/problems/search-in-rotated-sorted-array/" xr:uid="{3DB706FC-BD90-406C-8C1D-12C95E330BA0}"/>
+    <hyperlink ref="AB8" r:id="rId7" display="https://leetcode.com/problems/next-permutation/" xr:uid="{5D06B13F-561A-47BA-BCF6-9200C58ECC71}"/>
+    <hyperlink ref="AB9" r:id="rId8" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{A1D9E9C1-5A6E-4999-86E3-105BCF47DA53}"/>
+    <hyperlink ref="AB10" r:id="rId9" display="https://www.interviewbit.com/problems/repeat-and-missing-number-array/" xr:uid="{8234BED0-59CB-4F88-815B-7CE5B5B86AC8}"/>
+    <hyperlink ref="AB11" r:id="rId10" display="https://leetcode.com/problems/kth-largest-element-in-an-array/" xr:uid="{7CD902F1-3F7F-4786-97A6-46C106460419}"/>
+    <hyperlink ref="AB12" r:id="rId11" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{A8FA2C0E-C059-4CCF-937B-B9518267EA1C}"/>
+    <hyperlink ref="AB13" r:id="rId12" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{E6402745-E0D1-41D6-8DE3-5631E08897EB}"/>
+    <hyperlink ref="AB14" r:id="rId13" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{6EF44CF0-97B1-4DCF-A4A6-2CE9793C5D9B}"/>
+    <hyperlink ref="AB15" r:id="rId14" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{1230F68C-E346-4027-BB39-0DA99086B2D9}"/>
+    <hyperlink ref="AB17" r:id="rId15" display="https://leetcode.com/problems/3sum/" xr:uid="{31E61800-CC25-4F52-8A88-F70E20C9E0C4}"/>
+    <hyperlink ref="AB18" r:id="rId16" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{4DB6226E-1C79-46BA-9AB1-38BF76BCA761}"/>
+    <hyperlink ref="AB19" r:id="rId17" display="https://www.geeksforgeeks.org/given-a-sorted-and-rotated-array-find-if-there-is-a-pair-with-a-given-sum/" xr:uid="{54220B45-A56E-4C30-A580-2C3A63E05351}"/>
+    <hyperlink ref="AB20" r:id="rId18" display="https://practice.geeksforgeeks.org/problems/kth-smallest-element5635/1" xr:uid="{CC2B9E60-2E88-429A-9ECB-1FBAB61FB285}"/>
+    <hyperlink ref="AB21" r:id="rId19" display="https://www.geeksforgeeks.org/merging-intervals/" xr:uid="{CBEBC8AB-85AB-421E-BF6F-7A7A35663ABE}"/>
+    <hyperlink ref="AB22" r:id="rId20" display="https://www.geeksforgeeks.org/find-minimum-number-of-merge-operations-to-make-an-array-palindrome/" xr:uid="{8BCE619A-3857-46B9-A1DB-91BE43332CC8}"/>
+    <hyperlink ref="AB23" r:id="rId21" display="https://www.geeksforgeeks.org/given-an-array-of-numbers-arrange-the-numbers-to-form-the-biggest-number/" xr:uid="{30273589-6E94-4507-B072-BBD869979329}"/>
+    <hyperlink ref="AB24" r:id="rId22" display="https://www.geeksforgeeks.org/space-optimization-using-bit-manipulations/" xr:uid="{4F22C3A5-9387-4C24-A63B-D861FD1FD125}"/>
+    <hyperlink ref="AB25" r:id="rId23" display="https://www.geeksforgeeks.org/longest-subarray-sum-divisible-k/" xr:uid="{4DE002D2-D038-44F9-BBBE-1EFB72B75A72}"/>
+    <hyperlink ref="AB26" r:id="rId24" display="https://www.geeksforgeeks.org/print-all-possible-combinations-of-r-elements-in-a-given-array-of-size-n/" xr:uid="{E989EE63-86DC-480D-A1CD-12B45C192546}"/>
+    <hyperlink ref="AB27" r:id="rId25" display="https://www.geeksforgeeks.org/mos-algorithm-query-square-root-decomposition-set-1-introduction/" xr:uid="{C01AA580-9250-4434-9458-59D5A8DA5DE9}"/>
+    <hyperlink ref="AB30" r:id="rId26" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{1DA1037C-FB8A-4B0E-8733-CBFF0038781A}"/>
+    <hyperlink ref="AB31" r:id="rId27" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{DA941C50-416E-42CB-A0F8-7F21F0F96CA2}"/>
+    <hyperlink ref="AB32" r:id="rId28" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{04C22EE0-B53A-43BB-94C2-CD39B0FC2FE3}"/>
+    <hyperlink ref="AB33" r:id="rId29" display="https://practice.geeksforgeeks.org/problems/consecutive-elements2306/1" xr:uid="{C59B9E81-D615-4E1A-B8D1-8FBA6A8FC017}"/>
+    <hyperlink ref="AB34" r:id="rId30" display="https://leetcode.com/problems/longest-common-prefix/" xr:uid="{219279D1-13D7-4CB5-8685-CC33084540C3}"/>
+    <hyperlink ref="AB35" r:id="rId31" display="https://www.geeksforgeeks.org/convert-sentence-equivalent-mobile-numeric-keypad-sequence/" xr:uid="{86918DF3-3828-45E7-9E87-44E32F11AF0D}"/>
+    <hyperlink ref="AB36" r:id="rId32" display="https://www.geeksforgeeks.org/print-all-the-duplicates-in-the-input-string/" xr:uid="{7EA189E1-1F02-47E3-9931-62469CAF4B88}"/>
+    <hyperlink ref="AB37" r:id="rId33" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{CD40CBE1-C91A-4B8A-9F9D-57B0731FE010}"/>
+    <hyperlink ref="AB38" r:id="rId34" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{55C02B9A-5BD4-4B25-AF27-4915B7E30897}"/>
+    <hyperlink ref="AB39" r:id="rId35" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{8049D368-E8F0-4E2F-85BA-13FA7D02AE3B}"/>
+    <hyperlink ref="AB40" r:id="rId36" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{631AA3E6-89BF-48B6-B9BF-CCD2D5BE9B52}"/>
+    <hyperlink ref="AB41" r:id="rId37" display="https://leetcode.com/problems/palindromic-substrings/" xr:uid="{A6BBA2AD-4BDB-4A4F-8D80-0715A018EE84}"/>
+    <hyperlink ref="AB42" r:id="rId38" display="https://practice.geeksforgeeks.org/problems/next-permutation5226/1" xr:uid="{FD4F14FB-31E4-4977-B7D1-FDC758BC5819}"/>
+    <hyperlink ref="AB43" r:id="rId39" display="https://practice.geeksforgeeks.org/problems/count-palindromic-subsequences/1" xr:uid="{80E92682-397F-4114-9D24-FFF3A8484913}"/>
+    <hyperlink ref="AB44" r:id="rId40" display="https://practice.geeksforgeeks.org/problems/smallest-window-in-a-string-containing-all-the-characters-of-another-string-1587115621/1" xr:uid="{BA116F16-1489-4A46-A24D-71AE3166E20D}"/>
+    <hyperlink ref="AB45" r:id="rId41" display="https://practice.geeksforgeeks.org/problems/wildcard-string-matching1126/1" xr:uid="{B9A6920B-1D2E-46B9-8815-E8B82C30710B}"/>
+    <hyperlink ref="AB46" r:id="rId42" display="https://practice.geeksforgeeks.org/problems/longest-prefix-suffix2527/1" xr:uid="{87321705-164F-48E3-A5CE-BB6D53F8F41F}"/>
+    <hyperlink ref="AB47" r:id="rId43" display="https://www.geeksforgeeks.org/rabin-karp-algorithm-for-pattern-searching/" xr:uid="{B8CAD693-A106-47E3-BCB3-7A942C55C9D5}"/>
+    <hyperlink ref="AB48" r:id="rId44" display="https://www.geeksforgeeks.org/transform-one-string-to-another-using-minimum-number-of-given-operation/" xr:uid="{32A36A1D-1719-4266-AE03-BE912B06049B}"/>
+    <hyperlink ref="AB49" r:id="rId45" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{84B28EC5-1A78-4227-9C88-F839DC774FBC}"/>
+    <hyperlink ref="AB50" r:id="rId46" display="https://www.geeksforgeeks.org/boyer-moore-algorithm-for-pattern-searching/" xr:uid="{5B849992-A057-4267-AF83-67DF154CD19E}"/>
+    <hyperlink ref="AB51" r:id="rId47" display="https://practice.geeksforgeeks.org/problems/word-wrap1646/1" xr:uid="{DF260BA8-0739-40CD-85A2-766F6197C6F0}"/>
+    <hyperlink ref="AB54" r:id="rId48" display="https://www.geeksforgeeks.org/zigzag-or-diagonal-traversal-of-matrix/" xr:uid="{0B0744B9-EAEF-4543-B806-8525E3563146}"/>
+    <hyperlink ref="AB55" r:id="rId49" display="https://leetcode.com/problems/set-matrix-zeroes/" xr:uid="{0C5BE4D4-90B0-4B27-B182-15726A815596}"/>
+    <hyperlink ref="AB56" r:id="rId50" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{0A3A3B44-451B-4B69-AA97-9165A6F73A75}"/>
+    <hyperlink ref="AB57" r:id="rId51" display="https://leetcode.com/problems/rotate-image/" xr:uid="{57AD4F0C-88B0-4A16-9AA2-A98CCF2A1771}"/>
+    <hyperlink ref="AB58" r:id="rId52" display="https://leetcode.com/problems/word-search/" xr:uid="{DD7B3386-0622-433F-8264-55B62D708E5A}"/>
+    <hyperlink ref="AB59" r:id="rId53" display="https://www.geeksforgeeks.org/find-number-of-islands/" xr:uid="{8FEFC257-8E6D-4EBA-BCA7-4C073FB0560C}"/>
+    <hyperlink ref="AB60" r:id="rId54" display="https://www.geeksforgeeks.org/given-matrix-o-x-replace-o-x-surrounded-x/" xr:uid="{5C542FD2-E185-4704-A0A6-D51B2E9CF74D}"/>
+    <hyperlink ref="AB61" r:id="rId55" display="https://www.geeksforgeeks.org/find-common-element-rows-row-wise-sorted-matrix/" xr:uid="{A2755C71-19AE-4945-9AFF-BCAD39E07A93}"/>
+    <hyperlink ref="AB62" r:id="rId56" display="https://www.geeksforgeeks.org/create-a-matrix-with-alternating-rectangles-of-0-and-x/" xr:uid="{01439E31-90D6-4A6C-B0E6-F3D19FA92DE5}"/>
+    <hyperlink ref="AB63" r:id="rId57" display="https://www.geeksforgeeks.org/maximum-size-rectangle-binary-sub-matrix-1s/" xr:uid="{4DB0162C-5156-42AF-86DB-E9AF799D4809}"/>
+    <hyperlink ref="AB66" r:id="rId58" display="https://www.geeksforgeeks.org/permute-two-arrays-sum-every-pair-greater-equal-k/" xr:uid="{8D7F523D-3283-4461-8275-D255A31CCFB1}"/>
+    <hyperlink ref="AB67" r:id="rId59" display="https://www.geeksforgeeks.org/counting-sort/" xr:uid="{6ABD826B-B6D6-421E-8B3D-5C67357AD4D6}"/>
+    <hyperlink ref="AB68" r:id="rId60" display="https://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/" xr:uid="{28DB887A-ED28-4758-8541-89BDF77B68F4}"/>
+    <hyperlink ref="AB69" r:id="rId61" display="https://www.geeksforgeeks.org/searching-array-adjacent-differ-k/" xr:uid="{D5DDD134-917F-4000-8A92-5548595F0483}"/>
+    <hyperlink ref="AB70" r:id="rId62" display="https://www.geeksforgeeks.org/ceiling-in-a-sorted-array/" xr:uid="{B9999ACB-088A-474C-8F1C-52EBFBEB165F}"/>
+    <hyperlink ref="AB71" r:id="rId63" display="https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/" xr:uid="{5F422242-94E5-4607-BD35-6399FCFA39D9}"/>
+    <hyperlink ref="AB72" r:id="rId64" display="https://www.geeksforgeeks.org/majority-element/" xr:uid="{B6B42A53-CC28-4A07-B68C-808BB1AE6DD4}"/>
+    <hyperlink ref="AB73" r:id="rId65" display="https://www.geeksforgeeks.org/count-triplets-with-sum-smaller-that-a-given-value/" xr:uid="{4F7E4FC9-A5BB-49DC-9E91-3AE21DC1A94C}"/>
+    <hyperlink ref="AB74" r:id="rId66" display="https://www.geeksforgeeks.org/maximum-sum-such-that-no-two-elements-are-adjacent/" xr:uid="{2F75556E-BC32-477C-ADD0-F65E47BF4090}"/>
+    <hyperlink ref="AB75" r:id="rId67" display="https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/" xr:uid="{F1D32EAC-297B-48A7-8CFC-8E9321E6D503}"/>
+    <hyperlink ref="AB76" r:id="rId68" display="https://practice.geeksforgeeks.org/problems/inversion-of-array-1587115620/1" xr:uid="{CEE9EEB0-E715-4E54-B9B9-78AD049AE450}"/>
+    <hyperlink ref="AB77" r:id="rId69" display="https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/" xr:uid="{CC4EB904-BEC5-44D3-9777-BA2AFD2C6FF8}"/>
+    <hyperlink ref="AB78" r:id="rId70" display="https://www.geeksforgeeks.org/radix-sort/" xr:uid="{0C6E0055-9FF5-4ABF-9DD7-73AA42845F35}"/>
+    <hyperlink ref="AB79" r:id="rId71" display="https://www.geeksforgeeks.org/a-product-array-puzzle/" xr:uid="{00CEEB47-0E57-4B41-9497-34B6501DB51F}"/>
+    <hyperlink ref="AB80" r:id="rId72" display="https://www.geeksforgeeks.org/make-array-elements-equal-minimum-cost/" xr:uid="{387B38A4-26D8-42A9-9AD6-6012682AAC94}"/>
+    <hyperlink ref="AB81" r:id="rId73" display="https://www.geeksforgeeks.org/check-reversing-sub-array-make-array-sorted/" xr:uid="{62DD18AD-B862-4AC2-9DE8-D186647659CA}"/>
+    <hyperlink ref="AB82" r:id="rId74" display="https://www.geeksforgeeks.org/find-four-elements-that-sum-to-a-given-value-set-2/" xr:uid="{AF434E40-2B84-4000-9DA7-F4DB8781E4F7}"/>
+    <hyperlink ref="AB83" r:id="rId75" display="https://www.geeksforgeeks.org/median-of-two-sorted-arrays-of-different-sizes/" xr:uid="{20ACA6E6-C444-463E-9AC3-FB8171AB1742}"/>
+    <hyperlink ref="AB84" r:id="rId76" display="https://www.geeksforgeeks.org/median-of-stream-of-integers-running-integers/" xr:uid="{D5816AB8-988A-443F-9D80-77FB82529D83}"/>
+    <hyperlink ref="AB85" r:id="rId77" display="https://www.geeksforgeeks.org/print-all-subarrays-with-0-sum/" xr:uid="{CF377227-DF0A-4D3F-8953-EBD04CEFE811}"/>
+    <hyperlink ref="AB86" r:id="rId78" display="https://www.spoj.com/problems/AGGRCOW/" xr:uid="{4B0AEDE4-DB50-4316-8C29-09B42147BE95}"/>
+    <hyperlink ref="AB87" r:id="rId79" display="https://practice.geeksforgeeks.org/problems/allocate-minimum-number-of-pages0937/1" xr:uid="{5EBEDC35-C81E-4525-A893-56F7A8AD3DCD}"/>
+    <hyperlink ref="AB88" r:id="rId80" display="https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/" xr:uid="{A03313E1-F2B6-46A0-A3EE-99929F8CB136}"/>
+    <hyperlink ref="AB91" r:id="rId81" display="https://www.geeksforgeeks.org/backttracking-set-2-rat-in-a-maze/" xr:uid="{6F4D5EEC-E99F-4A9B-8E84-4C80BB836FE0}"/>
+    <hyperlink ref="AB92" r:id="rId82" display="https://www.geeksforgeeks.org/combinational-sum/" xr:uid="{8F7353D0-7091-4A77-AEF9-F4A649078942}"/>
+    <hyperlink ref="AB93" r:id="rId83" display="https://www.hackerrank.com/challenges/crossword-puzzle/problem" xr:uid="{023D790C-7A84-4E70-BD05-8A81C6F9D509}"/>
+    <hyperlink ref="AB94" r:id="rId84" display="https://www.geeksforgeeks.org/longest-possible-route-in-a-matrix-with-hurdles/" xr:uid="{6D0EE279-C03D-42D0-8F71-D4E5747453EA}"/>
+    <hyperlink ref="AB95" r:id="rId85" display="https://www.geeksforgeeks.org/printing-solutions-n-queen-problem/" xr:uid="{A1216835-322B-4525-A211-3D7B22D525DF}"/>
+    <hyperlink ref="AB96" r:id="rId86" display="https://practice.geeksforgeeks.org/problems/solve-the-sudoku-1587115621/1" xr:uid="{7B43C8E9-9AC7-405C-AA4B-02DEEA3865F1}"/>
+    <hyperlink ref="AB97" r:id="rId87" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{789688AB-40C8-4535-889A-462232C4C6B1}"/>
+    <hyperlink ref="AB98" r:id="rId88" display="https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1" xr:uid="{80DAB60E-BCCA-4D33-954F-AB459946E96C}"/>
+    <hyperlink ref="AB99" r:id="rId89" display="https://www.geeksforgeeks.org/backtracking-set-1-the-knights-tour-problem/" xr:uid="{7032285C-F980-4DCA-A6C3-3202CD324EC4}"/>
+    <hyperlink ref="AB100" r:id="rId90" display="https://www.geeksforgeeks.org/backtracking-set-7-suduku/" xr:uid="{D207CA01-D3EC-481D-BFB3-B2B52E45F1B3}"/>
+    <hyperlink ref="AB101" r:id="rId91" display="https://www.geeksforgeeks.org/remove-invalid-parentheses/" xr:uid="{C6D0BEF0-0E41-48B8-BDD9-934AA49F71A0}"/>
+    <hyperlink ref="AB102" r:id="rId92" display="https://www.geeksforgeeks.org/word-break-problem-using-backtracking/" xr:uid="{6E4A96F9-9E10-4437-A6AF-A3112D3E5002}"/>
+    <hyperlink ref="AB103" r:id="rId93" display="https://www.geeksforgeeks.org/print-palindromic-partitions-string/" xr:uid="{A2F56BF1-9FEF-47DE-945C-CB35FE552B32}"/>
+    <hyperlink ref="AB104" r:id="rId94" display="https://www.geeksforgeeks.org/find-shortest-safe-route-in-a-path-with-landmines/" xr:uid="{D36750E5-3F98-4C58-98A9-BDE46FCBCF0E}"/>
+    <hyperlink ref="AB105" r:id="rId95" display="https://www.geeksforgeeks.org/partition-set-k-subsets-equal-sum/" xr:uid="{C9B05AF7-B759-4ED8-8F01-6B6C08D9D77C}"/>
+    <hyperlink ref="AB106" r:id="rId96" display="https://www.geeksforgeeks.org/backtracking-set-7-hamiltonian-cycle/" xr:uid="{F99FE477-E947-466B-9286-3F1902C546D7}"/>
+    <hyperlink ref="AB107" r:id="rId97" display="https://www.geeksforgeeks.org/tug-of-war/" xr:uid="{BBA1B74E-A168-4D17-8596-9BC134A39CFB}"/>
+    <hyperlink ref="AB108" r:id="rId98" display="https://www.geeksforgeeks.org/find-maximum-number-possible-by-doing-at-most-k-swaps/" xr:uid="{8A3915A5-1D5B-4E0F-BB2A-C2776F89238E}"/>
+    <hyperlink ref="AB109" r:id="rId99" display="https://www.geeksforgeeks.org/backtracking-set-8-solving-cryptarithmetic-puzzles/" xr:uid="{DFB53594-3A04-41B0-8A92-C8AD10C95BFE}"/>
+    <hyperlink ref="AB110" r:id="rId100" display="https://www.geeksforgeeks.org/find-paths-from-corner-cell-to-middle-cell-in-maze/" xr:uid="{7BED81B3-7A4D-416D-AEC0-844DEB855216}"/>
+    <hyperlink ref="AB111" r:id="rId101" display="https://www.hackerrank.com/challenges/arithmetic-expressions/problem" xr:uid="{63A13AF8-476B-4DB1-9AE0-B3DDCBB59F5D}"/>
+    <hyperlink ref="AB114" r:id="rId102" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{CBF083CF-C075-4E6C-9773-C8B86FA04544}"/>
+    <hyperlink ref="AB115" r:id="rId103" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{60F02D8F-AA1E-478B-8A28-2BFF43798B7E}"/>
+    <hyperlink ref="AB116" r:id="rId104" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{E7BBB9E4-C342-44B0-8098-E7DD7AEFFE12}"/>
+    <hyperlink ref="AB117" r:id="rId105" display="https://www.geeksforgeeks.org/given-only-a-pointer-to-a-node-to-be-deleted-in-a-singly-linked-list-how-do-you-delete-it/" xr:uid="{AA5912CB-38DB-4B03-8FD7-3C37D9B3281D}"/>
+    <hyperlink ref="AB118" r:id="rId106" display="https://www.geeksforgeeks.org/remove-duplicates-from-an-unsorted-linked-list/" xr:uid="{740ECFE3-78FA-4675-875E-85432DD0CDC9}"/>
+    <hyperlink ref="AB119" r:id="rId107" display="https://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s/" xr:uid="{AE3BCE82-6EC6-4362-8854-A40FA9254F03}"/>
+    <hyperlink ref="AB120" r:id="rId108" display="https://www.geeksforgeeks.org/multiply-two-numbers-represented-linked-lists/" xr:uid="{D3907368-2F90-4CE9-B289-0C479ED6136F}"/>
+    <hyperlink ref="AB121" r:id="rId109" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{E082762E-5D77-4651-8076-6E4B3E417DF6}"/>
+    <hyperlink ref="AB122" r:id="rId110" display="https://leetcode.com/problems/reorder-list/" xr:uid="{DD698580-708C-4CCD-B518-1B2620C238C3}"/>
+    <hyperlink ref="AB123" r:id="rId111" display="https://www.geeksforgeeks.org/detect-and-remove-loop-in-a-linked-list/" xr:uid="{437C5813-3ADC-4DFE-830D-77F561BDF828}"/>
+    <hyperlink ref="AB124" r:id="rId112" display="https://www.geeksforgeeks.org/write-a-function-to-get-the-intersection-point-of-two-linked-lists/" xr:uid="{4440BFF7-6DDF-4836-B1A6-98833102BC64}"/>
+    <hyperlink ref="AB125" r:id="rId113" display="https://www.geeksforgeeks.org/flatten-a-linked-list-with-next-and-child-pointers/" xr:uid="{D4E8F08E-E295-4E3A-9309-BDF57021C250}"/>
+    <hyperlink ref="AB126" r:id="rId114" display="https://www.geeksforgeeks.org/linked-list-in-zig-zag-fashion/" xr:uid="{4C3DA25B-2BDD-44BC-B5AA-317FA8160C9C}"/>
+    <hyperlink ref="AB127" r:id="rId115" display="https://practice.geeksforgeeks.org/problems/reverse-a-doubly-linked-list/1" xr:uid="{25F82864-56B0-45D7-96B6-A8B0B8DCA455}"/>
+    <hyperlink ref="AB128" r:id="rId116" display="https://www.geeksforgeeks.org/delete-nodes-which-have-a-greater-value-on-right-side/" xr:uid="{821100F6-2AFB-4DB2-9BBD-8622B5022DD2}"/>
+    <hyperlink ref="AB129" r:id="rId117" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/" xr:uid="{102F3FE5-7964-48F4-83E8-9F1FF7AEBF45}"/>
+    <hyperlink ref="AB130" r:id="rId118" display="https://www.geeksforgeeks.org/point-to-next-higher-value-node-in-a-linked-list-with-an-arbitrary-pointer/" xr:uid="{D1FAE535-7F75-4BB0-B28F-87A41249122E}"/>
+    <hyperlink ref="AB131" r:id="rId119" display="https://www.geeksforgeeks.org/rearrange-a-given-linked-list-in-place/" xr:uid="{356C4311-4912-4AB9-AE0C-E468B57FC229}"/>
+    <hyperlink ref="AB132" r:id="rId120" display="https://www.geeksforgeeks.org/sort-biotonic-doubly-linked-list/" xr:uid="{E3DE8D9B-C9DF-451A-A425-FA91D91F89D4}"/>
+    <hyperlink ref="AB133" r:id="rId121" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{13DE5C87-ED00-4860-9879-B0D7301849D1}"/>
+    <hyperlink ref="AB134" r:id="rId122" display="https://www.geeksforgeeks.org/merge-sort-for-linked-list/" xr:uid="{CC076039-ADCD-47A9-ADE8-CB21A9623ECE}"/>
+    <hyperlink ref="AB135" r:id="rId123" display="https://www.geeksforgeeks.org/quicksort-on-singly-linked-list/" xr:uid="{B2B2E269-5CAC-4925-8CD8-B2EA48D23754}"/>
+    <hyperlink ref="AB136" r:id="rId124" display="https://www.geeksforgeeks.org/sum-of-two-linked-lists/" xr:uid="{D97B2098-F122-4581-8C0E-9183244B2830}"/>
+    <hyperlink ref="AB137" r:id="rId125" display="https://www.geeksforgeeks.org/flattening-a-linked-list/" xr:uid="{75164E89-572B-4B87-9591-8AE264B0CA92}"/>
+    <hyperlink ref="AB138" r:id="rId126" display="https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/" xr:uid="{B0DF15DB-B717-423B-BE3B-4218351E2864}"/>
+    <hyperlink ref="AB139" r:id="rId127" display="https://www.geeksforgeeks.org/subtract-two-numbers-represented-as-linked-lists/" xr:uid="{E2EA5CB5-94B6-4AA7-B87F-D3469D641341}"/>
+    <hyperlink ref="AB142" r:id="rId128" display="https://www.geeksforgeeks.org/implement-two-stacks-in-an-array/" xr:uid="{8F87757B-84AF-4511-A032-025B0F3E4965}"/>
+    <hyperlink ref="AB143" r:id="rId129" display="https://www.geeksforgeeks.org/stack-set-4-evaluation-postfix-expression/" xr:uid="{C5235002-C212-4562-BC04-3788F4578787}"/>
+    <hyperlink ref="AB144" r:id="rId130" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{9FC896DC-0FC1-49E9-8716-651E8A1F7E4D}"/>
+    <hyperlink ref="AB145" r:id="rId131" display="https://practice.geeksforgeeks.org/problems/queue-reversal/1" xr:uid="{E60ED362-8637-4A41-A71C-4EC7C216C243}"/>
+    <hyperlink ref="AB146" r:id="rId132" display="https://www.geeksforgeeks.org/implement-stack-queue-using-deque/" xr:uid="{293CB1DE-0B96-4D96-B5B9-97007BB0F042}"/>
+    <hyperlink ref="AB147" r:id="rId133" display="https://practice.geeksforgeeks.org/problems/reverse-first-k-elements-of-queue/1" xr:uid="{83D80231-DC8B-40B3-A9BE-7A0022DBB97C}"/>
+    <hyperlink ref="AB148" r:id="rId134" display="https://www.geeksforgeeks.org/design-a-stack-with-find-middle-operation/" xr:uid="{46A5146D-522A-426D-8CE8-EC5D216CC96C}"/>
+    <hyperlink ref="AB149" r:id="rId135" display="https://www.geeksforgeeks.org/stack-set-2-infix-to-postfix/" xr:uid="{6BEDB844-F49A-49C1-86DC-EA380411EE63}"/>
+    <hyperlink ref="AB150" r:id="rId136" display="https://www.geeksforgeeks.org/design-and-implement-special-stack-data-structure/" xr:uid="{3115B6B3-C3D9-4C7A-BB71-37FC4295940F}"/>
+    <hyperlink ref="AB151" r:id="rId137" display="https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/" xr:uid="{50B65E35-EC58-414B-B811-228775351B9D}"/>
+    <hyperlink ref="AB152" r:id="rId138" display="https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/" xr:uid="{951A9B17-399F-4D33-8580-D9C6966C76B3}"/>
+    <hyperlink ref="AB153" r:id="rId139" display="https://www.geeksforgeeks.org/stack-permutations-check-if-an-array-is-stack-permutation-of-other/" xr:uid="{BC0AA032-1069-46A6-A146-F5C1CBF1DCC8}"/>
+    <hyperlink ref="AB154" r:id="rId140" display="https://www.geeksforgeeks.org/count-natural-numbers-whose-permutation-greater-number/" xr:uid="{A21EA937-04EE-49B9-9535-EB694B4E0BF1}"/>
+    <hyperlink ref="AB155" r:id="rId141" display="https://www.geeksforgeeks.org/sort-a-stack-using-recursion/" xr:uid="{F378F2CB-C90C-4B67-B3EC-5BA8D4C7709F}"/>
+    <hyperlink ref="AB156" r:id="rId142" display="https://www.geeksforgeeks.org/queue-based-approach-for-first-non-repeating-character-in-a-stream/" xr:uid="{8EA331FF-4E8E-4492-9C38-004FE0C4AB71}"/>
+    <hyperlink ref="AB157" r:id="rId143" display="https://practice.geeksforgeeks.org/problems/the-celebrity-problem/1" xr:uid="{9E84332B-3EBC-42CE-B20A-5864D915261A}"/>
+    <hyperlink ref="AB158" r:id="rId144" display="https://practice.geeksforgeeks.org/problems/next-larger-element-1587115620/1" xr:uid="{27614CB7-5F1F-4460-966A-319244773F5E}"/>
+    <hyperlink ref="AB159" r:id="rId145" display="https://practice.geeksforgeeks.org/problems/distance-of-nearest-cell-having-1-1587115620/1" xr:uid="{24643580-FD3A-4E68-A501-30A4D3836776}"/>
+    <hyperlink ref="AB160" r:id="rId146" display="https://practice.geeksforgeeks.org/problems/rotten-oranges2536/1" xr:uid="{78BF6713-7FDB-4021-9E84-7304B85013AB}"/>
+    <hyperlink ref="AB161" r:id="rId147" display="https://www.geeksforgeeks.org/next-smaller-element/" xr:uid="{7C629F40-991B-4072-ADA1-392EA3E2E59A}"/>
+    <hyperlink ref="AB162" r:id="rId148" display="https://practice.geeksforgeeks.org/problems/circular-tour/1" xr:uid="{848472D2-B5F2-444E-9EA5-819E35980DCA}"/>
+    <hyperlink ref="AB163" r:id="rId149" display="https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/" xr:uid="{253CB01C-D59C-4AA9-A54A-1F82B094B349}"/>
+    <hyperlink ref="AB164" r:id="rId150" display="http://geeksforgeeks.org/the-celebrity-problem/" xr:uid="{A18D71B4-C5B9-42ED-81AB-283AD61D7A87}"/>
+    <hyperlink ref="AB165" r:id="rId151" display="https://www.geeksforgeeks.org/iterative-tower-of-hanoi/" xr:uid="{E227E735-D1C0-4D4D-BE9A-BBD71DCF504A}"/>
+    <hyperlink ref="AB166" r:id="rId152" display="https://www.geeksforgeeks.org/find-the-maximum-of-minimums-for-every-window-size-in-a-given-array/" xr:uid="{0468447B-4A87-4933-923E-1382A83AE0E9}"/>
+    <hyperlink ref="AB167" r:id="rId153" display="https://www.geeksforgeeks.org/lru-cache-implementation/" xr:uid="{829A302E-B41B-4E28-932B-A570BEC34113}"/>
+    <hyperlink ref="AB168" r:id="rId154" display="https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/" xr:uid="{6918DB30-047B-41EC-9DD7-CB40053134E6}"/>
+    <hyperlink ref="AB171" r:id="rId155" display="https://www.geeksforgeeks.org/activity-selection-problem-greedy-algo-1/" xr:uid="{49090325-D743-44F2-AC5D-0001460BEB02}"/>
+    <hyperlink ref="AB172" r:id="rId156" display="https://www.geeksforgeeks.org/greedy-algorithm-to-find-minimum-number-of-coins/" xr:uid="{D36C07FF-6F3B-4830-A8E0-4724D86D43AC}"/>
+    <hyperlink ref="AB173" r:id="rId157" display="https://www.geeksforgeeks.org/minimum-sum-two-numbers-formed-digits-array-2/" xr:uid="{E3B3A48E-E15C-4C58-876F-B6EB6773FF87}"/>
+    <hyperlink ref="AB174" r:id="rId158" display="https://www.geeksforgeeks.org/minimum-sum-absolute-difference-pairs-two-arrays/" xr:uid="{F6EAD37A-D8B9-405D-900C-51CE4BC800AF}"/>
+    <hyperlink ref="AB175" r:id="rId159" display="https://www.geeksforgeeks.org/find-maximum-height-pyramid-from-the-given-array-of-objects/" xr:uid="{76233B0A-F9FD-4800-841E-B7F3CA603A1F}"/>
+    <hyperlink ref="AB176" r:id="rId160" display="https://www.geeksforgeeks.org/minimum-cost-for-acquiring-all-coins-with-k-extra-coins-allowed-with-every-coin/" xr:uid="{BE05DFE8-D9D2-4C6C-AA26-6434E8FF4BBF}"/>
+    <hyperlink ref="AB177" r:id="rId161" display="http://geeksforgeeks.org/find-maximum-sum-possible-equal-sum-three-stacks/" xr:uid="{CB9495E8-331B-4C43-9F4F-FD79F6515FDD}"/>
+    <hyperlink ref="AB178" r:id="rId162" display="https://www.geeksforgeeks.org/job-sequencing-problem/" xr:uid="{8051189E-7213-4DEB-9A8D-8745079B4DCA}"/>
+    <hyperlink ref="AB179" r:id="rId163" display="https://www.geeksforgeeks.org/greedy-algorithm-egyptian-fraction/" xr:uid="{82B16B5F-DD6B-42DD-B6FC-82D2A8B715CD}"/>
+    <hyperlink ref="AB180" r:id="rId164" display="https://www.geeksforgeeks.org/fractional-knapsack-problem/" xr:uid="{E3D2AEA1-B073-4CBA-8C4D-9A4E3C448338}"/>
+    <hyperlink ref="AB181" r:id="rId165" display="https://www.geeksforgeeks.org/maximum-length-chain-of-pairs-dp-20/" xr:uid="{DC69FB9B-4B60-4DFB-B377-B3102BB4200F}"/>
+    <hyperlink ref="AB182" r:id="rId166" display="https://www.geeksforgeeks.org/find-smallest-number-with-given-number-of-digits-and-digit-sum/" xr:uid="{6F5AC750-3A3B-4355-82DB-6EE46AECBB93}"/>
+    <hyperlink ref="AB183" r:id="rId167" display="https://www.geeksforgeeks.org/maximize-sum-consecutive-differences-circular-array/" xr:uid="{982BF341-F095-44B3-8395-21C8E386CC4B}"/>
+    <hyperlink ref="AB184" r:id="rId168" display="https://www.geeksforgeeks.org/paper-cut-minimum-number-squares/" xr:uid="{84016665-F8B9-43AD-B000-57F149219E0B}"/>
+    <hyperlink ref="AB185" r:id="rId169" display="http://geeksforgeeks.org/lexicographically-smallest-array-k-consecutive-swaps/" xr:uid="{9D66FE10-4952-47C2-BA19-8C37A80C4550}"/>
+    <hyperlink ref="AB186" r:id="rId170" display="https://www.spoj.com/problems/CHOCOLA/" xr:uid="{11EAD2C4-9097-439D-9A0E-E3F4CB8C7EB5}"/>
+    <hyperlink ref="AB187" r:id="rId171" display="https://www.geeksforgeeks.org/find-minimum-time-to-finish-all-jobs-with-given-constraints/" xr:uid="{8C4BC855-7E0B-4BED-A4E6-DDA9744C1E1C}"/>
+    <hyperlink ref="AB188" r:id="rId172" display="https://www.geeksforgeeks.org/job-sequencing-using-disjoint-set-union/" xr:uid="{62C4020F-F996-4FB8-AAFB-46495FC2BE12}"/>
+    <hyperlink ref="AB189" r:id="rId173" display="https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/" xr:uid="{8997D5E7-0871-4234-BA43-09D9AA3517B2}"/>
+    <hyperlink ref="AB190" r:id="rId174" display="https://www.geeksforgeeks.org/minimum-edges-reverse-make-path-source-destination/" xr:uid="{393BDB15-5D82-432F-B062-6C8FC2046EBB}"/>
+    <hyperlink ref="AB191" r:id="rId175" display="https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/" xr:uid="{8AC7B9CE-4BCB-452A-A07C-77F84A5AC89D}"/>
+    <hyperlink ref="AB192" r:id="rId176" display="https://www.geeksforgeeks.org/minimum-cost-cut-board-squares/" xr:uid="{CE0D845A-684F-40C9-A95F-55C7562A6BED}"/>
+    <hyperlink ref="AB195" r:id="rId177" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/" xr:uid="{B8389785-9D2F-41C2-958D-BC1DEEE84EFD}"/>
+    <hyperlink ref="AB196" r:id="rId178" display="https://practice.geeksforgeeks.org/problems/reverse-level-order-traversal/1" xr:uid="{4339C151-9693-4B59-B073-ECAADF882A16}"/>
+    <hyperlink ref="AB197" r:id="rId179" display="https://leetcode.com/problems/subtree-of-another-tree/" xr:uid="{B9EF1DDB-4CE7-4283-9950-AE7B94AF0349}"/>
+    <hyperlink ref="AB198" r:id="rId180" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{653ADD33-6374-4838-93F9-421FF07208C5}"/>
+    <hyperlink ref="AB199" r:id="rId181" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{BC5A4577-A2EF-4930-9D6F-ACF831FA4A6D}"/>
+    <hyperlink ref="AB200" r:id="rId182" display="https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1" xr:uid="{03FC3147-A972-46F6-8EB5-F29CB2672F20}"/>
+    <hyperlink ref="AB201" r:id="rId183" display="https://practice.geeksforgeeks.org/problems/right-view-of-binary-tree/1" xr:uid="{461FE070-D7DD-4BC2-9A08-70B7ED53019C}"/>
+    <hyperlink ref="AB202" r:id="rId184" display="https://practice.geeksforgeeks.org/problems/zigzag-tree-traversal/1" xr:uid="{686B6463-5F39-4FEB-9439-E4516A21261D}"/>
+    <hyperlink ref="AB203" r:id="rId185" display="https://www.geeksforgeeks.org/create-a-mirror-tree-from-the-given-binary-tree/" xr:uid="{8E357828-C332-4F61-9500-75C1DE1FE403}"/>
+    <hyperlink ref="AB204" r:id="rId186" display="https://practice.geeksforgeeks.org/problems/leaf-at-same-level/1" xr:uid="{6D745233-72BA-4400-BC81-7133E5C67AFE}"/>
+    <hyperlink ref="AB205" r:id="rId187" display="https://practice.geeksforgeeks.org/problems/check-for-balanced-tree/1" xr:uid="{B560C197-27C0-41E9-928F-3D7D60EFEAF1}"/>
+    <hyperlink ref="AB206" r:id="rId188" display="https://practice.geeksforgeeks.org/problems/transform-to-sum-tree/1" xr:uid="{D14E63FA-9810-4B35-BED2-44B0049C1BA2}"/>
+    <hyperlink ref="AB207" r:id="rId189" display="https://practice.geeksforgeeks.org/problems/check-if-tree-is-isomorphic/1" xr:uid="{B11F8A5B-5048-47F8-8EAA-7808ED5674DC}"/>
+    <hyperlink ref="AB208" r:id="rId190" display="https://leetcode.com/problems/same-tree/" xr:uid="{1A118780-468A-4632-9A68-CD74D885A32A}"/>
+    <hyperlink ref="AB209" r:id="rId191" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{5C9FA174-D568-42F2-82BA-E9236704E479}"/>
+    <hyperlink ref="AB210" r:id="rId192" display="https://practice.geeksforgeeks.org/problems/height-of-binary-tree/1" xr:uid="{24F3E029-8723-4CE4-9647-C7CDEBBE6A8A}"/>
+    <hyperlink ref="AB211" r:id="rId193" display="https://practice.geeksforgeeks.org/problems/diameter-of-binary-tree/1" xr:uid="{3771733D-7F95-4A4C-92A3-1A190A0ACDF2}"/>
+    <hyperlink ref="AB212" r:id="rId194" display="https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1" xr:uid="{B468E069-9EB4-4A1A-8FDF-86569FCC7FDE}"/>
+    <hyperlink ref="AB213" r:id="rId195" display="https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1" xr:uid="{39DE1B15-CE47-419C-A9B5-7E3CFDF126F4}"/>
+    <hyperlink ref="AB214" r:id="rId196" display="https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/" xr:uid="{4D94E740-0484-4FA1-ACC8-60CF00424452}"/>
+    <hyperlink ref="AB215" r:id="rId197" display="https://practice.geeksforgeeks.org/problems/boundary-traversal-of-binary-tree/1" xr:uid="{F7F311EB-D9BB-463A-BA60-81EAA192A109}"/>
+    <hyperlink ref="AB216" r:id="rId198" display="https://www.geeksforgeeks.org/construct-binary-tree-string-bracket-representation/" xr:uid="{BDDA428A-E011-4454-93B6-DB2BECAB5BB5}"/>
+    <hyperlink ref="AB217" r:id="rId199" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="https://www.geeksforgeeks.org/minimum-swap-required-convert-binary-tree-binary-search-tree/ - :~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1BC409C5-C2B8-42EF-A387-B935CFEB83EC}"/>
+    <hyperlink ref="AB218" r:id="rId200" display="https://practice.geeksforgeeks.org/problems/duplicate-subtree-in-binary-tree/1" xr:uid="{63798EE3-E79D-4C29-A66D-D9E36B387A08}"/>
+    <hyperlink ref="AB219" r:id="rId201" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="https://www.geeksforgeeks.org/check-given-graph-tree/ - :~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{B228DF9C-88BD-41A8-A971-7ECDA404DB63}"/>
+    <hyperlink ref="AB220" r:id="rId202" display="https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-binary-tree/1" xr:uid="{0FB7CF90-DAD6-4787-81E8-908E6388A7AD}"/>
+    <hyperlink ref="AB221" r:id="rId203" display="https://practice.geeksforgeeks.org/problems/min-distance-between-two-given-nodes-of-a-binary-tree/1" xr:uid="{45364BCF-F559-407B-A229-3F5DFF080CF6}"/>
+    <hyperlink ref="AB222" r:id="rId204" display="https://practice.geeksforgeeks.org/problems/duplicate-subtrees/1" xr:uid="{7AF0AD44-77A8-4039-B508-46A3CF15DBB4}"/>
+    <hyperlink ref="AB223" r:id="rId205" display="https://www.geeksforgeeks.org/kth-ancestor-node-binary-tree-set-2/" xr:uid="{8982F03D-2397-490C-B844-E1522CD90367}"/>
+    <hyperlink ref="AB224" r:id="rId206" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{2A3F6ECD-7473-47A9-883A-C3882C2F46B1}"/>
+    <hyperlink ref="AB225" r:id="rId207" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{ED7FA9D3-1F9E-4480-A4DD-5B60E85796AF}"/>
+    <hyperlink ref="AB226" r:id="rId208" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1" xr:uid="{29149914-8740-499A-967C-260CF06D7294}"/>
+    <hyperlink ref="AB227" r:id="rId209" display="https://www.geeksforgeeks.org/print-k-sum-paths-binary-tree/" xr:uid="{7A5E1A9B-AE4D-40DE-94B5-3B95197AE657}"/>
+    <hyperlink ref="AB230" r:id="rId210" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{8F34B98D-9E08-4D9A-870B-A37C3A3B4480}"/>
+    <hyperlink ref="AB231" r:id="rId211" display="https://www.geeksforgeeks.org/binary-search-tree-set-1-search-and-insertion/" xr:uid="{6CDBBEE0-A824-4E1D-9C19-0D467527D2C9}"/>
+    <hyperlink ref="AB232" r:id="rId212" display="https://practice.geeksforgeeks.org/problems/minimum-element-in-bst/1" xr:uid="{805CF23E-F3EF-497D-B12E-0F3AA627EE94}"/>
+    <hyperlink ref="AB233" r:id="rId213" display="https://practice.geeksforgeeks.org/problems/predecessor-and-successor/1" xr:uid="{28CFD08B-61E5-4EDC-9329-D5FB680A9E3C}"/>
+    <hyperlink ref="AB234" r:id="rId214" display="https://practice.geeksforgeeks.org/problems/check-whether-bst-contains-dead-end/1" xr:uid="{402DACDE-3442-432F-8966-F8EB3BFDEDED}"/>
+    <hyperlink ref="AB235" r:id="rId215" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-bst/1" xr:uid="{0BB09712-157C-4999-BF50-E43E4FC6EDEB}"/>
+    <hyperlink ref="AB236" r:id="rId216" display="https://practice.geeksforgeeks.org/problems/kth-largest-element-in-bst/1" xr:uid="{202579AD-52B7-42BA-968C-9E1003C81DD9}"/>
+    <hyperlink ref="AB237" r:id="rId217" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{C8DFDE0A-526D-4FA7-A7ED-5123DA1C549B}"/>
+    <hyperlink ref="AB238" r:id="rId218" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/" xr:uid="{3A80230B-9109-45D0-A579-290A4337B8CC}"/>
+    <hyperlink ref="AB239" r:id="rId219" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{EBCECC9D-B29D-4BEE-AE97-F8ED97704752}"/>
+    <hyperlink ref="AB240" r:id="rId220" display="https://www.geeksforgeeks.org/flatten-bst-to-sorted-list-increasing-order/" xr:uid="{571C9FDB-5B86-4166-A8AD-45D4F8A0AFA2}"/>
+    <hyperlink ref="AB241" r:id="rId221" display="https://practice.geeksforgeeks.org/problems/preorder-to-postorder4423/1" xr:uid="{9B240C91-2376-41FB-81C1-430D7BB2EF27}"/>
+    <hyperlink ref="AB242" r:id="rId222" display="https://practice.geeksforgeeks.org/problems/count-bst-nodes-that-lie-in-a-given-range/1" xr:uid="{B0F38E05-2257-40C6-BA3B-3F67C71B60F5}"/>
+    <hyperlink ref="AB243" r:id="rId223" display="https://practice.geeksforgeeks.org/problems/populate-inorder-successor-for-all-nodes/1" xr:uid="{3AAD55D1-C9C5-4446-8548-1B165FA32E64}"/>
+    <hyperlink ref="AB244" r:id="rId224" display="https://www.geeksforgeeks.org/convert-normal-bst-balanced-bst/" xr:uid="{425C09A1-C172-4704-9D4C-9411DACF0111}"/>
+    <hyperlink ref="AB245" r:id="rId225" display="https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/" xr:uid="{1569E50B-E9F3-4835-9A41-5F594A729987}"/>
+    <hyperlink ref="AB246" r:id="rId226" display="https://www.geeksforgeeks.org/given-n-appointments-find-conflicting-appointments/" xr:uid="{DB089346-9202-41B1-8F05-DC622A42637A}"/>
+    <hyperlink ref="AB247" r:id="rId227" display="https://www.geeksforgeeks.org/replace-every-element-with-the-least-greater-element-on-its-right/" xr:uid="{EF07446A-A165-4BBC-A42C-E053DDE26457}"/>
+    <hyperlink ref="AB248" r:id="rId228" display="https://www.geeksforgeeks.org/construct-bst-from-given-preorder-traversa/" xr:uid="{ECB90277-BFB8-49B5-971B-4482C2713FDB}"/>
+    <hyperlink ref="AB249" r:id="rId229" display="https://www.geeksforgeeks.org/find-median-bst-time-o1-space/" xr:uid="{C0E07CEB-1755-49EE-9593-6A2EF8E8C225}"/>
+    <hyperlink ref="AB250" r:id="rId230" display="https://www.geeksforgeeks.org/largest-bst-binary-tree-set-2/" xr:uid="{4B526065-7C40-49FD-94F8-2FD63D11C566}"/>
+    <hyperlink ref="AB253" r:id="rId231" display="https://www.geeksforgeeks.org/k-numbers-difference-maximum-minimum-k-number-minimized/" xr:uid="{0E641267-23A8-4841-AC6A-A280C36913A0}"/>
+    <hyperlink ref="AB254" r:id="rId232" display="https://www.geeksforgeeks.org/heap-sort/" xr:uid="{A9A59FD1-7C16-4F35-BA3B-1013BCA56623}"/>
+    <hyperlink ref="AB255" r:id="rId233" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{D60922CD-E6E7-40FA-B60E-67851B33FA8D}"/>
+    <hyperlink ref="AB256" r:id="rId234" display="https://www.geeksforgeeks.org/k-largestor-smallest-elements-in-an-array/" xr:uid="{CF4BA92F-103F-49AB-A493-C844CB4BB0ED}"/>
+    <hyperlink ref="AB257" r:id="rId235" display="https://www.geeksforgeeks.org/next-greater-element/" xr:uid="{383C4917-E461-4B9F-B9B3-BDBFFE3BA47B}"/>
+    <hyperlink ref="AB258" r:id="rId236" display="https://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/" xr:uid="{023770EA-A486-4431-A7E0-AE30FE58FDDA}"/>
+    <hyperlink ref="AB259" r:id="rId237" display="https://www.geeksforgeeks.org/find-the-maximum-repeating-number-in-ok-time/" xr:uid="{F049842E-E6C3-4FFC-9667-A2344C2E5874}"/>
+    <hyperlink ref="AB260" r:id="rId238" display="https://www.geeksforgeeks.org/k-th-smallest-element-removing-integers-natural-numbers/" xr:uid="{89D768D0-78D8-400A-9F5F-723638F47355}"/>
+    <hyperlink ref="AB261" r:id="rId239" display="https://www.geeksforgeeks.org/find-k-closest-elements-given-value/" xr:uid="{5CA05179-D56E-49FA-B188-8825FA7CFCB8}"/>
+    <hyperlink ref="AB262" r:id="rId240" display="https://www.geeksforgeeks.org/kth-largest-element-in-a-stream/" xr:uid="{C74698D3-57EB-4392-A58F-A92D7DB497FD}"/>
+    <hyperlink ref="AB263" r:id="rId241" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/" xr:uid="{5014FCC3-26FD-4A86-B479-B7457B968171}"/>
+    <hyperlink ref="AB264" r:id="rId242" display="https://www.geeksforgeeks.org/cuckoo-hashing/" xr:uid="{FCEDB3FC-54EE-47FB-8F5F-B4B2A101AEC6}"/>
+    <hyperlink ref="AB265" r:id="rId243" display="https://www.geeksforgeeks.org/find-itinerary-from-a-given-list-of-tickets/" xr:uid="{6E22B4E2-9FAC-4D61-8899-758FA544C207}"/>
+    <hyperlink ref="AB266" r:id="rId244" display="http://geeksforgeeks.org/find-the-largest-subarray-with-0-sum/" xr:uid="{CBC94A12-9D0D-4EAE-A660-14707F541485}"/>
+    <hyperlink ref="AB267" r:id="rId245" display="https://www.geeksforgeeks.org/count-distinct-elements-in-every-window-of-size-k/" xr:uid="{489A8974-64A9-4681-B97C-A00F77C16187}"/>
+    <hyperlink ref="AB268" r:id="rId246" display="https://www.geeksforgeeks.org/group-shifted-string/" xr:uid="{E37379E0-5C36-43CA-A44D-698059025157}"/>
+    <hyperlink ref="AB269" r:id="rId247" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{86353F1E-1A24-4548-BD2E-154C801CDE35}"/>
+    <hyperlink ref="AB270" r:id="rId248" display="https://leetcode.com/problems/find-median-from-data-stream/" xr:uid="{982714FC-9DB3-42CD-BA62-88A4EF6555C4}"/>
+    <hyperlink ref="AB271" r:id="rId249" display="https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/" xr:uid="{41B1E464-87E2-49DA-8B88-C38E92832559}"/>
+    <hyperlink ref="AB272" r:id="rId250" display="https://www.geeksforgeeks.org/find-the-smallest-positive-number-missing-from-an-unsorted-array/" xr:uid="{4DBB8493-CED4-4B90-A1EC-5B0038BADDA5}"/>
+    <hyperlink ref="AB273" r:id="rId251" display="https://www.geeksforgeeks.org/find-surpasser-count-of-each-element-in-array/" xr:uid="{F928DFE0-A2D2-4C04-A952-A893EA8C46AC}"/>
+    <hyperlink ref="AB274" r:id="rId252" display="https://www.geeksforgeeks.org/tournament-tree-and-binary-heap/" xr:uid="{53DAADED-F43E-416E-A4AE-4984D36B2F50}"/>
+    <hyperlink ref="AB275" r:id="rId253" display="https://www.geeksforgeeks.org/online-algorithm-for-checking-palindrome-in-a-stream/" xr:uid="{12912FF0-DFFC-4F71-9D88-028DB23828E6}"/>
+    <hyperlink ref="AB276" r:id="rId254" display="https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-2/" xr:uid="{34604181-C4A0-42EA-984D-255F2A52C447}"/>
+    <hyperlink ref="AB277" r:id="rId255" display="https://www.geeksforgeeks.org/palindrome-substring-queries/" xr:uid="{D0E68237-1A48-4C77-BC4B-8BA25F24FE65}"/>
+    <hyperlink ref="AB278" r:id="rId256" display="https://www.geeksforgeeks.org/subarrays-distinct-elements/" xr:uid="{7CFDEFB2-22EE-43BA-8BC5-A22E05A78F87}"/>
+    <hyperlink ref="AB279" r:id="rId257" display="https://www.geeksforgeeks.org/find-recurring-sequence-fraction/" xr:uid="{8EFFB3E9-B820-47E1-BE1B-A79313F1FDB8}"/>
+    <hyperlink ref="AB280" r:id="rId258" display="https://www.geeksforgeeks.org/k-maximum-sum-combinations-two-arrays/" xr:uid="{7959892B-EF0B-4962-AD06-8D322E6146DF}"/>
+    <hyperlink ref="AB283" r:id="rId259" display="https://practice.geeksforgeeks.org/problems/bfs-traversal-of-graph/1" xr:uid="{904FDF04-1A92-447C-8A98-32F9F4B8AB0F}"/>
+    <hyperlink ref="AB284" r:id="rId260" display="https://www.geeksforgeeks.org/depth-first-search-or-dfs-for-a-graph/" xr:uid="{CCBFF7E7-F6F2-4B5B-A334-8CAB833EB08E}"/>
+    <hyperlink ref="AB285" r:id="rId261" display="https://leetcode.com/problems/flood-fill/" xr:uid="{25FFE266-4311-4671-85C9-DE28DB91F0CA}"/>
+    <hyperlink ref="AB286" r:id="rId262" display="https://www.geeksforgeeks.org/number-of-triangles-in-directed-and-undirected-graphs/" xr:uid="{284D434A-3C65-4C45-978E-435CD29BCCB9}"/>
+    <hyperlink ref="AB287" r:id="rId263" display="https://www.geeksforgeeks.org/detect-cycle-in-a-graph/" xr:uid="{0EEA56DC-9884-4933-B626-043AD9BBE5A4}"/>
+    <hyperlink ref="AB288" r:id="rId264" display="https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1" xr:uid="{839AB8B9-4BC1-49CB-808D-CD2E6F28AF00}"/>
+    <hyperlink ref="AB289" r:id="rId265" display="https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1" xr:uid="{7DACD960-5CEA-4749-BB60-8A45F15DC4A9}"/>
+    <hyperlink ref="AB290" r:id="rId266" display="https://practice.geeksforgeeks.org/problems/steps-by-knight5927/1" xr:uid="{AC92641B-5D8E-431B-A19D-DB8AEA536D3B}"/>
+    <hyperlink ref="AB291" r:id="rId267" display="https://leetcode.com/problems/clone-graph/" xr:uid="{4DC62FC8-3D37-415C-991D-98EE3466C88A}"/>
+    <hyperlink ref="AB292" r:id="rId268" display="https://leetcode.com/problems/number-of-operations-to-make-network-connected/" xr:uid="{1E02BB23-A565-4252-A5AB-40175A592A98}"/>
+    <hyperlink ref="AB293" r:id="rId269" display="https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/" xr:uid="{DD9A6302-E3A3-4F29-B447-A317951199D7}"/>
+    <hyperlink ref="AB294" r:id="rId270" display="https://practice.geeksforgeeks.org/problems/topological-sort/1" xr:uid="{71338F2D-C7B2-4C8E-A0AA-FE5DC6158191}"/>
+    <hyperlink ref="AB295" r:id="rId271" display="https://www.hackerearth.com/practice/algorithms/graphs/topological-sort/practice-problems/algorithm/oliver-and-the-game-3/" xr:uid="{D6C7C692-9DEA-49FA-AC85-73B21F13ABDE}"/>
+    <hyperlink ref="AB296" r:id="rId272" display="https://www.geeksforgeeks.org/minimum-time-taken-by-each-job-to-be-completed-given-by-a-directed-acyclic-graph/" xr:uid="{BC32AA4C-EA5E-4326-A7EE-8A6B2FE2FE62}"/>
+    <hyperlink ref="AB297" r:id="rId273" display="https://www.geeksforgeeks.org/find-whether-it-is-possible-to-finish-all-tasks-or-not-from-given-dependencies/" xr:uid="{386501BA-DB49-4B93-9495-046DA9335D46}"/>
+    <hyperlink ref="AB298" r:id="rId274" display="https://practice.geeksforgeeks.org/problems/find-the-number-of-islands/1" xr:uid="{8C350818-DBA6-4BB1-8E57-5B80605167D0}"/>
+    <hyperlink ref="AB299" r:id="rId275" display="https://www.geeksforgeeks.org/prims-minimum-spanning-tree-mst-greedy-algo-5/" xr:uid="{30F75B58-4867-46CC-A7C5-B170D3FB8AD1}"/>
+    <hyperlink ref="AB300" r:id="rId276" display="https://practice.geeksforgeeks.org/problems/negative-weight-cycle3504/1" xr:uid="{BFA4A227-1D32-4321-AD5D-16B43FEA1EE2}"/>
+    <hyperlink ref="AB301" r:id="rId277" display="https://practice.geeksforgeeks.org/problems/implementing-floyd-warshall2042/1" xr:uid="{E6F9532F-ED7A-4C75-A608-3BF2DCA90C51}"/>
+    <hyperlink ref="AB302" r:id="rId278" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="https://www.geeksforgeeks.org/graph-coloring-applications/ - :~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{61F1305E-E4B4-466A-A1DE-608189D44830}"/>
+    <hyperlink ref="AB303" r:id="rId279" display="https://leetcode.com/problems/snakes-and-ladders/" xr:uid="{95EE7D62-0F04-4DE8-80D0-04B4B29C71F6}"/>
+    <hyperlink ref="AB304" r:id="rId280" display="https://practice.geeksforgeeks.org/problems/strongly-connected-components-kosarajus-algo/1" xr:uid="{A9B21147-ACBD-4EBD-8667-60BB2F4F3927}"/>
+    <hyperlink ref="AB305" r:id="rId281" display="https://www.hackerrank.com/challenges/journey-to-the-moon/problem" xr:uid="{E09B0AB7-0795-47FA-84EA-9308DE7FA5D3}"/>
+    <hyperlink ref="AB306" r:id="rId282" display="https://www.geeksforgeeks.org/vertex-cover-problem-set-1-introduction-approximate-algorithm-2/" xr:uid="{6EE35E17-A012-460A-83FB-3FDF9391CD69}"/>
+    <hyperlink ref="AB307" r:id="rId283" display="https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1" xr:uid="{B04884C7-C3F5-4119-9BC2-5203F1E12F5F}"/>
+    <hyperlink ref="AB308" r:id="rId284" display="https://leetcode.com/problems/cheapest-flights-within-k-stops/description/" xr:uid="{96D91975-C362-4853-86B2-717614A4968D}"/>
+    <hyperlink ref="AB309" r:id="rId285" display="https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/" xr:uid="{5F734835-A5A3-4E0E-A0F2-ADA506D45451}"/>
+    <hyperlink ref="AB310" r:id="rId286" display="https://www.geeksforgeeks.org/detect-negative-cycle-graph-bellman-ford/" xr:uid="{B90EEA4E-677D-4BEB-9795-C6DCAE1DCEB7}"/>
+    <hyperlink ref="AB311" r:id="rId287" display="https://www.geeksforgeeks.org/bipartite-graph/" xr:uid="{3B143A82-26F0-46D9-B1FB-14A3E6478350}"/>
+    <hyperlink ref="AB312" r:id="rId288" display="https://leetcode.com/problems/word-ladder/" xr:uid="{5C9D6F19-2987-4936-B82A-713A7AC66100}"/>
+    <hyperlink ref="AB313" r:id="rId289" display="https://practice.geeksforgeeks.org/problems/alien-dictionary/1" xr:uid="{4BC9A1C8-C0E0-4658-B22E-72E32EB9EEE9}"/>
+    <hyperlink ref="AB314" r:id="rId290" display="https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/" xr:uid="{AAF0DB5E-F9B6-4D54-8683-78A6EF97C1A4}"/>
+    <hyperlink ref="AB315" r:id="rId291" display="https://www.geeksforgeeks.org/total-number-spanning-trees-graph/" xr:uid="{F6DC0517-DF3C-4ADE-9DC1-282E6DE1AD0B}"/>
+    <hyperlink ref="AB316" r:id="rId292" display="https://www.geeksforgeeks.org/travelling-salesman-problem-set-1/" xr:uid="{480B7BFD-AB9F-4CDC-9281-27A00EBDDF16}"/>
+    <hyperlink ref="AB317" r:id="rId293" display="https://www.geeksforgeeks.org/find-longest-path-directed-acyclic-graph/" xr:uid="{545275DB-DFC2-406C-AB67-CACB656956FB}"/>
+    <hyperlink ref="AB318" r:id="rId294" display="https://www.geeksforgeeks.org/two-clique-problem-check-graph-can-divided-two-cliques/" xr:uid="{A4AD8F0B-F802-4C0A-B34F-FCD5E1E9D5AC}"/>
+    <hyperlink ref="AB319" r:id="rId295" display="https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/" xr:uid="{05BDFA4F-C932-4FA0-B57F-E9C9C19599DF}"/>
+    <hyperlink ref="AB320" r:id="rId296" display="https://www.geeksforgeeks.org/chinese-postman-route-inspection-set-1-introduction/" xr:uid="{EE0CB008-88A3-40E6-A56B-9CD6F4B5A12C}"/>
+    <hyperlink ref="AB321" r:id="rId297" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{883EB3AE-8B6B-48E8-AA59-EC052E08F4E4}"/>
+    <hyperlink ref="AB322" r:id="rId298" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{49A726DC-AF86-4359-8442-9D90A42132B7}"/>
+    <hyperlink ref="AB333" r:id="rId299" display="https://practice.geeksforgeeks.org/problems/knapsack-with-duplicate-items4201/1" xr:uid="{8A59707F-7354-48D7-9D67-B01211DD1504}"/>
+    <hyperlink ref="AB334" r:id="rId300" display="https://practice.geeksforgeeks.org/problems/bbt-counter4914/1" xr:uid="{A0755033-900A-4EA2-AE47-C95348FC1347}"/>
+    <hyperlink ref="AB335" r:id="rId301" display="https://practice.geeksforgeeks.org/problems/reach-a-given-score-1587115621/1" xr:uid="{8C7CA9FB-370D-4FB0-BB6A-BC479DA824AE}"/>
+    <hyperlink ref="AB336" r:id="rId302" display="https://practice.geeksforgeeks.org/problems/maximum-difference-of-zeros-and-ones-in-binary-string4111/1" xr:uid="{1932E849-961C-4F9A-A289-EF40453FD6F0}"/>
+    <hyperlink ref="AB337" r:id="rId303" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{DAB16B2B-62C8-42BC-B3ED-8EE81C010AA4}"/>
+    <hyperlink ref="AB338" r:id="rId304" display="https://www.geeksforgeeks.org/permutation-coefficient/" xr:uid="{9FBAA5D8-5378-4650-857A-D7F7CB08171C}"/>
+    <hyperlink ref="AB339" r:id="rId305" display="https://practice.geeksforgeeks.org/problems/longest-repeating-subsequence2004/1" xr:uid="{44171328-8390-4C36-9137-30CAC8BBBB7C}"/>
+    <hyperlink ref="AB340" r:id="rId306" display="https://practice.geeksforgeeks.org/problems/pairs-with-specific-difference1533/1" xr:uid="{C75430B9-3BF2-48E9-987C-1DC662C287A3}"/>
+    <hyperlink ref="AB341" r:id="rId307" display="https://practice.geeksforgeeks.org/problems/longest-subsequence-such-that-difference-between-adjacents-is-one4724/1" xr:uid="{AB6EB0AA-FF37-4153-9FEF-67CD00F5C4E1}"/>
+    <hyperlink ref="AB342" r:id="rId308" display="https://leetcode.com/problems/coin-change/" xr:uid="{6D2A98CB-AB2A-4E9A-A7E9-09C69E3E5E0B}"/>
+    <hyperlink ref="AB343" r:id="rId309" display="https://leetcode.com/problems/longest-increasing-subsequence/" xr:uid="{4820D0B8-BE41-4583-8785-74BF0764CFA3}"/>
+    <hyperlink ref="AB344" r:id="rId310" display="https://leetcode.com/problems/longest-common-subsequence/" xr:uid="{4EDD17BA-B45D-41D6-B7B9-4052ECA70879}"/>
+    <hyperlink ref="AB345" r:id="rId311" display="https://leetcode.com/problems/word-break/" xr:uid="{65AED379-9681-4FA6-B54E-4C71CDA009F4}"/>
+    <hyperlink ref="AB346" r:id="rId312" display="https://leetcode.com/problems/combination-sum-iv/" xr:uid="{2DBF9B55-E81C-4DE1-80B7-5B138AC3094F}"/>
+    <hyperlink ref="AB347" r:id="rId313" display="https://leetcode.com/problems/house-robber/" xr:uid="{4B09ACF2-AF08-423C-8313-6604DAC6D7AB}"/>
+    <hyperlink ref="AB348" r:id="rId314" display="https://leetcode.com/problems/house-robber-ii/" xr:uid="{0DCFFBD4-B98D-46A9-890A-71FC4AA89ACD}"/>
+    <hyperlink ref="AB349" r:id="rId315" display="https://leetcode.com/problems/decode-ways/" xr:uid="{066BE73B-B76E-4F68-B9C3-BECF3C5A4ECD}"/>
+    <hyperlink ref="AB350" r:id="rId316" display="https://leetcode.com/problems/unique-paths/" xr:uid="{F8EB2773-6FB9-4456-A2AC-1411574EBFF7}"/>
+    <hyperlink ref="AB351" r:id="rId317" display="https://leetcode.com/problems/jump-game/" xr:uid="{4381A0DA-9680-4EE0-8A44-FD94CF6A222C}"/>
+    <hyperlink ref="AB352" r:id="rId318" display="https://practice.geeksforgeeks.org/problems/0-1-knapsack-problem0945/1" xr:uid="{DD640466-6CDE-4AC1-98A1-239834FDC667}"/>
+    <hyperlink ref="AB353" r:id="rId319" display="https://practice.geeksforgeeks.org/problems/ncr1019/1" xr:uid="{96F945AB-6F58-44F1-886F-9464F60F6B4F}"/>
+    <hyperlink ref="AB354" r:id="rId320" display="https://www.geeksforgeeks.org/program-nth-catalan-number/" xr:uid="{2BEE23E5-21E5-4030-B6F0-90F7B5E03EBB}"/>
+    <hyperlink ref="AB355" r:id="rId321" display="https://practice.geeksforgeeks.org/problems/edit-distance3702/1" xr:uid="{9FB1A2FE-73B3-4707-9411-11E85B8FB108}"/>
+    <hyperlink ref="AB356" r:id="rId322" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{E6FAF8A2-2213-4369-8340-0029DF82CE7B}"/>
+    <hyperlink ref="AB357" r:id="rId323" display="https://www.geeksforgeeks.org/gold-mine-problem/" xr:uid="{8DBF8CE9-10A1-4ADC-8DD5-9FFF3E6F4826}"/>
+    <hyperlink ref="AB358" r:id="rId324" display="https://www.geeksforgeeks.org/assembly-line-scheduling-dp-34/" xr:uid="{9ECE3E3D-35E5-49F5-B441-3122FAF6C1E1}"/>
+    <hyperlink ref="AB359" r:id="rId325" display="https://practice.geeksforgeeks.org/problems/cutted-segments1642/1" xr:uid="{06D9D768-EA59-4AFD-AF96-4A762F953E0B}"/>
+    <hyperlink ref="AB360" r:id="rId326" display="https://practice.geeksforgeeks.org/problems/maximum-sum-increasing-subsequence4749/1" xr:uid="{EA01766D-28AF-4107-AF64-BC75C2A63592}"/>
+    <hyperlink ref="AB361" r:id="rId327" display="https://www.geeksforgeeks.org/count-subsequences-product-less-k/" xr:uid="{FF0C15E3-C56F-433C-B3E8-115546BC5BB7}"/>
+    <hyperlink ref="AB362" r:id="rId328" display="https://www.geeksforgeeks.org/maximum-subsequence-sum-such-that-no-three-are-consecutive/" xr:uid="{8640E68A-544F-46F9-8149-E60F646F2D77}"/>
+    <hyperlink ref="AB363" r:id="rId329" display="https://practice.geeksforgeeks.org/problems/egg-dropping-puzzle-1587115620/1" xr:uid="{8FE1C413-114E-4792-B209-01FEF11A72A3}"/>
+    <hyperlink ref="AB364" r:id="rId330" display="https://practice.geeksforgeeks.org/problems/max-length-chain/1" xr:uid="{A6EAD5F0-2936-4AF7-B16C-96AB50B63393}"/>
+    <hyperlink ref="AB365" r:id="rId331" display="https://practice.geeksforgeeks.org/problems/largest-square-formed-in-a-matrix0806/1" xr:uid="{663DF0F1-7EF4-4B56-8259-24C88247E2FE}"/>
+    <hyperlink ref="AB366" r:id="rId332" display="https://practice.geeksforgeeks.org/problems/path-in-matrix3805/1" xr:uid="{5FC2557D-1155-4D6D-A6AE-A3FF1CD1EA50}"/>
+    <hyperlink ref="AB367" r:id="rId333" display="https://practice.geeksforgeeks.org/problems/minimum-number-of-jumps-1587115620/1" xr:uid="{A1D8B199-3D30-4C2D-806D-5650BF6121B4}"/>
+    <hyperlink ref="AB368" r:id="rId334" display="http://geeksforgeeks.org/minimum-removals-array-make-max-min-k/" xr:uid="{DB33C251-DCDA-4D14-B692-F11A204BD7C4}"/>
+    <hyperlink ref="AB369" r:id="rId335" display="https://practice.geeksforgeeks.org/problems/longest-common-substring1452/1" xr:uid="{C1EB3E81-7067-474E-9313-7AC1569FC016}"/>
+    <hyperlink ref="AB370" r:id="rId336" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{E7398E64-25DD-4332-AE1C-E0EBC3F49F1A}"/>
+    <hyperlink ref="AB371" r:id="rId337" display="https://www.geeksforgeeks.org/longest-palindromic-subsequence-dp-12/" xr:uid="{3512204E-87CE-4300-9498-A9B88D5A38CD}"/>
+    <hyperlink ref="AB372" r:id="rId338" display="https://practice.geeksforgeeks.org/problems/count-palindromic-subsequences/1" xr:uid="{4A59C2B3-B4B0-47F3-B24F-C253A50BE66C}"/>
+    <hyperlink ref="AB373" r:id="rId339" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{D2E18431-5F8B-4B9D-A6CD-D71E3C4B4DEA}"/>
+    <hyperlink ref="AB374" r:id="rId340" display="https://practice.geeksforgeeks.org/problems/longest-alternating-subsequence5951/1" xr:uid="{CD85BF85-6C76-497E-A50B-0EE1BC1E4958}"/>
+    <hyperlink ref="AB375" r:id="rId341" display="https://www.geeksforgeeks.org/weighted-job-scheduling/" xr:uid="{70EF73C3-F7F0-4943-9318-232A7A176BA7}"/>
+    <hyperlink ref="AB376" r:id="rId342" display="https://www.geeksforgeeks.org/coin-game-winner-every-player-three-choices/" xr:uid="{EC2CAF17-943E-44C3-A10B-C06F716517BC}"/>
+    <hyperlink ref="AB377" r:id="rId343" display="https://www.geeksforgeeks.org/count-derangements-permutation-such-that-no-element-appears-in-its-original-position/" xr:uid="{2848446B-7654-415D-B6C2-AB6F0C48F4DB}"/>
+    <hyperlink ref="AB378" r:id="rId344" display="https://practice.geeksforgeeks.org/problems/optimal-strategy-for-a-game-1587115620/1" xr:uid="{1E891C80-E9FF-4307-BB07-A345AC0EDF30}"/>
+    <hyperlink ref="AB379" r:id="rId345" display="https://practice.geeksforgeeks.org/problems/word-wrap1646/1" xr:uid="{DDB0ED19-BD7F-41E8-BA57-8D5809577F88}"/>
+    <hyperlink ref="AB380" r:id="rId346" display="https://practice.geeksforgeeks.org/problems/mobile-numeric-keypad5456/1" xr:uid="{374D5B86-4D7B-4363-8689-B29C1CD37B24}"/>
+    <hyperlink ref="AB381" r:id="rId347" display="https://leetcode.com/problems/maximum-length-of-pair-chain/" xr:uid="{11344E87-9283-4023-BB27-98961A0D84AF}"/>
+    <hyperlink ref="AB382" r:id="rId348" display="https://www.geeksforgeeks.org/matrix-chain-multiplication-dp-8/" xr:uid="{8EA77A19-B8EB-4191-92A2-B247C0DD1F50}"/>
+    <hyperlink ref="AB383" r:id="rId349" display="https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/" xr:uid="{5CBD5AEC-120F-4887-BA58-51DDA9E05CEF}"/>
+    <hyperlink ref="AB384" r:id="rId350" display="https://www.geeksforgeeks.org/optimal-binary-search-tree-dp-24/" xr:uid="{368C1E6E-F2BF-4A7A-9BFD-47831BEA1079}"/>
+    <hyperlink ref="AB385" r:id="rId351" display="https://www.geeksforgeeks.org/largest-rectangular-sub-matrix-whose-sum-0/" xr:uid="{2245DAB6-F55F-4FAE-A1A5-C4E9B34BCB5D}"/>
+    <hyperlink ref="AB386" r:id="rId352" display="https://www.geeksforgeeks.org/largest-area-rectangular-sub-matrix-equal-number-1s-0s/" xr:uid="{CF9BAE24-D7E6-447B-9ACF-F6F7FA33A392}"/>
+    <hyperlink ref="AB401" r:id="rId353" display="https://leetcode.com/problems/range-sum-query-immutable/" xr:uid="{A1E4FB6B-A6DE-4EA4-AAAE-E275B29BDC4A}"/>
+    <hyperlink ref="AB402" r:id="rId354" display="https://cp-algorithms.com/sequences/rmq.html" xr:uid="{AD1D79BA-B697-4348-A2F5-4F54FC56DCAD}"/>
+    <hyperlink ref="AB403" r:id="rId355" display="https://leetcode.com/problems/range-sum-query-mutable/" xr:uid="{EF8770DC-FFA8-4C36-99C1-1CEFF4572716}"/>
+    <hyperlink ref="AB404" r:id="rId356" display="https://leetcode.com/problems/create-sorted-array-through-instructions/" xr:uid="{78A5F6F4-3FA4-4349-9D26-AA1953628327}"/>
+    <hyperlink ref="AB405" r:id="rId357" display="https://leetcode.com/problems/count-of-range-sum/" xr:uid="{427DBBDF-ABC1-43B7-97B9-7D888FF57114}"/>
+    <hyperlink ref="AB406" r:id="rId358" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/" xr:uid="{96E10F32-68C0-4726-8DED-260401D72ACA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39332497-0004-4DAE-823E-461698721477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C817083-54B9-43C9-8FB6-8A4DE3D78ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="1004">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -3028,6 +3028,15 @@
   </si>
   <si>
     <t>just divide it in 2 vectors and then traverse the list again to put the value alternatley</t>
+  </si>
+  <si>
+    <t>is balanced tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> binary tree</t>
+  </si>
+  <si>
+    <t>just return 0 if the root is null other wise find lh if -1 return -1 find rh if -1 return -1 and then if the abs of lh-rh is more than 1 then return -1 and finally return 1 + max(rh, lh)</t>
   </si>
 </sst>
 </file>
@@ -3463,7 +3472,7 @@
   <dimension ref="A1:AD406"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+      <selection activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6330,19 +6339,19 @@
       <c r="AD110" s="3"/>
     </row>
     <row r="111" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="8">
         <v>106</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="8" t="s">
         <v>238</v>
       </c>
       <c r="AA111" t="s">
@@ -7019,19 +7028,19 @@
       <c r="AD136" s="3"/>
     </row>
     <row r="137" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="8">
         <v>133</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="8" t="s">
         <v>289</v>
       </c>
       <c r="AA137" t="s">
@@ -7433,19 +7442,19 @@
       <c r="AD152" s="3"/>
     </row>
     <row r="153" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="A153" s="8">
         <v>149</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="8" t="s">
         <v>323</v>
       </c>
       <c r="AA153" t="s">
@@ -7568,19 +7577,19 @@
       <c r="AD157" s="3"/>
     </row>
     <row r="158" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="A158" s="8">
         <v>154</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="8" t="s">
         <v>333</v>
       </c>
       <c r="AA158" t="s">
@@ -8009,6 +8018,21 @@
       <c r="AD174" s="3"/>
     </row>
     <row r="175" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>171</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D175" t="s">
+        <v>80</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1003</v>
+      </c>
       <c r="AA175" t="s">
         <v>648</v>
       </c>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C817083-54B9-43C9-8FB6-8A4DE3D78ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF47838-7610-49BF-BAEA-2D9749327C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1022">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -3037,6 +3037,60 @@
   </si>
   <si>
     <t>just return 0 if the root is null other wise find lh if -1 return -1 find rh if -1 return -1 and then if the abs of lh-rh is more than 1 then return -1 and finally return 1 + max(rh, lh)</t>
+  </si>
+  <si>
+    <t>bottom view of the binary tree</t>
+  </si>
+  <si>
+    <t>for this we need to maintain a queue of pair of node and int and map of int(vertical index) and int(node val) and do the level order traversal so the node left line -1 and node right line +1 and then push all the map second in the ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as the bottom view but do not overwrite the indices of the map </t>
+  </si>
+  <si>
+    <t>diagonal traversal</t>
+  </si>
+  <si>
+    <t>prioritize the right of the root and when ever encounter the left push into the queue</t>
+  </si>
+  <si>
+    <t>boundary traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traverse the left boundary then the leaf boundary and finally the right boundary but in reverse order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kth largest numbr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just sort the array return kth last element </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product of array exept self </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just many condition in the number of 0 is more the 1 then all the elemet is 0 is number of 0 is 1 and all the element exept the 0 are 0 and otherwise just find the product overall and keep dividing with current number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the minimum in rotated sorted array </t>
+  </si>
+  <si>
+    <t>if the num[i] &lt; num[i-1] then return num[i] otherwise return num[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kth smallest in the bst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to solve it in o(1) space complexity  count ++ if(count == k) then ans = root-&gt;data and traverse in the inorder  </t>
+  </si>
+  <si>
+    <t>kth largest binary tree</t>
+  </si>
+  <si>
+    <t>same as above do the reverse inorder traversal</t>
   </si>
 </sst>
 </file>
@@ -3471,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
   <dimension ref="A1:AD406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I174" sqref="I174"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L183" sqref="L183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6258,19 +6312,19 @@
       <c r="AD107" s="3"/>
     </row>
     <row r="108" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="A108" s="8">
         <v>103</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="8" t="s">
         <v>229</v>
       </c>
       <c r="AA108" t="s">
@@ -7937,19 +7991,19 @@
       <c r="AD171" s="3"/>
     </row>
     <row r="172" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172">
+      <c r="A172" s="8">
         <v>168</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="8" t="s">
         <v>996</v>
       </c>
       <c r="AA172" t="s">
@@ -7964,19 +8018,19 @@
       <c r="AD172" s="3"/>
     </row>
     <row r="173" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173">
+      <c r="A173" s="8">
         <v>169</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="8" t="s">
         <v>998</v>
       </c>
       <c r="AA173" t="s">
@@ -7991,19 +8045,19 @@
       <c r="AD173" s="3"/>
     </row>
     <row r="174" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="A174" s="8">
         <v>170</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="8" t="s">
         <v>1000</v>
       </c>
       <c r="AA174" t="s">
@@ -8018,19 +8072,19 @@
       <c r="AD174" s="3"/>
     </row>
     <row r="175" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="A175" s="8">
         <v>171</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="8" t="s">
         <v>1002</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="8" t="s">
         <v>1003</v>
       </c>
       <c r="AA175" t="s">
@@ -8045,6 +8099,21 @@
       <c r="AD175" s="3"/>
     </row>
     <row r="176" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="8">
+        <v>172</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>1005</v>
+      </c>
       <c r="AA176" t="s">
         <v>648</v>
       </c>
@@ -8053,7 +8122,22 @@
       </c>
       <c r="AD176" s="3"/>
     </row>
-    <row r="177" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="8">
+        <v>173</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>1007</v>
+      </c>
       <c r="AA177" t="s">
         <v>648</v>
       </c>
@@ -8065,7 +8149,22 @@
       </c>
       <c r="AD177" s="3"/>
     </row>
-    <row r="178" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="8">
+        <v>174</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>1009</v>
+      </c>
       <c r="AA178" t="s">
         <v>648</v>
       </c>
@@ -8077,7 +8176,22 @@
       </c>
       <c r="AD178" s="3"/>
     </row>
-    <row r="179" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="8">
+        <v>175</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>1011</v>
+      </c>
       <c r="AA179" t="s">
         <v>648</v>
       </c>
@@ -8086,7 +8200,22 @@
       </c>
       <c r="AD179" s="3"/>
     </row>
-    <row r="180" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="8">
+        <v>176</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>1013</v>
+      </c>
       <c r="AA180" t="s">
         <v>648</v>
       </c>
@@ -8098,7 +8227,22 @@
       </c>
       <c r="AD180" s="3"/>
     </row>
-    <row r="181" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="8">
+        <v>177</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>1015</v>
+      </c>
       <c r="AA181" t="s">
         <v>648</v>
       </c>
@@ -8110,7 +8254,22 @@
       </c>
       <c r="AD181" s="3"/>
     </row>
-    <row r="182" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="8">
+        <v>178</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>1017</v>
+      </c>
       <c r="AA182" t="s">
         <v>648</v>
       </c>
@@ -8122,7 +8281,22 @@
       </c>
       <c r="AD182" s="3"/>
     </row>
-    <row r="183" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="8">
+        <v>179</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="AA183" t="s">
         <v>648</v>
       </c>
@@ -8134,7 +8308,22 @@
       </c>
       <c r="AD183" s="3"/>
     </row>
-    <row r="184" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="8">
+        <v>180</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>1021</v>
+      </c>
       <c r="AA184" t="s">
         <v>648</v>
       </c>
@@ -8146,7 +8335,7 @@
       </c>
       <c r="AD184" s="3"/>
     </row>
-    <row r="185" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA185" t="s">
         <v>648</v>
       </c>
@@ -8158,7 +8347,7 @@
       </c>
       <c r="AD185" s="3"/>
     </row>
-    <row r="186" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA186" t="s">
         <v>648</v>
       </c>
@@ -8170,7 +8359,7 @@
       </c>
       <c r="AD186" s="3"/>
     </row>
-    <row r="187" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA187" t="s">
         <v>648</v>
       </c>
@@ -8179,7 +8368,7 @@
       </c>
       <c r="AD187" s="3"/>
     </row>
-    <row r="188" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA188" t="s">
         <v>648</v>
       </c>
@@ -8191,7 +8380,7 @@
       </c>
       <c r="AD188" s="3"/>
     </row>
-    <row r="189" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA189" t="s">
         <v>648</v>
       </c>
@@ -8203,7 +8392,7 @@
       </c>
       <c r="AD189" s="3"/>
     </row>
-    <row r="190" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA190" t="s">
         <v>648</v>
       </c>
@@ -8212,7 +8401,7 @@
       </c>
       <c r="AD190" s="3"/>
     </row>
-    <row r="191" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA191" t="s">
         <v>648</v>
       </c>
@@ -8221,7 +8410,7 @@
       </c>
       <c r="AD191" s="3"/>
     </row>
-    <row r="192" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA192" t="s">
         <v>648</v>
       </c>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF47838-7610-49BF-BAEA-2D9749327C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F051D4-CFB0-4423-89E4-5DA43598228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1025">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -3091,6 +3091,15 @@
   </si>
   <si>
     <t>same as above do the reverse inorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate bst </t>
+  </si>
+  <si>
+    <t>bianary tree</t>
+  </si>
+  <si>
+    <t>just do the inorder traversal to get sorted array that may not be sorted lol</t>
   </si>
 </sst>
 </file>
@@ -3526,7 +3535,7 @@
   <dimension ref="A1:AD406"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L183" sqref="L183"/>
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8336,6 +8345,21 @@
       <c r="AD184" s="3"/>
     </row>
     <row r="185" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="8">
+        <v>181</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="AA185" t="s">
         <v>648</v>
       </c>

--- a/cheetsheet.xlsx
+++ b/cheetsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Bhalla\Desktop\My Codes\codes\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F051D4-CFB0-4423-89E4-5DA43598228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB3833-7327-43C0-BB2C-C3E86FEACE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D0C7BC5-2017-4E60-99D7-05B32A6ED549}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="1032">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -3100,6 +3100,27 @@
   </si>
   <si>
     <t>just do the inorder traversal to get sorted array that may not be sorted lol</t>
+  </si>
+  <si>
+    <t>even odd tree</t>
+  </si>
+  <si>
+    <t>just do a level order treversal</t>
+  </si>
+  <si>
+    <t>longest zigzag path in the bianry tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using the recursive approach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bottom left tree value </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> medium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">using the level order traversal approach </t>
   </si>
 </sst>
 </file>
@@ -3137,7 +3158,7 @@
       <name val="Open Sans"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3165,6 +3186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3196,7 +3223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3218,6 +3245,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3534,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE3521-CBA8-454F-A60D-22BD994D05AC}">
   <dimension ref="A1:AD406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8384,6 +8413,21 @@
       <c r="AD186" s="3"/>
     </row>
     <row r="187" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="9">
+        <v>185</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>1026</v>
+      </c>
       <c r="AA187" t="s">
         <v>648</v>
       </c>
@@ -8393,6 +8437,33 @@
       <c r="AD187" s="3"/>
     </row>
     <row r="188" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="10">
+        <v>186</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+      <c r="K188" s="10"/>
+      <c r="L188" s="10"/>
+      <c r="M188" s="10"/>
+      <c r="N188" s="10"/>
+      <c r="O188" s="10"/>
+      <c r="P188" s="10"/>
+      <c r="Q188" s="10"/>
       <c r="AA188" t="s">
         <v>648</v>
       </c>
@@ -8405,6 +8476,33 @@
       <c r="AD188" s="3"/>
     </row>
     <row r="189" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="10">
+        <v>187</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="10"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="10"/>
+      <c r="N189" s="10"/>
+      <c r="O189" s="10"/>
+      <c r="P189" s="10"/>
+      <c r="Q189" s="10"/>
       <c r="AA189" t="s">
         <v>648</v>
       </c>
@@ -8417,6 +8515,23 @@
       <c r="AD189" s="3"/>
     </row>
     <row r="190" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="10"/>
+      <c r="N190" s="10"/>
+      <c r="O190" s="10"/>
+      <c r="P190" s="10"/>
+      <c r="Q190" s="10"/>
       <c r="AA190" t="s">
         <v>648</v>
       </c>
@@ -8426,6 +8541,23 @@
       <c r="AD190" s="3"/>
     </row>
     <row r="191" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
+      <c r="L191" s="10"/>
+      <c r="M191" s="10"/>
+      <c r="N191" s="10"/>
+      <c r="O191" s="10"/>
+      <c r="P191" s="10"/>
+      <c r="Q191" s="10"/>
       <c r="AA191" t="s">
         <v>648</v>
       </c>
@@ -8435,6 +8567,23 @@
       <c r="AD191" s="3"/>
     </row>
     <row r="192" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="10"/>
+      <c r="K192" s="10"/>
+      <c r="L192" s="10"/>
+      <c r="M192" s="10"/>
+      <c r="N192" s="10"/>
+      <c r="O192" s="10"/>
+      <c r="P192" s="10"/>
+      <c r="Q192" s="10"/>
       <c r="AA192" t="s">
         <v>648</v>
       </c>
@@ -8446,13 +8595,64 @@
       </c>
       <c r="AD192" s="3"/>
     </row>
-    <row r="193" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="10"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="10"/>
+      <c r="N193" s="10"/>
+      <c r="O193" s="10"/>
+      <c r="P193" s="10"/>
+      <c r="Q193" s="10"/>
       <c r="AD193" s="3"/>
     </row>
-    <row r="194" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="10"/>
+      <c r="N194" s="10"/>
+      <c r="O194" s="10"/>
+      <c r="P194" s="10"/>
+      <c r="Q194" s="10"/>
       <c r="AD194" s="3"/>
     </row>
-    <row r="195" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="10"/>
+      <c r="M195" s="10"/>
+      <c r="N195" s="10"/>
+      <c r="O195" s="10"/>
+      <c r="P195" s="10"/>
+      <c r="Q195" s="10"/>
       <c r="AA195" t="s">
         <v>678</v>
       </c>
@@ -8464,7 +8664,24 @@
       </c>
       <c r="AD195" s="3"/>
     </row>
-    <row r="196" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="10"/>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="10"/>
       <c r="AA196" t="s">
         <v>678</v>
       </c>
@@ -8476,7 +8693,24 @@
       </c>
       <c r="AD196" s="3"/>
     </row>
-    <row r="197" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="10"/>
+      <c r="N197" s="10"/>
+      <c r="O197" s="10"/>
+      <c r="P197" s="10"/>
+      <c r="Q197" s="10"/>
       <c r="AA197" t="s">
         <v>678</v>
       </c>
@@ -8488,7 +8722,24 @@
       </c>
       <c r="AD197" s="3"/>
     </row>
-    <row r="198" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="10"/>
+      <c r="M198" s="10"/>
+      <c r="N198" s="10"/>
+      <c r="O198" s="10"/>
+      <c r="P198" s="10"/>
+      <c r="Q198" s="10"/>
       <c r="AA198" t="s">
         <v>678</v>
       </c>
@@ -8500,7 +8751,24 @@
       </c>
       <c r="AD198" s="3"/>
     </row>
-    <row r="199" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="10"/>
+      <c r="N199" s="10"/>
+      <c r="O199" s="10"/>
+      <c r="P199" s="10"/>
+      <c r="Q199" s="10"/>
       <c r="AA199" t="s">
         <v>678</v>
       </c>
@@ -8512,7 +8780,24 @@
       </c>
       <c r="AD199" s="3"/>
     </row>
-    <row r="200" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="10"/>
+      <c r="K200" s="10"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="10"/>
+      <c r="N200" s="10"/>
+      <c r="O200" s="10"/>
+      <c r="P200" s="10"/>
+      <c r="Q200" s="10"/>
       <c r="AA200" t="s">
         <v>678</v>
       </c>
@@ -8524,7 +8809,24 @@
       </c>
       <c r="AD200" s="3"/>
     </row>
-    <row r="201" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="10"/>
+      <c r="M201" s="10"/>
+      <c r="N201" s="10"/>
+      <c r="O201" s="10"/>
+      <c r="P201" s="10"/>
+      <c r="Q201" s="10"/>
       <c r="AA201" t="s">
         <v>678</v>
       </c>
@@ -8536,7 +8838,24 @@
       </c>
       <c r="AD201" s="3"/>
     </row>
-    <row r="202" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="10"/>
+      <c r="K202" s="10"/>
+      <c r="L202" s="10"/>
+      <c r="M202" s="10"/>
+      <c r="N202" s="10"/>
+      <c r="O202" s="10"/>
+      <c r="P202" s="10"/>
+      <c r="Q202" s="10"/>
       <c r="AA202" t="s">
         <v>678</v>
       </c>
@@ -8548,7 +8867,7 @@
       </c>
       <c r="AD202" s="3"/>
     </row>
-    <row r="203" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA203" t="s">
         <v>678</v>
       </c>
@@ -8560,7 +8879,7 @@
       </c>
       <c r="AD203" s="3"/>
     </row>
-    <row r="204" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA204" t="s">
         <v>678</v>
       </c>
@@ -8572,7 +8891,7 @@
       </c>
       <c r="AD204" s="3"/>
     </row>
-    <row r="205" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA205" t="s">
         <v>678</v>
       </c>
@@ -8584,7 +8903,7 @@
       </c>
       <c r="AD205" s="3"/>
     </row>
-    <row r="206" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA206" t="s">
         <v>678</v>
       </c>
@@ -8596,7 +8915,7 @@
       </c>
       <c r="AD206" s="3"/>
     </row>
-    <row r="207" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA207" t="s">
         <v>678</v>
       </c>
@@ -8608,7 +8927,7 @@
       </c>
       <c r="AD207" s="3"/>
     </row>
-    <row r="208" spans="27:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA208" t="s">
         <v>678</v>
       </c>
